--- a/app/translations.xlsx
+++ b/app/translations.xlsx
@@ -12646,31 +12646,31 @@
     <t>archived_selected_notes_PLURALS_one</t>
   </si>
   <si>
-    <t>Archived %d note</t>
-  </si>
-  <si>
-    <t>%d note archivée</t>
-  </si>
-  <si>
-    <t>Archiviata %d nota</t>
-  </si>
-  <si>
-    <t>Gearchiveerde %d notitie</t>
+    <t>Archived %1$d note</t>
+  </si>
+  <si>
+    <t>%1$d note archivée</t>
+  </si>
+  <si>
+    <t>Archiviata %1$d nota</t>
+  </si>
+  <si>
+    <t>Gearchiveerde %1$d notitie</t>
   </si>
   <si>
     <t>archived_selected_notes_PLURALS_other</t>
   </si>
   <si>
-    <t>Archived %d notes</t>
-  </si>
-  <si>
-    <t>%d notes archivées</t>
-  </si>
-  <si>
-    <t>Archiviate %d note</t>
-  </si>
-  <si>
-    <t>Gearchiveerde %d notities</t>
+    <t>Archived %1$d notes</t>
+  </si>
+  <si>
+    <t>%1$d notes archivées</t>
+  </si>
+  <si>
+    <t>Archiviate %1$d note</t>
+  </si>
+  <si>
+    <t>Gearchiveerde %1$d notities</t>
   </si>
   <si>
     <t>archived_selected_notes_PLURALS_two</t>
@@ -13255,28 +13255,28 @@
     <t>cant_add_files_PLURALS_one</t>
   </si>
   <si>
-    <t>Can’t add %d file</t>
-  </si>
-  <si>
-    <t>%d fichier n\'a pas pu être ajouté</t>
-  </si>
-  <si>
-    <t>Impossibile aggiungere %d file</t>
-  </si>
-  <si>
-    <t>Kan %d bestand niet toevoegen</t>
+    <t>Can’t add %1$d file</t>
+  </si>
+  <si>
+    <t>%1$d fichier n\'a pas pu être ajouté</t>
+  </si>
+  <si>
+    <t>Impossibile aggiungere %1$d file</t>
+  </si>
+  <si>
+    <t>Kan %1$d bestand niet toevoegen</t>
   </si>
   <si>
     <t>cant_add_files_PLURALS_other</t>
   </si>
   <si>
-    <t>Can’t add %d files</t>
-  </si>
-  <si>
-    <t>%d fichiers n\'ont pas pu être ajoutés</t>
-  </si>
-  <si>
-    <t>Kan %d bestanden niet toevoegen</t>
+    <t>Can’t add %1$d files</t>
+  </si>
+  <si>
+    <t>%1$d fichiers n\'ont pas pu être ajoutés</t>
+  </si>
+  <si>
+    <t>Kan %1$d bestanden niet toevoegen</t>
   </si>
   <si>
     <t>cant_add_files_PLURALS_two</t>
@@ -13288,85 +13288,85 @@
     <t>cant_add_images_PLURALS_few</t>
   </si>
   <si>
-    <t>Nepodařilo se přidat %d obrázky</t>
-  </si>
-  <si>
-    <t>Nie można dodać %d obrazów</t>
-  </si>
-  <si>
-    <t>%d slike niso bile dodane.</t>
+    <t>Nepodařilo se přidat %1$d obrázky</t>
+  </si>
+  <si>
+    <t>Nie można dodać %1$d obrazów</t>
+  </si>
+  <si>
+    <t>%1$d slike niso bile dodane.</t>
   </si>
   <si>
     <t>cant_add_images_PLURALS_many</t>
   </si>
   <si>
-    <t>Nepodařilo se přidat %d obrázků</t>
+    <t>Nepodařilo se přidat %1$d obrázků</t>
   </si>
   <si>
     <t>cant_add_images_PLURALS_one</t>
   </si>
   <si>
-    <t>Can’t add %d image</t>
-  </si>
-  <si>
-    <t>Nepodařilo se přidat %d obrázek</t>
-  </si>
-  <si>
-    <t>Kann %d Bild nicht hinzufügen</t>
-  </si>
-  <si>
-    <t>Impossible d\'ajouter %d image</t>
-  </si>
-  <si>
-    <t>Impossibile aggiungere %d immagine</t>
-  </si>
-  <si>
-    <t>Kan ikke legge til %d bilde</t>
-  </si>
-  <si>
-    <t>Kan %d afbeelding niet toevoegen</t>
-  </si>
-  <si>
-    <t>Kan ikkje legga til %d bilete</t>
-  </si>
-  <si>
-    <t>Nie można dodać %d obrazu</t>
-  </si>
-  <si>
-    <t>%d slika ni bila dodana.</t>
-  </si>
-  <si>
-    <t>Không thể thêm %d ảnh</t>
+    <t>Can’t add %1$d image</t>
+  </si>
+  <si>
+    <t>Nepodařilo se přidat %1$d obrázek</t>
+  </si>
+  <si>
+    <t>Kann %1$d Bild nicht hinzufügen</t>
+  </si>
+  <si>
+    <t>Impossible d\'ajouter %1$d image</t>
+  </si>
+  <si>
+    <t>Impossibile aggiungere %1$d immagine</t>
+  </si>
+  <si>
+    <t>Kan ikke legge til %1$d bilde</t>
+  </si>
+  <si>
+    <t>Kan %1$d afbeelding niet toevoegen</t>
+  </si>
+  <si>
+    <t>Kan ikkje legga til %1$d bilete</t>
+  </si>
+  <si>
+    <t>Nie można dodać %1$d obrazu</t>
+  </si>
+  <si>
+    <t>%1$d slika ni bila dodana.</t>
+  </si>
+  <si>
+    <t>Không thể thêm %1$d ảnh</t>
   </si>
   <si>
     <t>cant_add_images_PLURALS_other</t>
   </si>
   <si>
-    <t>Can’t add %d images</t>
-  </si>
-  <si>
-    <t>Kann %d Bilder nicht hinzufügen</t>
-  </si>
-  <si>
-    <t>Impossible d\'ajouter %d images</t>
-  </si>
-  <si>
-    <t>Impossibile aggiungere %d immagini</t>
-  </si>
-  <si>
-    <t>Kan ikke legge til %d bilder</t>
-  </si>
-  <si>
-    <t>Kan %d afbeeldingen niet toevoegen</t>
-  </si>
-  <si>
-    <t>%d slik ni bilo dodanih.</t>
+    <t>Can’t add %1$d images</t>
+  </si>
+  <si>
+    <t>Kann %1$d Bilder nicht hinzufügen</t>
+  </si>
+  <si>
+    <t>Impossible d\'ajouter %1$d images</t>
+  </si>
+  <si>
+    <t>Impossibile aggiungere %1$d immagini</t>
+  </si>
+  <si>
+    <t>Kan ikke legge til %1$d bilder</t>
+  </si>
+  <si>
+    <t>Kan %1$d afbeeldingen niet toevoegen</t>
+  </si>
+  <si>
+    <t>%1$d slik ni bilo dodanih.</t>
   </si>
   <si>
     <t>cant_add_images_PLURALS_two</t>
   </si>
   <si>
-    <t>%d sliki nista bili dodani.</t>
+    <t>%1$d sliki nista bili dodani.</t>
   </si>
   <si>
     <t>cant_add_images_PLURALS_zero</t>
@@ -14803,19 +14803,19 @@
     <t>delete_file</t>
   </si>
   <si>
-    <t>Delete file \'%s\'?</t>
-  </si>
-  <si>
-    <t>Datei \'%s\' löschen?</t>
-  </si>
-  <si>
-    <t>Supprimer le fichier \'%s\'?</t>
-  </si>
-  <si>
-    <t>Eliminare il file \’%s\’?</t>
-  </si>
-  <si>
-    <t>Bestand \'%s\' verwijderen?</t>
+    <t>Delete file \'%1$s\'?</t>
+  </si>
+  <si>
+    <t>Datei \'%1$s\' löschen?</t>
+  </si>
+  <si>
+    <t>Supprimer le fichier \'%1$s\'?</t>
+  </si>
+  <si>
+    <t>Eliminare il file \’%1$s\’?</t>
+  </si>
+  <si>
+    <t>Bestand \'%1$s\' verwijderen?</t>
   </si>
   <si>
     <t>delete_forever</t>
@@ -15250,31 +15250,31 @@
     <t>deleted_selected_notes_PLURALS_one</t>
   </si>
   <si>
-    <t>Deleted %d note</t>
-  </si>
-  <si>
-    <t>%d note supprimée</t>
-  </si>
-  <si>
-    <t>Eliminata %d nota</t>
-  </si>
-  <si>
-    <t>Verwijderde %d notitie</t>
+    <t>Deleted %1$d note</t>
+  </si>
+  <si>
+    <t>%1$d note supprimée</t>
+  </si>
+  <si>
+    <t>Eliminata %1$d nota</t>
+  </si>
+  <si>
+    <t>Verwijderde %1$d notitie</t>
   </si>
   <si>
     <t>deleted_selected_notes_PLURALS_other</t>
   </si>
   <si>
-    <t>Deleted %d notes</t>
-  </si>
-  <si>
-    <t>%d notes supprimées</t>
-  </si>
-  <si>
-    <t>Eliminate %d note</t>
-  </si>
-  <si>
-    <t>Verwijderde %d notities</t>
+    <t>Deleted %1$d notes</t>
+  </si>
+  <si>
+    <t>%1$d notes supprimées</t>
+  </si>
+  <si>
+    <t>Eliminate %1$d note</t>
+  </si>
+  <si>
+    <t>Verwijderde %1$d notities</t>
   </si>
   <si>
     <t>deleted_selected_notes_PLURALS_two</t>
@@ -16874,31 +16874,31 @@
     <t>imported_notes_PLURALS_one</t>
   </si>
   <si>
-    <t>Imported %s Note</t>
-  </si>
-  <si>
-    <t>%s note importée</t>
-  </si>
-  <si>
-    <t>Importata %s nota</t>
-  </si>
-  <si>
-    <t>Geïmporteerde %s Notitie</t>
+    <t>Imported %1$s Note</t>
+  </si>
+  <si>
+    <t>%1$s note importée</t>
+  </si>
+  <si>
+    <t>Importata %1$s nota</t>
+  </si>
+  <si>
+    <t>Geïmporteerde %1$s Notitie</t>
   </si>
   <si>
     <t>imported_notes_PLURALS_other</t>
   </si>
   <si>
-    <t>Imported %s Notes</t>
-  </si>
-  <si>
-    <t>%s notes importées</t>
-  </si>
-  <si>
-    <t>Importate %s note</t>
-  </si>
-  <si>
-    <t>Geïmporteerde %s Notities</t>
+    <t>Imported %1$s Notes</t>
+  </si>
+  <si>
+    <t>%1$s notes importées</t>
+  </si>
+  <si>
+    <t>Importate %1$s note</t>
+  </si>
+  <si>
+    <t>Geïmporteerde %1$s Notities</t>
   </si>
   <si>
     <t>imported_notes_PLURALS_two</t>
@@ -18428,19 +18428,19 @@
     <t>more</t>
   </si>
   <si>
-    <t>%d more</t>
-  </si>
-  <si>
-    <t>%d mehr</t>
-  </si>
-  <si>
-    <t>%d de plus</t>
-  </si>
-  <si>
-    <t>…ancora %d</t>
-  </si>
-  <si>
-    <t>%d meer</t>
+    <t>%1$d more</t>
+  </si>
+  <si>
+    <t>%1$d mehr</t>
+  </si>
+  <si>
+    <t>%1$d de plus</t>
+  </si>
+  <si>
+    <t>…ancora %1$d</t>
+  </si>
+  <si>
+    <t>%1$d meer</t>
   </si>
   <si>
     <t>more_files_PLURALS_few</t>
@@ -18452,37 +18452,37 @@
     <t>more_files_PLURALS_one</t>
   </si>
   <si>
-    <t>…%d more file</t>
-  </si>
-  <si>
-    <t>…%d weitere Datei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">…et %d fichier </t>
-  </si>
-  <si>
-    <t>…%d altro file</t>
-  </si>
-  <si>
-    <t>…%d ander bestand</t>
+    <t>…%1$d more file</t>
+  </si>
+  <si>
+    <t>…%1$d weitere Datei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">…et %1$d fichier </t>
+  </si>
+  <si>
+    <t>…%1$d altro file</t>
+  </si>
+  <si>
+    <t>…%1$d ander bestand</t>
   </si>
   <si>
     <t>more_files_PLURALS_other</t>
   </si>
   <si>
-    <t>…%d more files</t>
-  </si>
-  <si>
-    <t>…%d weitere Dateien</t>
-  </si>
-  <si>
-    <t>…et %d fichiers</t>
-  </si>
-  <si>
-    <t>…altri %d file</t>
-  </si>
-  <si>
-    <t>…%d andere bestanden</t>
+    <t>…%1$d more files</t>
+  </si>
+  <si>
+    <t>…%1$d weitere Dateien</t>
+  </si>
+  <si>
+    <t>…et %1$d fichiers</t>
+  </si>
+  <si>
+    <t>…altri %1$d file</t>
+  </si>
+  <si>
+    <t>…%1$d andere bestanden</t>
   </si>
   <si>
     <t>more_files_PLURALS_two</t>
@@ -19550,31 +19550,31 @@
     <t>restored_selected_notes_PLURALS_one</t>
   </si>
   <si>
-    <t>Restored %d note</t>
-  </si>
-  <si>
-    <t>%d note restaurée</t>
-  </si>
-  <si>
-    <t>Ripristinata %d nota</t>
-  </si>
-  <si>
-    <t>Herstelde %d notitie</t>
+    <t>Restored %1$d note</t>
+  </si>
+  <si>
+    <t>%1$d note restaurée</t>
+  </si>
+  <si>
+    <t>Ripristinata %1$d nota</t>
+  </si>
+  <si>
+    <t>Herstelde %1$d notitie</t>
   </si>
   <si>
     <t>restored_selected_notes_PLURALS_other</t>
   </si>
   <si>
-    <t>Restored %d notes</t>
-  </si>
-  <si>
-    <t>%d notes restaurées</t>
-  </si>
-  <si>
-    <t>Ripristinate %d note</t>
-  </si>
-  <si>
-    <t>Herstelde %d notities</t>
+    <t>Restored %1$d notes</t>
+  </si>
+  <si>
+    <t>%1$d notes restaurées</t>
+  </si>
+  <si>
+    <t>Ripristinate %1$d note</t>
+  </si>
+  <si>
+    <t>Herstelde %1$d notities</t>
   </si>
   <si>
     <t>restored_selected_notes_PLURALS_two</t>
@@ -21125,31 +21125,31 @@
     <t>unarchived_selected_notes_PLURALS_one</t>
   </si>
   <si>
-    <t>Unarchived %d note</t>
-  </si>
-  <si>
-    <t>%d note désarchivée</t>
-  </si>
-  <si>
-    <t>Annullata archiviazione di %d nota</t>
-  </si>
-  <si>
-    <t>De-gearchiveerde %d notitie</t>
+    <t>Unarchived %1$d note</t>
+  </si>
+  <si>
+    <t>%1$d note désarchivée</t>
+  </si>
+  <si>
+    <t>Annullata archiviazione di %1$d nota</t>
+  </si>
+  <si>
+    <t>De-gearchiveerde %1$d notitie</t>
   </si>
   <si>
     <t>unarchived_selected_notes_PLURALS_other</t>
   </si>
   <si>
-    <t>Unarchived %d notes</t>
-  </si>
-  <si>
-    <t>%d notes désarchivées</t>
-  </si>
-  <si>
-    <t>Annullata archiviazione di %d note</t>
-  </si>
-  <si>
-    <t>De-gearchiveerde %d notities</t>
+    <t>Unarchived %1$d notes</t>
+  </si>
+  <si>
+    <t>%1$d notes désarchivées</t>
+  </si>
+  <si>
+    <t>Annullata archiviazione di %1$d note</t>
+  </si>
+  <si>
+    <t>De-gearchiveerde %1$d notities</t>
   </si>
   <si>
     <t>unarchived_selected_notes_PLURALS_two</t>

--- a/app/translations.xlsx
+++ b/app/translations.xlsx
@@ -16501,10 +16501,10 @@
     <t>google_keep_help</t>
   </si>
   <si>
-    <t>In order to import your Notes from Google Keep you must download your Google Takeout ZIP file. Click Help to get more information.\n\nIf you already have a Takeout ZIP file, click Import and choose the ZIP file.</t>
-  </si>
-  <si>
-    <t>Um deine Notizen aus Google Notizen zu importieren musst du deine Google Takeout ZIP Datei herunterladen\n\nFalls du das Takeout ZIP schon hast, klicke auf Import und wähle es aus.</t>
+    <t>In order to import your Notes from Google Keep you must download your Google Takeout ZIP file. Only select the \"Keep\" data. Click Help to get more information.\n\nIf you already have a Takeout ZIP file, click Import and choose the ZIP file.</t>
+  </si>
+  <si>
+    <t>Um deine Notizen aus Google Notizen zu importieren musst du deine Google Takeout ZIP Datei herunterladen. Wähle dabei nur die \"Google Notizen\" Daten aus.\n\nFalls du das Takeout ZIP schon hast, klicke auf Import und wähle es aus.</t>
   </si>
   <si>
     <t>Pour importer vos notes depuis Google Keep, vous devez télécharger votre fichier ZIP Google Takeout. Cliquez sur "Aide" pour plus d
@@ -16811,7 +16811,7 @@
     <t>In order to import settings, please choose a valid NotallyX settings JSON file</t>
   </si>
   <si>
-    <t>"Um Einstellungen zu importieren, wähle eine valide NotallyX JSON Datei aus "</t>
+    <t xml:space="preserve">Um Einstellungen zu importieren, wähle eine valide NotallyX JSON Datei aus </t>
   </si>
   <si>
     <t>Pour importer les paramètres, veuillez sélectionner un fichier JSON de paramètres NotallyX valide</t>
@@ -21780,7 +21780,7 @@
       <sz val="11.0"/>
     </font>
     <font>
-      <name val="Calibri"/>
+      <name val="Courier New"/>
       <sz val="11.0"/>
       <b val="true"/>
     </font>

--- a/app/translations.xlsx
+++ b/app/translations.xlsx
@@ -16507,14 +16507,14 @@
     <t>Um deine Notizen aus Google Notizen zu importieren musst du deine Google Takeout ZIP Datei herunterladen. Wähle dabei nur die \"Google Notizen\" Daten aus.\n\nFalls du das Takeout ZIP schon hast, klicke auf Import und wähle es aus.</t>
   </si>
   <si>
-    <t>Pour importer vos notes depuis Google Keep, vous devez télécharger votre fichier ZIP Google Takeout. Cliquez sur "Aide" pour plus d
+    <t>Pour importer vos notes depuis Google Keep, vous devez télécharger votre fichier ZIP Google Takeout. Sélectionnez uniquement les données \"Conserver\". Cliquez sur "Aide" pour plus d
 	information.\n\nSi vous possédez déjà un fichier ZIP Google Takeout, cliquez sur "Importer" et choisissez le fichier ZIP.</t>
   </si>
   <si>
-    <t>Per importare le note da Google Keep devi scaricare il tuo file ZIP di Google Takeout. Clicca su Aiuto per ulteriori informazioni.\n\nSe hai già un file ZIP di Takeout, clicca Importa e selezionalo.</t>
-  </si>
-  <si>
-    <t>Om je notities van Google Keep te importeren, moet je je Google Takeout ZIP-bestand downloaden.\n\nAls je al een Takeout ZIP-bestand hebt, klik dan op Importeren en kies het ZIP-bestand.</t>
+    <t>Per importare le note da Google Keep devi scaricare il tuo file ZIP di Google Takeout. Seleziona solo i dati "Keep". Clicca su Aiuto per ulteriori informazioni.\n\nSe hai già un file ZIP di Takeout, clicca Importa e selezionalo.</t>
+  </si>
+  <si>
+    <t>Om je notities van Google Keep te importeren, moet je je Google Takeout ZIP-bestand downloaden. Selecteer alleen \"Keep\" gegevens.\n\nAls je al een Takeout ZIP-bestand hebt, klik dan op Importeren en kies het ZIP-bestand.</t>
   </si>
   <si>
     <t>grid</t>

--- a/app/translations.xlsx
+++ b/app/translations.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Translations" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Translations!$A$1:$AF$321</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Translations!$A$1:$AF$317</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -11951,7 +11951,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9951" uniqueCount="3488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9827" uniqueCount="3480">
   <si>
     <t>Key</t>
   </si>
@@ -22392,30 +22392,6 @@
   </si>
   <si>
     <t>不会删除与此标签相关联的笔记</t>
-  </si>
-  <si>
-    <t>data_on_external</t>
-  </si>
-  <si>
-    <t>Ukládat data na externí úložiště</t>
-  </si>
-  <si>
-    <t>disable_auto_backup</t>
-  </si>
-  <si>
-    <t>Zakázat automatickou zálohu</t>
-  </si>
-  <si>
-    <t>disable_external_data</t>
-  </si>
-  <si>
-    <t>Přesunout data zpět na interní uložiště</t>
-  </si>
-  <si>
-    <t>external_data_message</t>
-  </si>
-  <si>
-    <t>Povolením této funkce se interní databáze aplikace přesune do externího úložiště aplikace (Android/media/com.philkes.notallyx).\nV kombinaci s aplikacemi pro synchronizaci souborů lze tuto funkci použít k synchronizaci dat NotallyX mezi více zařízeními.</t>
   </si>
 </sst>
 </file>
@@ -26528,7 +26504,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE321"/>
+  <dimension ref="A1:AE317"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="3.0" ySplit="1.0" state="frozen" topLeftCell="D2" activePane="bottomRight"/>
@@ -56656,388 +56632,8 @@
         <v>3479</v>
       </c>
     </row>
-    <row r="318">
-      <c r="A318" t="s" s="1">
-        <v>3480</v>
-      </c>
-      <c r="B318" t="s" s="1">
-        <v>32</v>
-      </c>
-      <c r="C318" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="D318" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="E318" t="s" s="1">
-        <v>3481</v>
-      </c>
-      <c r="F318" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="G318" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="H318" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="I318" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="J318" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="K318" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="L318" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="M318" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="N318" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="O318" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="P318" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="Q318" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="R318" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="S318" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="T318" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="U318" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="V318" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="W318" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="X318" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="Y318" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="Z318" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AA318" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AB318" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AC318" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AD318" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AE318" t="s" s="2">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="s" s="1">
-        <v>3482</v>
-      </c>
-      <c r="B319" t="s" s="1">
-        <v>32</v>
-      </c>
-      <c r="C319" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="D319" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="E319" t="s" s="1">
-        <v>3483</v>
-      </c>
-      <c r="F319" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="G319" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="H319" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="I319" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="J319" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="K319" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="L319" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="M319" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="N319" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="O319" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="P319" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="Q319" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="R319" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="S319" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="T319" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="U319" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="V319" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="W319" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="X319" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="Y319" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="Z319" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AA319" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AB319" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AC319" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AD319" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AE319" t="s" s="2">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="s" s="1">
-        <v>3484</v>
-      </c>
-      <c r="B320" t="s" s="1">
-        <v>32</v>
-      </c>
-      <c r="C320" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="D320" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="E320" t="s" s="1">
-        <v>3485</v>
-      </c>
-      <c r="F320" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="G320" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="H320" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="I320" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="J320" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="K320" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="L320" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="M320" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="N320" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="O320" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="P320" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="Q320" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="R320" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="S320" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="T320" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="U320" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="V320" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="W320" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="X320" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="Y320" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="Z320" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AA320" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AB320" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AC320" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AD320" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AE320" t="s" s="2">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="s" s="1">
-        <v>3486</v>
-      </c>
-      <c r="B321" t="s" s="1">
-        <v>32</v>
-      </c>
-      <c r="C321" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="D321" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="E321" t="s" s="1">
-        <v>3487</v>
-      </c>
-      <c r="F321" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="G321" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="H321" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="I321" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="J321" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="K321" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="L321" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="M321" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="N321" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="O321" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="P321" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="Q321" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="R321" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="S321" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="T321" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="U321" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="V321" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="W321" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="X321" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="Y321" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="Z321" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AA321" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AB321" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AC321" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AD321" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AE321" t="s" s="2">
-        <v>61</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AF321"/>
+  <autoFilter ref="A1:AF317"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId3"/>

--- a/app/translations.xlsx
+++ b/app/translations.xlsx
@@ -12823,13 +12823,19 @@
     <t>auto_backup_error_message</t>
   </si>
   <si>
-    <t>An error occurred during auto backup:\n\'%1$s\'\nPlease check your settings or report a bug</t>
-  </si>
-  <si>
-    <t>Během automatického zálohování došlo k chybě:\n\'%1$s\'\nProsím, zkontrolujte nastavení nebo nahlaste chybu</t>
-  </si>
-  <si>
-    <t>Une erreur est survenue lors de la sauvegarde automatique:\n\'%1$s\'\nVeuillez vérifier vos paramètres ou signaler un bug</t>
+    <t>An error occurred during auto backup:
+'%1$s'
+Please check your settings or report a bug</t>
+  </si>
+  <si>
+    <t>Během automatického zálohování došlo k chybě:
+'%1$s'
+Prosím, zkontrolujte nastavení nebo nahlaste chybu</t>
+  </si>
+  <si>
+    <t>Une erreur est survenue lors de la sauvegarde automatique:
+'%1$s'
+Veuillez vérifier vos paramètres ou signaler un bug</t>
   </si>
   <si>
     <t>auto_backup_failed</t>
@@ -12868,10 +12874,12 @@
     <t>auto_backup_on_save_hint</t>
   </si>
   <si>
-    <t>By enabling this, a backup (\"NotallyX_AutoBackup.zip\") is automatically created in the configured \"Backups Folder\" whenever a note is saved.\nBe aware this might affect performance</t>
-  </si>
-  <si>
-    <t>En activant cette option, une sauvegarde (\"NotallyX_AutoBackup.zip\") est automatiquement créée dans le \"Dossier des sauvegardes\" configuré, à chaque fois qu'une note est enregistrée.\nAttention, cela pourrait affecter les performances.</t>
+    <t>By enabling this, a backup ("NotallyX_AutoBackup.zip") is automatically created in the configured "Backups Folder" whenever a note is saved.
+Be aware this might affect performance</t>
+  </si>
+  <si>
+    <t>En activant cette option, une sauvegarde ("NotallyX_AutoBackup.zip") est automatiquement créée dans le "Dossier des sauvegardes" configuré, à chaque fois qu'une note est enregistrée.
+Attention, cela pourrait affecter les performances.</t>
   </si>
   <si>
     <t>auto_backup_period</t>
@@ -12916,7 +12924,7 @@
     <t>Set up a Backups Folder above first</t>
   </si>
   <si>
-    <t>Configurer d\'abord le Dossier des sauvegardes</t>
+    <t>Configurer d'abord le Dossier des sauvegardes</t>
   </si>
   <si>
     <t>auto_sort_by_checked</t>
@@ -13099,10 +13107,12 @@
     <t>backup_periodic_hint</t>
   </si>
   <si>
-    <t>By enabling this, backups are automatically created in the configured Backups Folder.\nThis may not work if you have power saving mode enabled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">En activant cette option, des sauvegardes sont automatiquement créées dans le Dossier de sauvegardes configuré.\nCela peut ne pas fonctionner si le mode économie d'énergie est activé. </t>
+    <t>By enabling this, backups are automatically created in the configured Backups Folder.
+This may not work if you have power saving mode enabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En activant cette option, des sauvegardes sont automatiquement créées dans le Dossier de sauvegardes configuré.
+Cela peut ne pas fonctionner si le mode économie d'énergie est activé. </t>
   </si>
   <si>
     <t>biometric_lock</t>
@@ -13117,7 +13127,7 @@
     <t>App per Biometrie/PIN sperren</t>
   </si>
   <si>
-    <t>Verrouiller l\'application avec la biométrie ou le code PIN de l\'appareil</t>
+    <t>Verrouiller l'application avec la biométrie ou le code PIN de l'appareil</t>
   </si>
   <si>
     <t>Usa l’accesso biometrico del dispositivo o il PIN per bloccare l’app</t>
@@ -13162,7 +13172,7 @@
     <t>Fehler bei Authentifizierung per Biometrie/PIN</t>
   </si>
   <si>
-    <t>Échec de l\'authentification biométrique/code PIN</t>
+    <t>Échec de l'authentification biométrique/code PIN</t>
   </si>
   <si>
     <t>Sblocco Biometrico/PIN non riuscito</t>
@@ -13183,7 +13193,7 @@
     <t>Dein Geräte verfügt über keine biometrischen Features</t>
   </si>
   <si>
-    <t>Aucune fonction biométrique n\'est disponible sur cet appareil</t>
+    <t>Aucune fonction biométrique n'est disponible sur cet appareil</t>
   </si>
   <si>
     <t>Biometria non disponibile su questo dispositivo</t>
@@ -13204,7 +13214,7 @@
     <t>Biometrie/PIN wurde für dein Gerät noch nicht eingerichtet</t>
   </si>
   <si>
-    <t>Aucun verrouillage biométrique/code PIN n\'est paramétré sur cet appareil</t>
+    <t>Aucun verrouillage biométrique/code PIN n'est paramétré sur cet appareil</t>
   </si>
   <si>
     <t>Biometria/PIN non sono ancora configurati sul tuo dispositivo</t>
@@ -13447,7 +13457,7 @@
     <t>Nelze přidat %1$d soubor</t>
   </si>
   <si>
-    <t>%1$d fichier n\'a pas pu être ajouté</t>
+    <t>%1$d fichier n'a pas pu être ajouté</t>
   </si>
   <si>
     <t>Impossibile aggiungere %1$d file</t>
@@ -13462,7 +13472,7 @@
     <t>Can’t add %1$d files</t>
   </si>
   <si>
-    <t>%1$d fichiers n\'ont pas pu être ajoutés</t>
+    <t>%1$d fichiers n'ont pas pu être ajoutés</t>
   </si>
   <si>
     <t>Kan %1$d bestanden niet toevoegen</t>
@@ -13504,7 +13514,7 @@
     <t>Kann %1$d Bild nicht hinzufügen</t>
   </si>
   <si>
-    <t>Impossible d\'ajouter %1$d image</t>
+    <t>Impossible d'ajouter %1$d image</t>
   </si>
   <si>
     <t>Impossibile aggiungere %1$d immagine</t>
@@ -13537,7 +13547,7 @@
     <t>Kann %1$d Bilder nicht hinzufügen</t>
   </si>
   <si>
-    <t>Impossible d\'ajouter %1$d images</t>
+    <t>Impossible d'ajouter %1$d images</t>
   </si>
   <si>
     <t>Impossibile aggiungere %1$d immagini</t>
@@ -13678,7 +13688,7 @@
     <t>Bild kann nicht geladen werden. Es kann verschoben oder gelöscht worden sein</t>
   </si>
   <si>
-    <t>Impossible de charger l\'image. Elle a peut-être été déplacée ou supprimée.</t>
+    <t>Impossible de charger l'image. Elle a peut-être été déplacée ou supprimée.</t>
   </si>
   <si>
     <t>Impossibile caricare l’immagine. Potrebbe essere stata spostata o cancellata</t>
@@ -13708,7 +13718,7 @@
     <t>Can’t open link</t>
   </si>
   <si>
-    <t>No es pot obrir l\'enllaç</t>
+    <t>No es pot obrir l'enllaç</t>
   </si>
   <si>
     <t>Odkaz nelze otevřit</t>
@@ -14023,7 +14033,7 @@
     <t>Wähle von welcher App importiert werden soll</t>
   </si>
   <si>
-    <t>Choisissez l\'application depuis laquelle importer</t>
+    <t>Choisissez l'application depuis laquelle importer</t>
   </si>
   <si>
     <t>Scegli da quale app importare</t>
@@ -14236,7 +14246,7 @@
     <t>Densidad de contenido</t>
   </si>
   <si>
-    <t>Densité d\'affichage</t>
+    <t>Densité d'affichage</t>
   </si>
   <si>
     <t>Tartalom sűrűsége</t>
@@ -14566,16 +14576,18 @@
     <t>data_in_public_message</t>
   </si>
   <si>
-    <t>By enabling this, the app’s internal database will be moved into the app’s public folder (Android/media/com.philkes.notallyx).\nIn combination with file synchronization apps this can be used to synchronize NotallyX data between multiple devices.</t>
+    <t>By enabling this, the app’s internal database will be moved into the app’s public folder (Android/media/com.philkes.notallyx).
+In combination with file synchronization apps this can be used to synchronize NotallyX data between multiple devices.</t>
   </si>
   <si>
     <t>Wird dies aktiviert, wird die app-interne Datenbank in einen öffentlichen Ordner ausgelagert (Android/media/com.philkes.notallyx). In Kombination mit Datei-Synchronisations Apps kann dies genutzt werden um NotallyX Daten zwischen mehrere Geräte zu synchronisieren.</t>
   </si>
   <si>
-    <t>En activant cette option, la base de données interne de l\'application sera déplacée dans le dossier public de l\'application (Android/media/com.philkes.notallyx). En combinaison avec des applications de synchronisation de fichiers, cela peut être utilisé pour synchroniser les données de NotallyX entre plusieurs appareils.</t>
-  </si>
-  <si>
-    <t>Attivandolo, il database interno dell’app verrà spostato nella cartella pubblica dell’app (Android/media/com.philkes.notallyx).\nAbbinandolo con un’app di sincronizzazione file potrai così sincronizzare i dati di NotallyX tra dispositivi diversi.</t>
+    <t>En activant cette option, la base de données interne de l'application sera déplacée dans le dossier public de l'application (Android/media/com.philkes.notallyx). En combinaison avec des applications de synchronisation de fichiers, cela peut être utilisé pour synchroniser les données de NotallyX entre plusieurs appareils.</t>
+  </si>
+  <si>
+    <t>Attivandolo, il database interno dell’app verrà spostato nella cartella pubblica dell’app (Android/media/com.philkes.notallyx).
+Abbinandolo con un’app di sincronizzazione file potrai così sincronizzare i dati di NotallyX tra dispositivi diversi.</t>
   </si>
   <si>
     <t>启用此项，应用程序的内部数据库将被移动到应用程序的外部存储（Android / Media / Com.Philkes.notallyX）中。与文件同步应用组合，这可用于同步多个设备之间的数据。</t>
@@ -14983,7 +14995,7 @@
     <t>Aufnahme für immer löschen?</t>
   </si>
   <si>
-    <t>Supprimer définitivement l\'enregistrement ?</t>
+    <t>Supprimer définitivement l'enregistrement ?</t>
   </si>
   <si>
     <t>Eliminare la registrazione audio definitivamente?</t>
@@ -15019,22 +15031,22 @@
     <t>delete_file</t>
   </si>
   <si>
-    <t>Delete file \'%1$s\'?</t>
-  </si>
-  <si>
-    <t>Smazat soubor \'%1$s\'?</t>
-  </si>
-  <si>
-    <t>Datei \'%1$s\' löschen?</t>
-  </si>
-  <si>
-    <t>Supprimer le fichier \'%1$s\'?</t>
+    <t>Delete file '%1$s'?</t>
+  </si>
+  <si>
+    <t>Smazat soubor '%1$s'?</t>
+  </si>
+  <si>
+    <t>Datei '%1$s' löschen?</t>
+  </si>
+  <si>
+    <t>Supprimer le fichier '%1$s'?</t>
   </si>
   <si>
     <t>Eliminare il file \’%1$s\’?</t>
   </si>
   <si>
-    <t>Bestand \'%1$s\' verwijderen?</t>
+    <t>Bestand '%1$s' verwijderen?</t>
   </si>
   <si>
     <t>delete_forever</t>
@@ -15136,7 +15148,7 @@
     <t>Bild endgültig löschen?</t>
   </si>
   <si>
-    <t>Supprimer l\'image définitivement ?</t>
+    <t>Supprimer l'image définitivement ?</t>
   </si>
   <si>
     <t>Eliminare l’immagine definitivamente?</t>
@@ -15184,7 +15196,7 @@
     <t>¿Eliminar etiqueta?</t>
   </si>
   <si>
-    <t>Supprimer l\'étiquette ?</t>
+    <t>Supprimer l'étiquette ?</t>
   </si>
   <si>
     <t>Törölni szeretnéd a címkét?</t>
@@ -15925,7 +15937,7 @@
     <t>Επεξεργασία ετικέτας</t>
   </si>
   <si>
-    <t>Modifier l\'étiquette</t>
+    <t>Modifier l'étiquette</t>
   </si>
   <si>
     <t>Címke szerkesztése</t>
@@ -16039,7 +16051,7 @@
     <t>No hay etiquetas. ¿Crear una?</t>
   </si>
   <si>
-    <t>Il n\'existe pas encore d\'étiquettes. En créer une ?</t>
+    <t>Il n'existe pas encore d'étiquettes. En créer une ?</t>
   </si>
   <si>
     <t>Nincsenek címkék. Szeretnél készíteni egyet?</t>
@@ -16375,7 +16387,7 @@
     <t>Fehler beim Umbenennen des Bildes</t>
   </si>
   <si>
-    <t>Erreur lors du renommage de l\'image</t>
+    <t>Erreur lors du renommage de l'image</t>
   </si>
   <si>
     <t>Errore durante la rinomina dell’immagine</t>
@@ -16408,22 +16420,27 @@
     <t>evernote_help</t>
   </si>
   <si>
-    <t>In order to import your Notes from Evernote you must export your Evernote Notebook as ENEX. Click Help to get more information.\n\nIf you already have a ENEX file, click Import and choose it.</t>
+    <t>In order to import your Notes from Evernote you must export your Evernote Notebook as ENEX. Click Help to get more information.
+If you already have a ENEX file, click Import and choose it.</t>
   </si>
   <si>
     <t>Abyste mohli importovat poznámky z Evernote, musíte svůj zápisník Evernote exportovat jako ENEX. Pokud již máte soubor ENEX, klikněte na tlačítko Importovat a vyberte jej.</t>
   </si>
   <si>
-    <t>Um deine Notizen von Evernote zu importierten, exportiere dein Evernote Notebook als ENEX. Klicke Hilfe für mehr Infos.\n\nFalls du schon ein ENEX Datei hast, klicke Import und wähle es aus.</t>
-  </si>
-  <si>
-    <t>Pour importer vos notes depuis Evernote, vous devez exporter votre carnet de notes Evernote au format ENEX. Cliquez sur "Aide" pour plus d\'information.\n\nSi vous possédez déjà un fichier ENEX, cliquez sur "Importer" et sélectionnez-le.</t>
-  </si>
-  <si>
-    <t>Per importare le note da Evernote devi esportare il tuo Notebook Evernote come ENEX. Clicca su Aiuto per ulteriori informazioni.\n\nSe hai già un file ENEX, clicca Importa e selezionalo.</t>
-  </si>
-  <si>
-    <t>Om je notities van Evernote te importeren, moet je je Evernote Notitieboek exporteren als ENEX. Klik op Hulp voor meer informatie.\n\nAls je al een ENEX-bestand hebt, klik dan op Importeren en kies het bestand.</t>
+    <t>Um deine Notizen von Evernote zu importierten, exportiere dein Evernote Notebook als ENEX. Klicke Hilfe für mehr Infos.
+Falls du schon ein ENEX Datei hast, klicke Import und wähle es aus.</t>
+  </si>
+  <si>
+    <t>Pour importer vos notes depuis Evernote, vous devez exporter votre carnet de notes Evernote au format ENEX. Cliquez sur "Aide" pour plus d'information.
+Si vous possédez déjà un fichier ENEX, cliquez sur "Importer" et sélectionnez-le.</t>
+  </si>
+  <si>
+    <t>Per importare le note da Evernote devi esportare il tuo Notebook Evernote come ENEX. Clicca su Aiuto per ulteriori informazioni.
+Se hai già un file ENEX, clicca Importa e selezionalo.</t>
+  </si>
+  <si>
+    <t>Om je notities van Evernote te importeren, moet je je Evernote Notitieboek exporteren als ENEX. Klik op Hulp voor meer informatie.
+Als je al een ENEX-bestand hebt, klik dan op Importeren en kies het bestand.</t>
   </si>
   <si>
     <t>every</t>
@@ -16606,22 +16623,26 @@
     <t>Import der Einstellungen fehlgeschlagen, wurde die richtige Datei ausgewählt?</t>
   </si>
   <si>
-    <t>Échec de l\'exportation des paramètres, avez-vous choisi un chemin invalide ?</t>
+    <t>Échec de l'exportation des paramètres, avez-vous choisi un chemin invalide ?</t>
   </si>
   <si>
     <t>export_settings_message</t>
   </si>
   <si>
-    <t>All Settings will be exported to a JSON file, which can be used to re-import stored settings.\n\nBe aware, that this does not include encrypted settings like the auto-backup password or the biometric encryption key</t>
-  </si>
-  <si>
-    <t>Všechna nastavení se vyexportují do souboru JSON, který lze použít k opětovnému importu uložených nastavení.\n\Všimněte si, že toto nastavení nezahrnuje šifrovaná nastavení, jako je heslo pro automatické zálohování nebo biometrický šifrovací klíč.</t>
-  </si>
-  <si>
-    <t>Alle Einstellungen werden als JSON Datei exportiert, die dann zum Re-Import genutzt werden kann.\n\nBeachte das hier bei verschlüsselte Einstellungen wie das Auto-Backup Passwort oder die biometrische Verschlüssung nicht exportiert wird</t>
-  </si>
-  <si>
-    <t>Tous les paramètres seront exportés dans un fichier JSON, qui pourra être utilisé pour réimporter les paramètres enregistrés.\n\nVeuillez noter que cela n\'inclut pas les paramètres chiffrés, tels que le mot de passe de sauvegarde automatique ou la clé de chiffrement biométrique.</t>
+    <t>All Settings will be exported to a JSON file, which can be used to re-import stored settings.
+Be aware, that this does not include encrypted settings like the auto-backup password or the biometric encryption key</t>
+  </si>
+  <si>
+    <t>Všechna nastavení se vyexportují do souboru JSON, který lze použít k opětovnému importu uložených nastavení.
+\Všimněte si, že toto nastavení nezahrnuje šifrovaná nastavení, jako je heslo pro automatické zálohování nebo biometrický šifrovací klíč.</t>
+  </si>
+  <si>
+    <t>Alle Einstellungen werden als JSON Datei exportiert, die dann zum Re-Import genutzt werden kann.
+Beachte das hier bei verschlüsselte Einstellungen wie das Auto-Backup Passwort oder die biometrische Verschlüssung nicht exportiert wird</t>
+  </si>
+  <si>
+    <t>Tous les paramètres seront exportés dans un fichier JSON, qui pourra être utilisé pour réimporter les paramètres enregistrés.
+Veuillez noter que cela n'inclut pas les paramètres chiffrés, tels que le mot de passe de sauvegarde automatique ou la clé de chiffrement biométrique.</t>
   </si>
   <si>
     <t>export_settings_success</t>
@@ -16852,22 +16873,28 @@
     <t>google_keep_help</t>
   </si>
   <si>
-    <t>In order to import your Notes from Google Keep you must download your Google Takeout ZIP file. Only select the \"Keep\" data. Click Help to get more information.\n\nIf you already have a Takeout ZIP file, click Import and choose the ZIP file.</t>
-  </si>
-  <si>
-    <t>Abyste mohli importovat poznámky ze služby Google Keep, musíte si stáhnout soubor ZIP služby Google Takeout. Vyberte pouze data \„Keep\“. Další informace získáte kliknutím na Nápovědu.\n\nPokud již máte soubor Takeout ZIP, klikněte na Importovat a vyberte soubor ZIP.</t>
-  </si>
-  <si>
-    <t>Um deine Notizen aus Google Notizen zu importieren musst du deine Google Takeout ZIP Datei herunterladen. Wähle dabei nur die \"Google Notizen\" Daten aus.\n\nFalls du das Takeout ZIP schon hast, klicke auf Import und wähle es aus.</t>
-  </si>
-  <si>
-    <t>Pour importer vos notes depuis Google Keep, vous devez télécharger votre fichier ZIP Google Takeout. Sélectionnez uniquement les données \"Conserver\". Cliquez sur "Aide" pour plus d\'information.\n\nSi vous possédez déjà un fichier ZIP Google Takeout, cliquez sur "Importer" et choisissez le fichier ZIP.</t>
-  </si>
-  <si>
-    <t>Per importare le note da Google Keep devi scaricare il tuo file ZIP di Google Takeout. Seleziona solo i dati "Keep". Clicca su Aiuto per ulteriori informazioni.\n\nSe hai già un file ZIP di Takeout, clicca Importa e selezionalo.</t>
-  </si>
-  <si>
-    <t>Om je notities van Google Keep te importeren, moet je je Google Takeout ZIP-bestand downloaden. Selecteer alleen \"Keep\" gegevens.\n\nAls je al een Takeout ZIP-bestand hebt, klik dan op Importeren en kies het ZIP-bestand.</t>
+    <t>In order to import your Notes from Google Keep you must download your Google Takeout ZIP file. Only select the "Keep" data. Click Help to get more information.
+If you already have a Takeout ZIP file, click Import and choose the ZIP file.</t>
+  </si>
+  <si>
+    <t>Abyste mohli importovat poznámky ze služby Google Keep, musíte si stáhnout soubor ZIP služby Google Takeout. Vyberte pouze data \„Keep\“. Další informace získáte kliknutím na Nápovědu.
+Pokud již máte soubor Takeout ZIP, klikněte na Importovat a vyberte soubor ZIP.</t>
+  </si>
+  <si>
+    <t>Um deine Notizen aus Google Notizen zu importieren musst du deine Google Takeout ZIP Datei herunterladen. Wähle dabei nur die "Google Notizen" Daten aus.
+Falls du das Takeout ZIP schon hast, klicke auf Import und wähle es aus.</t>
+  </si>
+  <si>
+    <t>Pour importer vos notes depuis Google Keep, vous devez télécharger votre fichier ZIP Google Takeout. Sélectionnez uniquement les données "Conserver". Cliquez sur "Aide" pour plus d'information.
+Si vous possédez déjà un fichier ZIP Google Takeout, cliquez sur "Importer" et choisissez le fichier ZIP.</t>
+  </si>
+  <si>
+    <t>Per importare le note da Google Keep devi scaricare il tuo file ZIP di Google Takeout. Seleziona solo i dati "Keep". Clicca su Aiuto per ulteriori informazioni.
+Se hai già un file ZIP di Takeout, clicca Importa e selezionalo.</t>
+  </si>
+  <si>
+    <t>Om je notities van Google Keep te importeren, moet je je Google Takeout ZIP-bestand downloaden. Selecteer alleen "Keep" gegevens.
+Als je al een Takeout ZIP-bestand hebt, klik dan op Importeren en kies het ZIP-bestand.</t>
   </si>
   <si>
     <t>grid</t>
@@ -16996,7 +17023,7 @@
     <t>Bildformat nicht unterstützt</t>
   </si>
   <si>
-    <t>Format d\'image non supporté</t>
+    <t>Format d'image non supporté</t>
   </si>
   <si>
     <t>Formato immagine non supportato</t>
@@ -17128,7 +17155,7 @@
     <t>Falls das Backup nicht passwortgeschützt ist, drücken Sie einfach auf Importieren, andernfalls geben Sie das richtige Passwort ein.</t>
   </si>
   <si>
-    <t>Si votre sauvegarde n\'est pas protégée par mot de passe, cliquez seulement sur "Importer une sauvegarde", sinon entrez le mot de passe correspondant.</t>
+    <t>Si votre sauvegarde n'est pas protégée par mot de passe, cliquez seulement sur "Importer une sauvegarde", sinon entrez le mot de passe correspondant.</t>
   </si>
   <si>
     <t>Se il tuo backup non è protetto da password premi semplicemente Importa, altrimenti inserisci la password corretta.</t>
@@ -17185,7 +17212,7 @@
     <t>Nepodařilo se importovat nastavení, vybrali jste správný soubor?</t>
   </si>
   <si>
-    <t>Échec de l\'importation des paramètres, avez-vous choisi le bon fichier ?</t>
+    <t>Échec de l'importation des paramètres, avez-vous choisi le bon fichier ?</t>
   </si>
   <si>
     <t>import_settings_message</t>
@@ -17356,7 +17383,7 @@
     <t>Lege eine SD-Karte ein um Sprachnotizen aufzunehmen</t>
   </si>
   <si>
-    <t>Insérer une carte SD pour enregistrer de l\'audio</t>
+    <t>Insérer une carte SD pour enregistrer de l'audio</t>
   </si>
   <si>
     <t>Inserisci una SD card per registrare audio</t>
@@ -17803,7 +17830,7 @@
     <t>Label exists</t>
   </si>
   <si>
-    <t>L\'etiqueta ja existeix</t>
+    <t>L'etiqueta ja existeix</t>
   </si>
   <si>
     <t>Štítek již existuje</t>
@@ -17821,7 +17848,7 @@
     <t>Etiqueta existe</t>
   </si>
   <si>
-    <t>L\'étiquette existe déjà</t>
+    <t>L'étiquette existe déjà</t>
   </si>
   <si>
     <t>A címke már létezik</t>
@@ -17896,7 +17923,7 @@
     <t>Zeige/Verberge das Label in der Navigation</t>
   </si>
   <si>
-    <t>Masquer/Afficher l\'étiquette dans le panneau de navigation</t>
+    <t>Masquer/Afficher l'étiquette dans le panneau de navigation</t>
   </si>
   <si>
     <t>Nascondi/Mostra etichetta nel pannello di navigazione</t>
@@ -17986,7 +18013,7 @@
     <t>Ist dies aktiviert, werden die Labels der Notizen in der Übersicht ausgeblendet</t>
   </si>
   <si>
-    <t>En activant cette option, les étiquettes des notes seront masquées dans la vue d\'ensemble</t>
+    <t>En activant cette option, les étiquettes des notes seront masquées dans la vue d'ensemble</t>
   </si>
   <si>
     <t>labels_hidden_in_overview_title</t>
@@ -18001,7 +18028,7 @@
     <t>Verberge Labels in Übersicht</t>
   </si>
   <si>
-    <t>Masquer les étiquettes dans la vue d\'ensemble</t>
+    <t>Masquer les étiquettes dans la vue d'ensemble</t>
   </si>
   <si>
     <t>large</t>
@@ -18490,7 +18517,7 @@
     <t>Max items to display in list</t>
   </si>
   <si>
-    <t>Nombre màxim d\'elements a mostrar a la llista</t>
+    <t>Nombre màxim d'elements a mostrar a la llista</t>
   </si>
   <si>
     <t>Max. počet položek v seznamu</t>
@@ -18508,7 +18535,7 @@
     <t>Elementos máximos para mostrar en lista</t>
   </si>
   <si>
-    <t>Nombre maximum d\'éléments à afficher pour une liste</t>
+    <t>Nombre maximum d'éléments à afficher pour une liste</t>
   </si>
   <si>
     <t>Elemek száma egy listában</t>
@@ -18586,7 +18613,7 @@
     <t>Max. Anzahl an angezeigten Lables in der Navigation</t>
   </si>
   <si>
-    <t>Nombre maximum d\'étiquettes à afficher dans le panneau de navigation</t>
+    <t>Nombre maximum d'étiquettes à afficher dans le panneau de navigation</t>
   </si>
   <si>
     <t>Numero massimo di etichette da mostrare nel pannello di navigazione</t>
@@ -19603,10 +19630,11 @@
     <t>In order to import your Notes from plain text files (single file or folder), click Import. Every file is imported as a separate note, the file’s name becomes the note’s title. If the text contents start with list syntax (e.g. Markdown ’- [x]’, NotallyX syntax ’[✓]’, or ’*’, ’-’) it will be converted to a List note.</t>
   </si>
   <si>
-    <t>Chcete-li importovat poznámky z textových souborů (jednotlivých souborů nebo složek), klikněte na tlačítko Importovat. Každý soubor se importuje jako samostatná poznámka, název souboru se stane názvem poznámky. Pokud textový obsah začíná syntaxí seznamu (např. syntaxí Markdown \'- [x]\', NotallyX \'[✓]\' nebo \'*\', \'-\'), bude převeden na poznámku Seznam.</t>
-  </si>
-  <si>
-    <t>Um deine Text-Notizen (einzele Datei oder Ordner) zu importieren, klicke Import.\n\nJede Datei wird als einzelne Notiz importiert, der Dateiname wird zum Notiz-Titel. Sollte der Textinhalt mit einer List-Syntax beginnen (z.B. Markdown ’- [x]’, NotallyX syntax ’[✓]’, or ’*’, ’-’), wird die Datei als List-Notiz importiert.</t>
+    <t>Chcete-li importovat poznámky z textových souborů (jednotlivých souborů nebo složek), klikněte na tlačítko Importovat. Každý soubor se importuje jako samostatná poznámka, název souboru se stane názvem poznámky. Pokud textový obsah začíná syntaxí seznamu (např. syntaxí Markdown '- [x]', NotallyX '[✓]' nebo '*', '-'), bude převeden na poznámku Seznam.</t>
+  </si>
+  <si>
+    <t>Um deine Text-Notizen (einzele Datei oder Ordner) zu importieren, klicke Import.
+Jede Datei wird als einzelne Notiz importiert, der Dateiname wird zum Notiz-Titel. Sollte der Textinhalt mit einer List-Syntax beginnen (z.B. Markdown ’- [x]’, NotallyX syntax ’[✓]’, or ’*’, ’-’), wird die Datei als List-Notiz importiert.</t>
   </si>
   <si>
     <t>Pour importer vos notes à partir de fichiers (un seul fichier ou dossier) texte bruts, cliquez sur "Importer". Chaque fichier est importé comme une note séparée, le nom du fichier devient le titre de la note. Si le contenu du texte commence par une syntaxe de liste (par exemple, Markdown ‘- [x]’, syntaxe NotallyX ‘[✓]’, ou ‘*’, ‘-’), il sera converti en une note sous forme de liste.</t>
@@ -19654,7 +19682,7 @@
     <t>Bitte gib NotallyX die Berechtigung Sprachnotizen zu erstellen. Die Aufnahmen verlassen niemals dein Gerät.</t>
   </si>
   <si>
-    <t>Veuillez accorder à NotallyX l\'autorisation d\'enregistrer de l\'audio. Les enregistrements ne quittent jamais votre appareil.</t>
+    <t>Veuillez accorder à NotallyX l'autorisation d'enregistrer de l'audio. Les enregistrements ne quittent jamais votre appareil.</t>
   </si>
   <si>
     <t>Per favore concedi a NotallyX il permesso di registrare audio. Le registrazioni non lasceranno mai il dispositivo</t>
@@ -19684,7 +19712,7 @@
     <t>Pokud automatické zálohování selže, můžete obdržet oznámení, pokud NotallyX udělíte oprávnění k zasílání oznámení</t>
   </si>
   <si>
-    <t>Si une sauvegarde automatique échoue, vous pouvez recevoir une notification en accordant à NotallyX l\'autorisation d\'envoyer des notifications</t>
+    <t>Si une sauvegarde automatique échoue, vous pouvez recevoir une notification en accordant à NotallyX l'autorisation d'envoyer des notifications</t>
   </si>
   <si>
     <t>previous</t>
@@ -20269,7 +20297,7 @@
     <t>Aufnahme speichern?</t>
   </si>
   <si>
-    <t>Sauvegarder l\'enregistrement ?</t>
+    <t>Sauvegarder l'enregistrement ?</t>
   </si>
   <si>
     <t>Salvare la registrazione?</t>
@@ -20299,7 +20327,7 @@
     <t>Guardar a dispositivo</t>
   </si>
   <si>
-    <t>Sauvegarder sur l\'appareil</t>
+    <t>Sauvegarder sur l'appareil</t>
   </si>
   <si>
     <t>Mentés az eszközre</t>
@@ -20386,7 +20414,7 @@
     <t>Guardada en dispositivo</t>
   </si>
   <si>
-    <t>Sauvegardé sur l\'appareil</t>
+    <t>Sauvegardé sur l'appareil</t>
   </si>
   <si>
     <t>Elmentve az eszközre</t>
@@ -21145,22 +21173,28 @@
     <t>something_went_wrong_audio</t>
   </si>
   <si>
-    <t>Something went wrong. The audio recording may have been moved or deleted.\n\nError : (%1$d, %2$d)</t>
-  </si>
-  <si>
-    <t>Něco se pokazilo. Zvukový záznam mohl být přesunut nebo smazán.\n\nError : (%1$d, %2$d)</t>
-  </si>
-  <si>
-    <t>Etwas lief schief. Die Sprachnotiz wurde eventuell verschoben oder gelöscht.\n\nFehler : (%1$d, %2$d)</t>
-  </si>
-  <si>
-    <t>Une erreur est survenue. l\'enregistrement audio a peut-être été déplacé ou supprimé.\n\nErreur : (%1$d, %2$d)</t>
-  </si>
-  <si>
-    <t>Qualcosa è andato storto. La registrazione audio potrebbe essere stata spostata o rimossa.\n\nErrore : (%1$d, %2$d)</t>
-  </si>
-  <si>
-    <t>Er is iets fout gegaan. De audio-opname kan zijn verplaatst of verwijderd.\n\nFout: (%1$d, %2$d)</t>
+    <t>Something went wrong. The audio recording may have been moved or deleted.
+Error : (%1$d, %2$d)</t>
+  </si>
+  <si>
+    <t>Něco se pokazilo. Zvukový záznam mohl být přesunut nebo smazán.
+Error : (%1$d, %2$d)</t>
+  </si>
+  <si>
+    <t>Etwas lief schief. Die Sprachnotiz wurde eventuell verschoben oder gelöscht.
+Fehler : (%1$d, %2$d)</t>
+  </si>
+  <si>
+    <t>Une erreur est survenue. l'enregistrement audio a peut-être été déplacé ou supprimé.
+Erreur : (%1$d, %2$d)</t>
+  </si>
+  <si>
+    <t>Qualcosa è andato storto. La registrazione audio potrebbe essere stata spostata o rimossa.
+Errore : (%1$d, %2$d)</t>
+  </si>
+  <si>
+    <t>Er is iets fout gegaan. De audio-opname kan zijn verplaatst of verwijderd.
+Fout: (%1$d, %2$d)</t>
   </si>
   <si>
     <t>sort_direction</t>
@@ -21412,7 +21446,7 @@
     <t>Klick für mehr Optionen</t>
   </si>
   <si>
-    <t>Toucher pour afficher plus d\'options</t>
+    <t>Toucher pour afficher plus d'options</t>
   </si>
   <si>
     <t>Tocca per ulteriori opzioni</t>
@@ -21643,7 +21677,7 @@
     <t>Um Sprachnotizen zu erstellen, braucht NotallyX Zugriff auf dein Mikrofon. Klicke Einstellunge &gt; Berechtigungen und aktiviere Mikrofon</t>
   </si>
   <si>
-    <t>Pour enregistrer de l\'audio, autorisez NotallyX à accéder à votre microphone. Cliquez sur Paramètres &gt; Autorisations et activez le microphone.</t>
+    <t>Pour enregistrer de l'audio, autorisez NotallyX à accéder à votre microphone. Cliquez sur Paramètres &gt; Autorisations et activez le microphone.</t>
   </si>
   <si>
     <t>Per registrare audio, consenti a NotallyX di accedere al tuo microfono. Vai su Impostazioni &gt; Permessi e attiva il microfono</t>
@@ -21910,16 +21944,20 @@
     <t>unlock_with_biometrics_not_setup</t>
   </si>
   <si>
-    <t>You have previously enabled biometric lock but Biometrics/PIN are not setup for your device anymore.\n\nIf you wish to disable biometric lock press Disable, otherwise setup Biometrics/PIN for your device</t>
-  </si>
-  <si>
-    <t>Dříve jste biometrický zámek zapnuli, ale biometrické údaje/PIN již nejsou pro vaše zařízení nastaveny.\n\nPokud chcete biometrický zámek vypnout, stiskněte tlačítko Zakázat, jinak nastavte biometrické údaje/PIN pro vaše zařízení.</t>
-  </si>
-  <si>
-    <t>Die biometrische Sperre ist aktiviert, allerdings ist für dein Gerät keine Biometrie/PIN mehr eingerichtet.\n\nUm die biometrische zu deaktivieren klicke Deaktivieren, ansonsten richte für dein Geräte Biometrie/PIN ein</t>
-  </si>
-  <si>
-    <t>Vous avez précédemment activé le verrouillage biométrique, mais les données biométriques/le code PIN ne sont plus configurés sur votre appareil.\n\nSi vous souhaitez désactiver le verrouillage biométrique, appuyez sur Désactiver, sinon configurez les données biométriques/le code PIN pour votre appareil</t>
+    <t>You have previously enabled biometric lock but Biometrics/PIN are not setup for your device anymore.
+If you wish to disable biometric lock press Disable, otherwise setup Biometrics/PIN for your device</t>
+  </si>
+  <si>
+    <t>Dříve jste biometrický zámek zapnuli, ale biometrické údaje/PIN již nejsou pro vaše zařízení nastaveny.
+Pokud chcete biometrický zámek vypnout, stiskněte tlačítko Zakázat, jinak nastavte biometrické údaje/PIN pro vaše zařízení.</t>
+  </si>
+  <si>
+    <t>Die biometrische Sperre ist aktiviert, allerdings ist für dein Gerät keine Biometrie/PIN mehr eingerichtet.
+Um die biometrische zu deaktivieren klicke Deaktivieren, ansonsten richte für dein Geräte Biometrie/PIN ein</t>
+  </si>
+  <si>
+    <t>Vous avez précédemment activé le verrouillage biométrique, mais les données biométriques/le code PIN ne sont plus configurés sur votre appareil.
+Si vous souhaitez désactiver le verrouillage biométrique, appuyez sur Désactiver, sinon configurez les données biométriques/le code PIN pour votre appareil</t>
   </si>
   <si>
     <t>unpin</t>
@@ -22336,7 +22374,7 @@
     <t>Your notes attached to this label will not be deleted</t>
   </si>
   <si>
-    <t>Les notes associades a aquesta etiqueta no s\'esborraran</t>
+    <t>Les notes associades a aquesta etiqueta no s'esborraran</t>
   </si>
   <si>
     <t>Vaše poznámky přiřazené k tomuto štítku nebudou smazány</t>

--- a/app/translations.xlsx
+++ b/app/translations.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Translations" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Translations!$A$1:$AF$328</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Translations!$A$1:$AF$332</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -10436,7 +10436,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A305" authorId="0">
+    <comment ref="A308" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10448,7 +10448,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B305" authorId="0">
+    <comment ref="B308" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10460,7 +10460,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C305" authorId="0">
+    <comment ref="C308" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10472,7 +10472,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D305" authorId="0">
+    <comment ref="D308" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10484,7 +10484,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E305" authorId="0">
+    <comment ref="E308" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10496,7 +10496,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F305" authorId="0">
+    <comment ref="F308" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10508,7 +10508,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G305" authorId="0">
+    <comment ref="G308" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10520,7 +10520,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H305" authorId="0">
+    <comment ref="H308" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10532,7 +10532,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I305" authorId="0">
+    <comment ref="I308" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10544,7 +10544,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J305" authorId="0">
+    <comment ref="J308" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10556,7 +10556,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K305" authorId="0">
+    <comment ref="K308" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10568,7 +10568,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L305" authorId="0">
+    <comment ref="L308" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10580,7 +10580,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M305" authorId="0">
+    <comment ref="M308" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10592,7 +10592,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N305" authorId="0">
+    <comment ref="N308" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10604,7 +10604,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O305" authorId="0">
+    <comment ref="O308" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10616,7 +10616,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P305" authorId="0">
+    <comment ref="P308" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10628,7 +10628,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q305" authorId="0">
+    <comment ref="Q308" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10640,7 +10640,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R305" authorId="0">
+    <comment ref="R308" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10652,7 +10652,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S305" authorId="0">
+    <comment ref="S308" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10664,7 +10664,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T305" authorId="0">
+    <comment ref="T308" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10676,7 +10676,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U305" authorId="0">
+    <comment ref="U308" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10688,7 +10688,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V305" authorId="0">
+    <comment ref="V308" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10700,7 +10700,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W305" authorId="0">
+    <comment ref="W308" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10712,7 +10712,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X305" authorId="0">
+    <comment ref="X308" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10724,7 +10724,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y305" authorId="0">
+    <comment ref="Y308" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10736,7 +10736,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z305" authorId="0">
+    <comment ref="Z308" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10748,7 +10748,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA305" authorId="0">
+    <comment ref="AA308" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10760,7 +10760,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB305" authorId="0">
+    <comment ref="AB308" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10772,7 +10772,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC305" authorId="0">
+    <comment ref="AC308" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10784,7 +10784,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD305" authorId="0">
+    <comment ref="AD308" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10796,7 +10796,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE305" authorId="0">
+    <comment ref="AE308" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10808,7 +10808,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A306" authorId="0">
+    <comment ref="A309" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10820,7 +10820,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B306" authorId="0">
+    <comment ref="B309" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10832,7 +10832,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C306" authorId="0">
+    <comment ref="C309" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10844,7 +10844,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D306" authorId="0">
+    <comment ref="D309" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10856,7 +10856,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E306" authorId="0">
+    <comment ref="E309" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10868,7 +10868,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F306" authorId="0">
+    <comment ref="F309" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10880,7 +10880,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G306" authorId="0">
+    <comment ref="G309" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10892,7 +10892,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H306" authorId="0">
+    <comment ref="H309" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10904,7 +10904,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I306" authorId="0">
+    <comment ref="I309" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10916,7 +10916,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J306" authorId="0">
+    <comment ref="J309" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10928,7 +10928,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K306" authorId="0">
+    <comment ref="K309" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10940,7 +10940,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L306" authorId="0">
+    <comment ref="L309" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10952,7 +10952,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M306" authorId="0">
+    <comment ref="M309" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10964,7 +10964,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N306" authorId="0">
+    <comment ref="N309" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10976,7 +10976,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O306" authorId="0">
+    <comment ref="O309" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10988,7 +10988,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P306" authorId="0">
+    <comment ref="P309" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11000,7 +11000,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q306" authorId="0">
+    <comment ref="Q309" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11012,7 +11012,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R306" authorId="0">
+    <comment ref="R309" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11024,7 +11024,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S306" authorId="0">
+    <comment ref="S309" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11036,7 +11036,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T306" authorId="0">
+    <comment ref="T309" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11048,7 +11048,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U306" authorId="0">
+    <comment ref="U309" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11060,7 +11060,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V306" authorId="0">
+    <comment ref="V309" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11072,7 +11072,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W306" authorId="0">
+    <comment ref="W309" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11084,7 +11084,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X306" authorId="0">
+    <comment ref="X309" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11096,7 +11096,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y306" authorId="0">
+    <comment ref="Y309" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11108,7 +11108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z306" authorId="0">
+    <comment ref="Z309" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11120,7 +11120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA306" authorId="0">
+    <comment ref="AA309" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11132,7 +11132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB306" authorId="0">
+    <comment ref="AB309" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11144,7 +11144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC306" authorId="0">
+    <comment ref="AC309" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11156,7 +11156,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD306" authorId="0">
+    <comment ref="AD309" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11168,7 +11168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE306" authorId="0">
+    <comment ref="AE309" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11180,7 +11180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A309" authorId="0">
+    <comment ref="A312" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11192,7 +11192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B309" authorId="0">
+    <comment ref="B312" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11204,7 +11204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C309" authorId="0">
+    <comment ref="C312" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11216,7 +11216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D309" authorId="0">
+    <comment ref="D312" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11228,7 +11228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E309" authorId="0">
+    <comment ref="E312" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11240,7 +11240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F309" authorId="0">
+    <comment ref="F312" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11252,7 +11252,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G309" authorId="0">
+    <comment ref="G312" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11264,7 +11264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H309" authorId="0">
+    <comment ref="H312" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11276,7 +11276,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I309" authorId="0">
+    <comment ref="I312" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11288,7 +11288,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J309" authorId="0">
+    <comment ref="J312" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11300,7 +11300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K309" authorId="0">
+    <comment ref="K312" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11312,7 +11312,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L309" authorId="0">
+    <comment ref="L312" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11324,7 +11324,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M309" authorId="0">
+    <comment ref="M312" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11336,7 +11336,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N309" authorId="0">
+    <comment ref="N312" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11348,7 +11348,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O309" authorId="0">
+    <comment ref="O312" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11360,7 +11360,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P309" authorId="0">
+    <comment ref="P312" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11372,7 +11372,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q309" authorId="0">
+    <comment ref="Q312" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11384,7 +11384,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R309" authorId="0">
+    <comment ref="R312" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11396,7 +11396,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S309" authorId="0">
+    <comment ref="S312" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11408,7 +11408,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T309" authorId="0">
+    <comment ref="T312" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11420,7 +11420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U309" authorId="0">
+    <comment ref="U312" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11432,7 +11432,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V309" authorId="0">
+    <comment ref="V312" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11444,7 +11444,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W309" authorId="0">
+    <comment ref="W312" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11456,7 +11456,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X309" authorId="0">
+    <comment ref="X312" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11468,7 +11468,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y309" authorId="0">
+    <comment ref="Y312" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11480,7 +11480,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z309" authorId="0">
+    <comment ref="Z312" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11492,7 +11492,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA309" authorId="0">
+    <comment ref="AA312" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11504,7 +11504,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB309" authorId="0">
+    <comment ref="AB312" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11516,7 +11516,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC309" authorId="0">
+    <comment ref="AC312" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11528,7 +11528,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD309" authorId="0">
+    <comment ref="AD312" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11540,7 +11540,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE309" authorId="0">
+    <comment ref="AE312" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11552,7 +11552,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A310" authorId="0">
+    <comment ref="A313" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11564,7 +11564,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B310" authorId="0">
+    <comment ref="B313" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11576,7 +11576,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C310" authorId="0">
+    <comment ref="C313" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11588,7 +11588,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D310" authorId="0">
+    <comment ref="D313" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11600,7 +11600,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E310" authorId="0">
+    <comment ref="E313" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11612,7 +11612,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F310" authorId="0">
+    <comment ref="F313" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11624,7 +11624,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G310" authorId="0">
+    <comment ref="G313" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11636,7 +11636,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H310" authorId="0">
+    <comment ref="H313" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11648,7 +11648,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I310" authorId="0">
+    <comment ref="I313" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11660,7 +11660,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J310" authorId="0">
+    <comment ref="J313" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11672,7 +11672,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K310" authorId="0">
+    <comment ref="K313" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11684,7 +11684,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L310" authorId="0">
+    <comment ref="L313" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11696,7 +11696,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M310" authorId="0">
+    <comment ref="M313" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11708,7 +11708,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N310" authorId="0">
+    <comment ref="N313" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11720,7 +11720,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O310" authorId="0">
+    <comment ref="O313" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11732,7 +11732,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P310" authorId="0">
+    <comment ref="P313" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11744,7 +11744,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q310" authorId="0">
+    <comment ref="Q313" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11756,7 +11756,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R310" authorId="0">
+    <comment ref="R313" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11768,7 +11768,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S310" authorId="0">
+    <comment ref="S313" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11780,7 +11780,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T310" authorId="0">
+    <comment ref="T313" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11792,7 +11792,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U310" authorId="0">
+    <comment ref="U313" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11804,7 +11804,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V310" authorId="0">
+    <comment ref="V313" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11816,7 +11816,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W310" authorId="0">
+    <comment ref="W313" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11828,7 +11828,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X310" authorId="0">
+    <comment ref="X313" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11840,7 +11840,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y310" authorId="0">
+    <comment ref="Y313" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11852,7 +11852,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z310" authorId="0">
+    <comment ref="Z313" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11864,7 +11864,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA310" authorId="0">
+    <comment ref="AA313" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11876,7 +11876,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB310" authorId="0">
+    <comment ref="AB313" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11888,7 +11888,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC310" authorId="0">
+    <comment ref="AC313" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11900,7 +11900,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD310" authorId="0">
+    <comment ref="AD313" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11912,7 +11912,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE310" authorId="0">
+    <comment ref="AE313" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11951,7 +11951,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10168" uniqueCount="3731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10292" uniqueCount="3739">
   <si>
     <t>Key</t>
   </si>
@@ -21915,6 +21915,19 @@
     <t>Starten</t>
   </si>
   <si>
+    <t>start_view</t>
+  </si>
+  <si>
+    <t>Start View</t>
+  </si>
+  <si>
+    <t>start_view_hint</t>
+  </si>
+  <si>
+    <t>Select which View/Label should be shown when the app is started.
+Defaults to the main Notes View</t>
+  </si>
+  <si>
     <t>stop</t>
   </si>
   <si>
@@ -22170,6 +22183,12 @@
     <t>轻按进行设置</t>
   </si>
   <si>
+    <t>text_default</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
     <t>text_size</t>
   </si>
   <si>
@@ -22603,6 +22622,12 @@
   </si>
   <si>
     <t>Không rõ tên</t>
+  </si>
+  <si>
+    <t>unlabeled</t>
+  </si>
+  <si>
+    <t>Unlabeled</t>
   </si>
   <si>
     <t>unlock</t>
@@ -27301,7 +27326,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE328"/>
+  <dimension ref="A1:AE332"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="3.0" ySplit="1.0" state="frozen" topLeftCell="D2" activePane="bottomRight"/>
@@ -55257,23 +55282,23 @@
       <c r="D295" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="E295" t="s" s="1">
-        <v>3309</v>
+      <c r="E295" t="s" s="2">
+        <v>61</v>
       </c>
       <c r="F295" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="G295" t="s" s="1">
-        <v>3308</v>
+      <c r="G295" t="s" s="2">
+        <v>61</v>
       </c>
       <c r="H295" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="I295" t="s" s="1">
-        <v>3310</v>
-      </c>
-      <c r="J295" t="s" s="1">
-        <v>3311</v>
+      <c r="I295" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J295" t="s" s="2">
+        <v>61</v>
       </c>
       <c r="K295" t="s" s="2">
         <v>61</v>
@@ -55281,8 +55306,8 @@
       <c r="L295" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="M295" t="s" s="1">
-        <v>3308</v>
+      <c r="M295" t="s" s="2">
+        <v>61</v>
       </c>
       <c r="N295" t="s" s="2">
         <v>61</v>
@@ -55293,8 +55318,8 @@
       <c r="P295" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="Q295" t="s" s="1">
-        <v>3312</v>
+      <c r="Q295" t="s" s="2">
+        <v>61</v>
       </c>
       <c r="R295" t="s" s="2">
         <v>61</v>
@@ -55341,414 +55366,414 @@
     </row>
     <row r="296">
       <c r="A296" t="s" s="1">
-        <v>3313</v>
+        <v>3309</v>
       </c>
       <c r="B296" t="s" s="1">
         <v>32</v>
       </c>
       <c r="C296" t="s" s="1">
-        <v>3314</v>
-      </c>
-      <c r="D296" t="s" s="1">
-        <v>3315</v>
-      </c>
-      <c r="E296" t="s" s="1">
-        <v>3316</v>
-      </c>
-      <c r="F296" t="s" s="1">
-        <v>3317</v>
-      </c>
-      <c r="G296" t="s" s="1">
-        <v>3318</v>
-      </c>
-      <c r="H296" t="s" s="1">
-        <v>3319</v>
-      </c>
-      <c r="I296" t="s" s="1">
-        <v>3320</v>
-      </c>
-      <c r="J296" t="s" s="1">
-        <v>3321</v>
-      </c>
-      <c r="K296" t="s" s="1">
-        <v>3322</v>
-      </c>
-      <c r="L296" t="s" s="1">
-        <v>3323</v>
-      </c>
-      <c r="M296" t="s" s="1">
-        <v>3324</v>
-      </c>
-      <c r="N296" t="s" s="1">
-        <v>3325</v>
-      </c>
-      <c r="O296" t="s" s="1">
-        <v>3326</v>
-      </c>
-      <c r="P296" t="s" s="1">
-        <v>3327</v>
-      </c>
-      <c r="Q296" t="s" s="1">
-        <v>3328</v>
-      </c>
-      <c r="R296" t="s" s="1">
-        <v>3329</v>
-      </c>
-      <c r="S296" t="s" s="1">
-        <v>3330</v>
-      </c>
-      <c r="T296" t="s" s="1">
-        <v>3320</v>
-      </c>
-      <c r="U296" t="s" s="1">
-        <v>3331</v>
-      </c>
-      <c r="V296" t="s" s="1">
-        <v>3332</v>
-      </c>
-      <c r="W296" t="s" s="1">
-        <v>3333</v>
-      </c>
-      <c r="X296" t="s" s="1">
-        <v>3334</v>
-      </c>
-      <c r="Y296" t="s" s="1">
-        <v>3335</v>
-      </c>
-      <c r="Z296" t="s" s="1">
-        <v>3336</v>
-      </c>
-      <c r="AA296" t="s" s="1">
-        <v>3314</v>
-      </c>
-      <c r="AB296" t="s" s="1">
-        <v>3337</v>
-      </c>
-      <c r="AC296" t="s" s="1">
-        <v>3338</v>
-      </c>
-      <c r="AD296" t="s" s="1">
-        <v>3339</v>
-      </c>
-      <c r="AE296" t="s" s="1">
-        <v>3340</v>
+        <v>3310</v>
+      </c>
+      <c r="D296" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E296" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F296" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G296" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H296" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I296" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J296" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K296" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L296" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M296" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N296" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O296" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P296" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q296" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R296" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S296" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T296" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U296" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V296" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W296" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X296" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y296" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z296" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA296" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB296" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC296" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD296" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE296" t="s" s="2">
+        <v>61</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s" s="1">
-        <v>3341</v>
+        <v>3311</v>
       </c>
       <c r="B297" t="s" s="1">
         <v>32</v>
       </c>
       <c r="C297" t="s" s="1">
-        <v>3342</v>
-      </c>
-      <c r="D297" t="s" s="1">
-        <v>3343</v>
+        <v>3312</v>
+      </c>
+      <c r="D297" t="s" s="2">
+        <v>61</v>
       </c>
       <c r="E297" t="s" s="1">
-        <v>3344</v>
-      </c>
-      <c r="F297" t="s" s="1">
-        <v>3345</v>
+        <v>3313</v>
+      </c>
+      <c r="F297" t="s" s="2">
+        <v>61</v>
       </c>
       <c r="G297" t="s" s="1">
-        <v>3346</v>
-      </c>
-      <c r="H297" t="s" s="1">
-        <v>3347</v>
+        <v>3312</v>
+      </c>
+      <c r="H297" t="s" s="2">
+        <v>61</v>
       </c>
       <c r="I297" t="s" s="1">
-        <v>3348</v>
+        <v>3314</v>
       </c>
       <c r="J297" t="s" s="1">
-        <v>3349</v>
-      </c>
-      <c r="K297" t="s" s="1">
-        <v>3350</v>
-      </c>
-      <c r="L297" t="s" s="1">
-        <v>3351</v>
+        <v>3315</v>
+      </c>
+      <c r="K297" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L297" t="s" s="2">
+        <v>61</v>
       </c>
       <c r="M297" t="s" s="1">
-        <v>3352</v>
-      </c>
-      <c r="N297" t="s" s="1">
-        <v>2557</v>
-      </c>
-      <c r="O297" t="s" s="1">
-        <v>2558</v>
-      </c>
-      <c r="P297" t="s" s="1">
-        <v>3353</v>
+        <v>3312</v>
+      </c>
+      <c r="N297" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O297" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P297" t="s" s="2">
+        <v>61</v>
       </c>
       <c r="Q297" t="s" s="1">
-        <v>3354</v>
-      </c>
-      <c r="R297" t="s" s="1">
-        <v>3355</v>
-      </c>
-      <c r="S297" t="s" s="1">
-        <v>3356</v>
-      </c>
-      <c r="T297" t="s" s="1">
-        <v>3357</v>
-      </c>
-      <c r="U297" t="s" s="1">
-        <v>3358</v>
-      </c>
-      <c r="V297" t="s" s="1">
-        <v>3359</v>
-      </c>
-      <c r="W297" t="s" s="1">
-        <v>3360</v>
-      </c>
-      <c r="X297" t="s" s="1">
-        <v>3361</v>
-      </c>
-      <c r="Y297" t="s" s="1">
-        <v>3362</v>
-      </c>
-      <c r="Z297" t="s" s="1">
-        <v>3363</v>
-      </c>
-      <c r="AA297" t="s" s="1">
-        <v>3364</v>
-      </c>
-      <c r="AB297" t="s" s="1">
-        <v>3365</v>
-      </c>
-      <c r="AC297" t="s" s="1">
-        <v>3366</v>
-      </c>
-      <c r="AD297" t="s" s="1">
-        <v>2569</v>
-      </c>
-      <c r="AE297" t="s" s="1">
-        <v>3367</v>
+        <v>3316</v>
+      </c>
+      <c r="R297" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S297" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T297" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U297" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V297" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W297" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X297" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y297" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z297" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA297" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB297" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC297" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD297" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE297" t="s" s="2">
+        <v>61</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s" s="1">
-        <v>3368</v>
+        <v>3317</v>
       </c>
       <c r="B298" t="s" s="1">
         <v>32</v>
       </c>
       <c r="C298" t="s" s="1">
-        <v>3369</v>
-      </c>
-      <c r="D298" t="s" s="2">
-        <v>61</v>
+        <v>3318</v>
+      </c>
+      <c r="D298" t="s" s="1">
+        <v>3319</v>
       </c>
       <c r="E298" t="s" s="1">
-        <v>3370</v>
-      </c>
-      <c r="F298" t="s" s="2">
-        <v>61</v>
+        <v>3320</v>
+      </c>
+      <c r="F298" t="s" s="1">
+        <v>3321</v>
       </c>
       <c r="G298" t="s" s="1">
-        <v>3371</v>
-      </c>
-      <c r="H298" t="s" s="2">
-        <v>61</v>
+        <v>3322</v>
+      </c>
+      <c r="H298" t="s" s="1">
+        <v>3323</v>
       </c>
       <c r="I298" t="s" s="1">
-        <v>3372</v>
+        <v>3324</v>
       </c>
       <c r="J298" t="s" s="1">
-        <v>3373</v>
-      </c>
-      <c r="K298" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="L298" t="s" s="2">
-        <v>61</v>
+        <v>3325</v>
+      </c>
+      <c r="K298" t="s" s="1">
+        <v>3326</v>
+      </c>
+      <c r="L298" t="s" s="1">
+        <v>3327</v>
       </c>
       <c r="M298" t="s" s="1">
-        <v>3374</v>
-      </c>
-      <c r="N298" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="O298" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="P298" t="s" s="2">
-        <v>61</v>
+        <v>3328</v>
+      </c>
+      <c r="N298" t="s" s="1">
+        <v>3329</v>
+      </c>
+      <c r="O298" t="s" s="1">
+        <v>3330</v>
+      </c>
+      <c r="P298" t="s" s="1">
+        <v>3331</v>
       </c>
       <c r="Q298" t="s" s="1">
-        <v>3375</v>
-      </c>
-      <c r="R298" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="S298" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="T298" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="U298" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="V298" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="W298" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="X298" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="Y298" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="Z298" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AA298" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AB298" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AC298" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AD298" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AE298" t="s" s="2">
-        <v>61</v>
+        <v>3332</v>
+      </c>
+      <c r="R298" t="s" s="1">
+        <v>3333</v>
+      </c>
+      <c r="S298" t="s" s="1">
+        <v>3334</v>
+      </c>
+      <c r="T298" t="s" s="1">
+        <v>3324</v>
+      </c>
+      <c r="U298" t="s" s="1">
+        <v>3335</v>
+      </c>
+      <c r="V298" t="s" s="1">
+        <v>3336</v>
+      </c>
+      <c r="W298" t="s" s="1">
+        <v>3337</v>
+      </c>
+      <c r="X298" t="s" s="1">
+        <v>3338</v>
+      </c>
+      <c r="Y298" t="s" s="1">
+        <v>3339</v>
+      </c>
+      <c r="Z298" t="s" s="1">
+        <v>3340</v>
+      </c>
+      <c r="AA298" t="s" s="1">
+        <v>3318</v>
+      </c>
+      <c r="AB298" t="s" s="1">
+        <v>3341</v>
+      </c>
+      <c r="AC298" t="s" s="1">
+        <v>3342</v>
+      </c>
+      <c r="AD298" t="s" s="1">
+        <v>3343</v>
+      </c>
+      <c r="AE298" t="s" s="1">
+        <v>3344</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s" s="1">
-        <v>3376</v>
+        <v>3345</v>
       </c>
       <c r="B299" t="s" s="1">
         <v>32</v>
       </c>
       <c r="C299" t="s" s="1">
-        <v>3377</v>
-      </c>
-      <c r="D299" t="s" s="2">
-        <v>61</v>
+        <v>3346</v>
+      </c>
+      <c r="D299" t="s" s="1">
+        <v>3347</v>
       </c>
       <c r="E299" t="s" s="1">
-        <v>3378</v>
-      </c>
-      <c r="F299" t="s" s="2">
-        <v>61</v>
+        <v>3348</v>
+      </c>
+      <c r="F299" t="s" s="1">
+        <v>3349</v>
       </c>
       <c r="G299" t="s" s="1">
-        <v>3379</v>
-      </c>
-      <c r="H299" t="s" s="2">
-        <v>61</v>
+        <v>3350</v>
+      </c>
+      <c r="H299" t="s" s="1">
+        <v>3351</v>
       </c>
       <c r="I299" t="s" s="1">
-        <v>3380</v>
+        <v>3352</v>
       </c>
       <c r="J299" t="s" s="1">
-        <v>3381</v>
-      </c>
-      <c r="K299" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="L299" t="s" s="2">
-        <v>61</v>
+        <v>3353</v>
+      </c>
+      <c r="K299" t="s" s="1">
+        <v>3354</v>
+      </c>
+      <c r="L299" t="s" s="1">
+        <v>3355</v>
       </c>
       <c r="M299" t="s" s="1">
-        <v>3382</v>
-      </c>
-      <c r="N299" t="s" s="2">
-        <v>61</v>
+        <v>3356</v>
+      </c>
+      <c r="N299" t="s" s="1">
+        <v>2557</v>
       </c>
       <c r="O299" t="s" s="1">
-        <v>3383</v>
+        <v>2558</v>
       </c>
       <c r="P299" t="s" s="1">
-        <v>3384</v>
+        <v>3357</v>
       </c>
       <c r="Q299" t="s" s="1">
-        <v>3385</v>
+        <v>3358</v>
       </c>
       <c r="R299" t="s" s="1">
-        <v>3386</v>
+        <v>3359</v>
       </c>
       <c r="S299" t="s" s="1">
-        <v>3387</v>
-      </c>
-      <c r="T299" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="U299" t="s" s="2">
-        <v>61</v>
+        <v>3360</v>
+      </c>
+      <c r="T299" t="s" s="1">
+        <v>3361</v>
+      </c>
+      <c r="U299" t="s" s="1">
+        <v>3362</v>
       </c>
       <c r="V299" t="s" s="1">
-        <v>3388</v>
-      </c>
-      <c r="W299" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="X299" t="s" s="2">
-        <v>61</v>
+        <v>3363</v>
+      </c>
+      <c r="W299" t="s" s="1">
+        <v>3364</v>
+      </c>
+      <c r="X299" t="s" s="1">
+        <v>3365</v>
       </c>
       <c r="Y299" t="s" s="1">
-        <v>3389</v>
-      </c>
-      <c r="Z299" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AA299" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AB299" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AC299" t="s" s="2">
-        <v>61</v>
+        <v>3366</v>
+      </c>
+      <c r="Z299" t="s" s="1">
+        <v>3367</v>
+      </c>
+      <c r="AA299" t="s" s="1">
+        <v>3368</v>
+      </c>
+      <c r="AB299" t="s" s="1">
+        <v>3369</v>
+      </c>
+      <c r="AC299" t="s" s="1">
+        <v>3370</v>
       </c>
       <c r="AD299" t="s" s="1">
-        <v>3390</v>
+        <v>2569</v>
       </c>
       <c r="AE299" t="s" s="1">
-        <v>3391</v>
+        <v>3371</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s" s="1">
-        <v>3392</v>
+        <v>3372</v>
       </c>
       <c r="B300" t="s" s="1">
         <v>32</v>
       </c>
       <c r="C300" t="s" s="1">
-        <v>3393</v>
+        <v>3373</v>
       </c>
       <c r="D300" t="s" s="2">
         <v>61</v>
       </c>
       <c r="E300" t="s" s="1">
-        <v>3394</v>
+        <v>3374</v>
       </c>
       <c r="F300" t="s" s="2">
         <v>61</v>
       </c>
       <c r="G300" t="s" s="1">
-        <v>3395</v>
+        <v>3375</v>
       </c>
       <c r="H300" t="s" s="2">
         <v>61</v>
       </c>
       <c r="I300" t="s" s="1">
-        <v>3396</v>
+        <v>3376</v>
       </c>
       <c r="J300" t="s" s="1">
-        <v>3397</v>
+        <v>3377</v>
       </c>
       <c r="K300" t="s" s="2">
         <v>61</v>
@@ -55757,25 +55782,25 @@
         <v>61</v>
       </c>
       <c r="M300" t="s" s="1">
-        <v>3398</v>
+        <v>3378</v>
       </c>
       <c r="N300" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="O300" t="s" s="1">
-        <v>3399</v>
-      </c>
-      <c r="P300" t="s" s="1">
-        <v>3400</v>
+      <c r="O300" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P300" t="s" s="2">
+        <v>61</v>
       </c>
       <c r="Q300" t="s" s="1">
-        <v>3401</v>
-      </c>
-      <c r="R300" t="s" s="1">
-        <v>3402</v>
-      </c>
-      <c r="S300" t="s" s="1">
-        <v>3403</v>
+        <v>3379</v>
+      </c>
+      <c r="R300" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S300" t="s" s="2">
+        <v>61</v>
       </c>
       <c r="T300" t="s" s="2">
         <v>61</v>
@@ -55783,8 +55808,8 @@
       <c r="U300" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="V300" t="s" s="1">
-        <v>3404</v>
+      <c r="V300" t="s" s="2">
+        <v>61</v>
       </c>
       <c r="W300" t="s" s="2">
         <v>61</v>
@@ -55792,8 +55817,8 @@
       <c r="X300" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="Y300" t="s" s="1">
-        <v>3405</v>
+      <c r="Y300" t="s" s="2">
+        <v>61</v>
       </c>
       <c r="Z300" t="s" s="2">
         <v>61</v>
@@ -55807,233 +55832,233 @@
       <c r="AC300" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="AD300" t="s" s="1">
-        <v>3406</v>
-      </c>
-      <c r="AE300" t="s" s="1">
-        <v>3407</v>
+      <c r="AD300" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE300" t="s" s="2">
+        <v>61</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s" s="1">
-        <v>3408</v>
+        <v>3380</v>
       </c>
       <c r="B301" t="s" s="1">
         <v>32</v>
       </c>
       <c r="C301" t="s" s="1">
-        <v>3409</v>
-      </c>
-      <c r="D301" t="s" s="1">
-        <v>3410</v>
+        <v>3381</v>
+      </c>
+      <c r="D301" t="s" s="2">
+        <v>61</v>
       </c>
       <c r="E301" t="s" s="1">
-        <v>3411</v>
-      </c>
-      <c r="F301" t="s" s="1">
-        <v>3410</v>
+        <v>3382</v>
+      </c>
+      <c r="F301" t="s" s="2">
+        <v>61</v>
       </c>
       <c r="G301" t="s" s="1">
-        <v>3412</v>
-      </c>
-      <c r="H301" t="s" s="1">
-        <v>3413</v>
+        <v>3383</v>
+      </c>
+      <c r="H301" t="s" s="2">
+        <v>61</v>
       </c>
       <c r="I301" t="s" s="1">
-        <v>3410</v>
+        <v>3384</v>
       </c>
       <c r="J301" t="s" s="1">
-        <v>3414</v>
-      </c>
-      <c r="K301" t="s" s="1">
-        <v>3411</v>
-      </c>
-      <c r="L301" t="s" s="1">
-        <v>3410</v>
+        <v>3385</v>
+      </c>
+      <c r="K301" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L301" t="s" s="2">
+        <v>61</v>
       </c>
       <c r="M301" t="s" s="1">
-        <v>3410</v>
-      </c>
-      <c r="N301" t="s" s="1">
-        <v>3415</v>
+        <v>3386</v>
+      </c>
+      <c r="N301" t="s" s="2">
+        <v>61</v>
       </c>
       <c r="O301" t="s" s="1">
-        <v>3416</v>
+        <v>3387</v>
       </c>
       <c r="P301" t="s" s="1">
-        <v>3410</v>
+        <v>3388</v>
       </c>
       <c r="Q301" t="s" s="1">
-        <v>3417</v>
+        <v>3389</v>
       </c>
       <c r="R301" t="s" s="1">
-        <v>3410</v>
+        <v>3390</v>
       </c>
       <c r="S301" t="s" s="1">
-        <v>3418</v>
-      </c>
-      <c r="T301" t="s" s="1">
-        <v>3410</v>
-      </c>
-      <c r="U301" t="s" s="1">
-        <v>3410</v>
+        <v>3391</v>
+      </c>
+      <c r="T301" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U301" t="s" s="2">
+        <v>61</v>
       </c>
       <c r="V301" t="s" s="1">
-        <v>3410</v>
-      </c>
-      <c r="W301" t="s" s="1">
-        <v>3419</v>
-      </c>
-      <c r="X301" t="s" s="1">
-        <v>3411</v>
+        <v>3392</v>
+      </c>
+      <c r="W301" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X301" t="s" s="2">
+        <v>61</v>
       </c>
       <c r="Y301" t="s" s="1">
-        <v>3410</v>
-      </c>
-      <c r="Z301" t="s" s="1">
-        <v>3410</v>
-      </c>
-      <c r="AA301" t="s" s="1">
-        <v>3410</v>
-      </c>
-      <c r="AB301" t="s" s="1">
-        <v>3410</v>
-      </c>
-      <c r="AC301" t="s" s="1">
-        <v>3419</v>
+        <v>3393</v>
+      </c>
+      <c r="Z301" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA301" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB301" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC301" t="s" s="2">
+        <v>61</v>
       </c>
       <c r="AD301" t="s" s="1">
-        <v>3420</v>
+        <v>3394</v>
       </c>
       <c r="AE301" t="s" s="1">
-        <v>3421</v>
+        <v>3395</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s" s="1">
-        <v>3422</v>
+        <v>3396</v>
       </c>
       <c r="B302" t="s" s="1">
         <v>32</v>
       </c>
       <c r="C302" t="s" s="1">
-        <v>3423</v>
-      </c>
-      <c r="D302" t="s" s="1">
-        <v>3424</v>
-      </c>
-      <c r="E302" t="s" s="1">
-        <v>3425</v>
-      </c>
-      <c r="F302" t="s" s="1">
-        <v>3426</v>
-      </c>
-      <c r="G302" t="s" s="1">
-        <v>3426</v>
-      </c>
-      <c r="H302" t="s" s="1">
-        <v>3427</v>
-      </c>
-      <c r="I302" t="s" s="1">
-        <v>3428</v>
-      </c>
-      <c r="J302" t="s" s="1">
-        <v>3429</v>
-      </c>
-      <c r="K302" t="s" s="1">
-        <v>3430</v>
-      </c>
-      <c r="L302" t="s" s="1">
-        <v>3431</v>
-      </c>
-      <c r="M302" t="s" s="1">
-        <v>3432</v>
-      </c>
-      <c r="N302" t="s" s="1">
-        <v>3433</v>
-      </c>
-      <c r="O302" t="s" s="1">
-        <v>3434</v>
-      </c>
-      <c r="P302" t="s" s="1">
-        <v>3435</v>
-      </c>
-      <c r="Q302" t="s" s="1">
-        <v>3426</v>
-      </c>
-      <c r="R302" t="s" s="1">
-        <v>3435</v>
-      </c>
-      <c r="S302" t="s" s="1">
-        <v>3436</v>
-      </c>
-      <c r="T302" t="s" s="1">
-        <v>3428</v>
-      </c>
-      <c r="U302" t="s" s="1">
-        <v>3428</v>
-      </c>
-      <c r="V302" t="s" s="1">
-        <v>3437</v>
-      </c>
-      <c r="W302" t="s" s="1">
-        <v>3438</v>
-      </c>
-      <c r="X302" t="s" s="1">
-        <v>3439</v>
-      </c>
-      <c r="Y302" t="s" s="1">
-        <v>3440</v>
-      </c>
-      <c r="Z302" t="s" s="1">
-        <v>3426</v>
-      </c>
-      <c r="AA302" t="s" s="1">
-        <v>3441</v>
-      </c>
-      <c r="AB302" t="s" s="1">
-        <v>3442</v>
-      </c>
-      <c r="AC302" t="s" s="1">
-        <v>3443</v>
-      </c>
-      <c r="AD302" t="s" s="1">
-        <v>3444</v>
-      </c>
-      <c r="AE302" t="s" s="1">
-        <v>3445</v>
+        <v>3397</v>
+      </c>
+      <c r="D302" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E302" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F302" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G302" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="H302" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I302" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J302" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="K302" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L302" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M302" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N302" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O302" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P302" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q302" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R302" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S302" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T302" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U302" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V302" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W302" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X302" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y302" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z302" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA302" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB302" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC302" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD302" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE302" t="s" s="2">
+        <v>61</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s" s="1">
-        <v>3446</v>
+        <v>3398</v>
       </c>
       <c r="B303" t="s" s="1">
         <v>32</v>
       </c>
       <c r="C303" t="s" s="1">
-        <v>3447</v>
+        <v>3399</v>
       </c>
       <c r="D303" t="s" s="2">
         <v>61</v>
       </c>
       <c r="E303" t="s" s="1">
-        <v>3448</v>
+        <v>3400</v>
       </c>
       <c r="F303" t="s" s="2">
         <v>61</v>
       </c>
       <c r="G303" t="s" s="1">
-        <v>3449</v>
+        <v>3401</v>
       </c>
       <c r="H303" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="I303" t="s" s="2">
-        <v>61</v>
+      <c r="I303" t="s" s="1">
+        <v>3402</v>
       </c>
       <c r="J303" t="s" s="1">
-        <v>3450</v>
+        <v>3403</v>
       </c>
       <c r="K303" t="s" s="2">
         <v>61</v>
@@ -56042,25 +56067,25 @@
         <v>61</v>
       </c>
       <c r="M303" t="s" s="1">
-        <v>3451</v>
+        <v>3404</v>
       </c>
       <c r="N303" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="O303" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="P303" t="s" s="2">
-        <v>61</v>
+      <c r="O303" t="s" s="1">
+        <v>3405</v>
+      </c>
+      <c r="P303" t="s" s="1">
+        <v>3406</v>
       </c>
       <c r="Q303" t="s" s="1">
-        <v>3452</v>
-      </c>
-      <c r="R303" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="S303" t="s" s="2">
-        <v>61</v>
+        <v>3407</v>
+      </c>
+      <c r="R303" t="s" s="1">
+        <v>3408</v>
+      </c>
+      <c r="S303" t="s" s="1">
+        <v>3409</v>
       </c>
       <c r="T303" t="s" s="2">
         <v>61</v>
@@ -56068,8 +56093,8 @@
       <c r="U303" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="V303" t="s" s="2">
-        <v>61</v>
+      <c r="V303" t="s" s="1">
+        <v>3410</v>
       </c>
       <c r="W303" t="s" s="2">
         <v>61</v>
@@ -56077,8 +56102,8 @@
       <c r="X303" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="Y303" t="s" s="2">
-        <v>61</v>
+      <c r="Y303" t="s" s="1">
+        <v>3411</v>
       </c>
       <c r="Z303" t="s" s="2">
         <v>61</v>
@@ -56092,491 +56117,491 @@
       <c r="AC303" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="AD303" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AE303" t="s" s="2">
-        <v>61</v>
+      <c r="AD303" t="s" s="1">
+        <v>3412</v>
+      </c>
+      <c r="AE303" t="s" s="1">
+        <v>3413</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s" s="1">
-        <v>3453</v>
+        <v>3414</v>
       </c>
       <c r="B304" t="s" s="1">
         <v>32</v>
       </c>
       <c r="C304" t="s" s="1">
-        <v>3454</v>
+        <v>3415</v>
       </c>
       <c r="D304" t="s" s="1">
-        <v>3455</v>
+        <v>3416</v>
       </c>
       <c r="E304" t="s" s="1">
-        <v>3456</v>
+        <v>3417</v>
       </c>
       <c r="F304" t="s" s="1">
-        <v>3457</v>
+        <v>3416</v>
       </c>
       <c r="G304" t="s" s="1">
-        <v>3458</v>
+        <v>3418</v>
       </c>
       <c r="H304" t="s" s="1">
-        <v>3459</v>
+        <v>3419</v>
       </c>
       <c r="I304" t="s" s="1">
-        <v>3460</v>
+        <v>3416</v>
       </c>
       <c r="J304" t="s" s="1">
-        <v>2902</v>
+        <v>3420</v>
       </c>
       <c r="K304" t="s" s="1">
-        <v>3461</v>
+        <v>3417</v>
       </c>
       <c r="L304" t="s" s="1">
-        <v>3462</v>
+        <v>3416</v>
       </c>
       <c r="M304" t="s" s="1">
-        <v>3463</v>
+        <v>3416</v>
       </c>
       <c r="N304" t="s" s="1">
-        <v>3464</v>
+        <v>3421</v>
       </c>
       <c r="O304" t="s" s="1">
-        <v>3465</v>
+        <v>3422</v>
       </c>
       <c r="P304" t="s" s="1">
-        <v>3466</v>
+        <v>3416</v>
       </c>
       <c r="Q304" t="s" s="1">
-        <v>3467</v>
+        <v>3423</v>
       </c>
       <c r="R304" t="s" s="1">
-        <v>3468</v>
+        <v>3416</v>
       </c>
       <c r="S304" t="s" s="1">
-        <v>3469</v>
+        <v>3424</v>
       </c>
       <c r="T304" t="s" s="1">
-        <v>3470</v>
+        <v>3416</v>
       </c>
       <c r="U304" t="s" s="1">
-        <v>3470</v>
+        <v>3416</v>
       </c>
       <c r="V304" t="s" s="1">
-        <v>3471</v>
+        <v>3416</v>
       </c>
       <c r="W304" t="s" s="1">
-        <v>3472</v>
+        <v>3425</v>
       </c>
       <c r="X304" t="s" s="1">
-        <v>3473</v>
+        <v>3417</v>
       </c>
       <c r="Y304" t="s" s="1">
-        <v>3474</v>
+        <v>3416</v>
       </c>
       <c r="Z304" t="s" s="1">
-        <v>3475</v>
+        <v>3416</v>
       </c>
       <c r="AA304" t="s" s="1">
-        <v>3476</v>
+        <v>3416</v>
       </c>
       <c r="AB304" t="s" s="1">
-        <v>3477</v>
+        <v>3416</v>
       </c>
       <c r="AC304" t="s" s="1">
-        <v>3478</v>
+        <v>3425</v>
       </c>
       <c r="AD304" t="s" s="1">
-        <v>3479</v>
+        <v>3426</v>
       </c>
       <c r="AE304" t="s" s="1">
-        <v>3480</v>
+        <v>3427</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s" s="1">
-        <v>3481</v>
+        <v>3428</v>
       </c>
       <c r="B305" t="s" s="1">
         <v>32</v>
       </c>
-      <c r="C305" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="D305" t="s" s="3">
-        <v>61</v>
+      <c r="C305" t="s" s="1">
+        <v>3429</v>
+      </c>
+      <c r="D305" t="s" s="1">
+        <v>3430</v>
       </c>
       <c r="E305" t="s" s="1">
-        <v>2922</v>
-      </c>
-      <c r="F305" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="G305" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="H305" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="I305" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="J305" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="K305" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="L305" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="M305" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="N305" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="O305" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="P305" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="Q305" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="R305" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="S305" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="T305" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="U305" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="V305" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="W305" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="X305" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="Y305" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="Z305" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="AA305" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="AB305" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="AC305" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="AD305" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="AE305" t="s" s="3">
-        <v>61</v>
+        <v>3431</v>
+      </c>
+      <c r="F305" t="s" s="1">
+        <v>3432</v>
+      </c>
+      <c r="G305" t="s" s="1">
+        <v>3432</v>
+      </c>
+      <c r="H305" t="s" s="1">
+        <v>3433</v>
+      </c>
+      <c r="I305" t="s" s="1">
+        <v>3434</v>
+      </c>
+      <c r="J305" t="s" s="1">
+        <v>3435</v>
+      </c>
+      <c r="K305" t="s" s="1">
+        <v>3436</v>
+      </c>
+      <c r="L305" t="s" s="1">
+        <v>3437</v>
+      </c>
+      <c r="M305" t="s" s="1">
+        <v>3438</v>
+      </c>
+      <c r="N305" t="s" s="1">
+        <v>3439</v>
+      </c>
+      <c r="O305" t="s" s="1">
+        <v>3440</v>
+      </c>
+      <c r="P305" t="s" s="1">
+        <v>3441</v>
+      </c>
+      <c r="Q305" t="s" s="1">
+        <v>3432</v>
+      </c>
+      <c r="R305" t="s" s="1">
+        <v>3441</v>
+      </c>
+      <c r="S305" t="s" s="1">
+        <v>3442</v>
+      </c>
+      <c r="T305" t="s" s="1">
+        <v>3434</v>
+      </c>
+      <c r="U305" t="s" s="1">
+        <v>3434</v>
+      </c>
+      <c r="V305" t="s" s="1">
+        <v>3443</v>
+      </c>
+      <c r="W305" t="s" s="1">
+        <v>3444</v>
+      </c>
+      <c r="X305" t="s" s="1">
+        <v>3445</v>
+      </c>
+      <c r="Y305" t="s" s="1">
+        <v>3446</v>
+      </c>
+      <c r="Z305" t="s" s="1">
+        <v>3432</v>
+      </c>
+      <c r="AA305" t="s" s="1">
+        <v>3447</v>
+      </c>
+      <c r="AB305" t="s" s="1">
+        <v>3448</v>
+      </c>
+      <c r="AC305" t="s" s="1">
+        <v>3449</v>
+      </c>
+      <c r="AD305" t="s" s="1">
+        <v>3450</v>
+      </c>
+      <c r="AE305" t="s" s="1">
+        <v>3451</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s" s="1">
-        <v>3482</v>
+        <v>3452</v>
       </c>
       <c r="B306" t="s" s="1">
         <v>32</v>
       </c>
-      <c r="C306" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="D306" t="s" s="3">
+      <c r="C306" t="s" s="1">
+        <v>3453</v>
+      </c>
+      <c r="D306" t="s" s="2">
         <v>61</v>
       </c>
       <c r="E306" t="s" s="1">
-        <v>2922</v>
-      </c>
-      <c r="F306" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="G306" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="H306" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="I306" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="J306" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="K306" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="L306" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="M306" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="N306" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="O306" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="P306" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="Q306" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="R306" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="S306" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="T306" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="U306" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="V306" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="W306" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="X306" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="Y306" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="Z306" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="AA306" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="AB306" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="AC306" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="AD306" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="AE306" t="s" s="3">
+        <v>3454</v>
+      </c>
+      <c r="F306" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G306" t="s" s="1">
+        <v>3455</v>
+      </c>
+      <c r="H306" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I306" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J306" t="s" s="1">
+        <v>3456</v>
+      </c>
+      <c r="K306" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L306" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M306" t="s" s="1">
+        <v>3457</v>
+      </c>
+      <c r="N306" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O306" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P306" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q306" t="s" s="1">
+        <v>3458</v>
+      </c>
+      <c r="R306" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S306" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T306" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U306" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V306" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W306" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X306" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y306" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z306" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA306" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB306" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC306" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD306" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE306" t="s" s="2">
         <v>61</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s" s="1">
-        <v>3483</v>
+        <v>3459</v>
       </c>
       <c r="B307" t="s" s="1">
         <v>32</v>
       </c>
       <c r="C307" t="s" s="1">
+        <v>3460</v>
+      </c>
+      <c r="D307" t="s" s="1">
+        <v>3461</v>
+      </c>
+      <c r="E307" t="s" s="1">
+        <v>3462</v>
+      </c>
+      <c r="F307" t="s" s="1">
+        <v>3463</v>
+      </c>
+      <c r="G307" t="s" s="1">
+        <v>3464</v>
+      </c>
+      <c r="H307" t="s" s="1">
+        <v>3465</v>
+      </c>
+      <c r="I307" t="s" s="1">
+        <v>3466</v>
+      </c>
+      <c r="J307" t="s" s="1">
+        <v>2902</v>
+      </c>
+      <c r="K307" t="s" s="1">
+        <v>3467</v>
+      </c>
+      <c r="L307" t="s" s="1">
+        <v>3468</v>
+      </c>
+      <c r="M307" t="s" s="1">
+        <v>3469</v>
+      </c>
+      <c r="N307" t="s" s="1">
+        <v>3470</v>
+      </c>
+      <c r="O307" t="s" s="1">
+        <v>3471</v>
+      </c>
+      <c r="P307" t="s" s="1">
+        <v>3472</v>
+      </c>
+      <c r="Q307" t="s" s="1">
+        <v>3473</v>
+      </c>
+      <c r="R307" t="s" s="1">
+        <v>3474</v>
+      </c>
+      <c r="S307" t="s" s="1">
+        <v>3475</v>
+      </c>
+      <c r="T307" t="s" s="1">
+        <v>3476</v>
+      </c>
+      <c r="U307" t="s" s="1">
+        <v>3476</v>
+      </c>
+      <c r="V307" t="s" s="1">
+        <v>3477</v>
+      </c>
+      <c r="W307" t="s" s="1">
+        <v>3478</v>
+      </c>
+      <c r="X307" t="s" s="1">
+        <v>3479</v>
+      </c>
+      <c r="Y307" t="s" s="1">
+        <v>3480</v>
+      </c>
+      <c r="Z307" t="s" s="1">
+        <v>3481</v>
+      </c>
+      <c r="AA307" t="s" s="1">
+        <v>3482</v>
+      </c>
+      <c r="AB307" t="s" s="1">
+        <v>3483</v>
+      </c>
+      <c r="AC307" t="s" s="1">
         <v>3484</v>
       </c>
-      <c r="D307" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="E307" t="s" s="1">
-        <v>2922</v>
-      </c>
-      <c r="F307" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="G307" t="s" s="1">
+      <c r="AD307" t="s" s="1">
         <v>3485</v>
       </c>
-      <c r="H307" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="I307" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="J307" t="s" s="1">
+      <c r="AE307" t="s" s="1">
         <v>3486</v>
-      </c>
-      <c r="K307" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="L307" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="M307" t="s" s="1">
-        <v>3487</v>
-      </c>
-      <c r="N307" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="O307" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="P307" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="Q307" t="s" s="1">
-        <v>3488</v>
-      </c>
-      <c r="R307" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="S307" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="T307" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="U307" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="V307" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="W307" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="X307" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="Y307" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="Z307" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AA307" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AB307" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AC307" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AD307" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AE307" t="s" s="2">
-        <v>61</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s" s="1">
-        <v>3489</v>
+        <v>3487</v>
       </c>
       <c r="B308" t="s" s="1">
         <v>32</v>
       </c>
-      <c r="C308" t="s" s="1">
-        <v>3490</v>
-      </c>
-      <c r="D308" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="E308" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="F308" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="G308" t="s" s="1">
-        <v>3491</v>
-      </c>
-      <c r="H308" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="I308" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="J308" t="s" s="1">
-        <v>3492</v>
-      </c>
-      <c r="K308" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="L308" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="M308" t="s" s="1">
-        <v>3493</v>
-      </c>
-      <c r="N308" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="O308" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="P308" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="Q308" t="s" s="1">
-        <v>3494</v>
-      </c>
-      <c r="R308" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="S308" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="T308" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="U308" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="V308" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="W308" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="X308" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="Y308" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="Z308" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AA308" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AB308" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AC308" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AD308" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AE308" t="s" s="2">
+      <c r="C308" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="D308" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="E308" t="s" s="1">
+        <v>2922</v>
+      </c>
+      <c r="F308" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="G308" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="H308" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="I308" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="J308" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="K308" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="L308" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="M308" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="N308" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="O308" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="P308" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="Q308" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="R308" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="S308" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="T308" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="U308" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="V308" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="W308" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="X308" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="Y308" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="Z308" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="AA308" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="AB308" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="AC308" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="AD308" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="AE308" t="s" s="3">
         <v>61</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s" s="1">
-        <v>3495</v>
+        <v>3488</v>
       </c>
       <c r="B309" t="s" s="1">
         <v>32</v>
@@ -56587,8 +56612,8 @@
       <c r="D309" t="s" s="3">
         <v>61</v>
       </c>
-      <c r="E309" t="s" s="3">
-        <v>61</v>
+      <c r="E309" t="s" s="1">
+        <v>2922</v>
       </c>
       <c r="F309" t="s" s="3">
         <v>61</v>
@@ -56671,151 +56696,151 @@
     </row>
     <row r="310">
       <c r="A310" t="s" s="1">
-        <v>3496</v>
+        <v>3489</v>
       </c>
       <c r="B310" t="s" s="1">
         <v>32</v>
       </c>
-      <c r="C310" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="D310" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="E310" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="F310" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="G310" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="H310" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="I310" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="J310" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="K310" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="L310" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="M310" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="N310" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="O310" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="P310" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="Q310" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="R310" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="S310" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="T310" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="U310" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="V310" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="W310" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="X310" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="Y310" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="Z310" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="AA310" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="AB310" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="AC310" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="AD310" t="s" s="3">
-        <v>61</v>
-      </c>
-      <c r="AE310" t="s" s="3">
+      <c r="C310" t="s" s="1">
+        <v>3490</v>
+      </c>
+      <c r="D310" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E310" t="s" s="1">
+        <v>2922</v>
+      </c>
+      <c r="F310" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G310" t="s" s="1">
+        <v>3491</v>
+      </c>
+      <c r="H310" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I310" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J310" t="s" s="1">
+        <v>3492</v>
+      </c>
+      <c r="K310" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L310" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M310" t="s" s="1">
+        <v>3493</v>
+      </c>
+      <c r="N310" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O310" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P310" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q310" t="s" s="1">
+        <v>3494</v>
+      </c>
+      <c r="R310" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S310" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T310" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U310" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V310" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W310" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X310" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y310" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z310" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA310" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB310" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC310" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD310" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE310" t="s" s="2">
         <v>61</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s" s="1">
-        <v>3497</v>
+        <v>3495</v>
       </c>
       <c r="B311" t="s" s="1">
         <v>32</v>
       </c>
       <c r="C311" t="s" s="1">
+        <v>3496</v>
+      </c>
+      <c r="D311" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E311" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="F311" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G311" t="s" s="1">
+        <v>3497</v>
+      </c>
+      <c r="H311" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I311" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="J311" t="s" s="1">
         <v>3498</v>
       </c>
-      <c r="D311" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="E311" t="s" s="1">
+      <c r="K311" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L311" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M311" t="s" s="1">
         <v>3499</v>
       </c>
-      <c r="F311" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="G311" t="s" s="1">
+      <c r="N311" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O311" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P311" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q311" t="s" s="1">
         <v>3500</v>
       </c>
-      <c r="H311" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="I311" t="s" s="1">
-        <v>3501</v>
-      </c>
-      <c r="J311" t="s" s="1">
-        <v>3502</v>
-      </c>
-      <c r="K311" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="L311" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="M311" t="s" s="1">
-        <v>3503</v>
-      </c>
-      <c r="N311" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="O311" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="P311" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="Q311" t="s" s="1">
-        <v>3504</v>
-      </c>
       <c r="R311" t="s" s="2">
         <v>61</v>
       </c>
@@ -56855,230 +56880,230 @@
       <c r="AD311" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="AE311" t="s" s="1">
-        <v>3505</v>
+      <c r="AE311" t="s" s="2">
+        <v>61</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s" s="1">
-        <v>3506</v>
+        <v>3501</v>
       </c>
       <c r="B312" t="s" s="1">
         <v>32</v>
       </c>
-      <c r="C312" t="s" s="1">
-        <v>3507</v>
-      </c>
-      <c r="D312" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="E312" t="s" s="1">
-        <v>370</v>
-      </c>
-      <c r="F312" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="G312" t="s" s="1">
-        <v>3508</v>
-      </c>
-      <c r="H312" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="I312" t="s" s="1">
-        <v>3509</v>
-      </c>
-      <c r="J312" t="s" s="1">
-        <v>523</v>
-      </c>
-      <c r="K312" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="L312" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="M312" t="s" s="1">
-        <v>526</v>
-      </c>
-      <c r="N312" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="O312" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="P312" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="Q312" t="s" s="1">
-        <v>3510</v>
-      </c>
-      <c r="R312" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="S312" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="T312" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="U312" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="V312" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="W312" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="X312" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="Y312" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="Z312" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AA312" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AB312" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AC312" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AD312" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AE312" t="s" s="2">
+      <c r="C312" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="D312" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="E312" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="F312" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="G312" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="H312" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="I312" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="J312" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="K312" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="L312" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="M312" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="N312" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="O312" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="P312" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="Q312" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="R312" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="S312" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="T312" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="U312" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="V312" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="W312" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="X312" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="Y312" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="Z312" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="AA312" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="AB312" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="AC312" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="AD312" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="AE312" t="s" s="3">
         <v>61</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s" s="1">
-        <v>3511</v>
+        <v>3502</v>
       </c>
       <c r="B313" t="s" s="1">
         <v>32</v>
       </c>
-      <c r="C313" t="s" s="1">
-        <v>3512</v>
-      </c>
-      <c r="D313" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="E313" t="s" s="1">
-        <v>3513</v>
-      </c>
-      <c r="F313" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="G313" t="s" s="1">
-        <v>3514</v>
-      </c>
-      <c r="H313" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="I313" t="s" s="1">
-        <v>3515</v>
-      </c>
-      <c r="J313" t="s" s="1">
-        <v>3516</v>
-      </c>
-      <c r="K313" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="L313" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="M313" t="s" s="1">
-        <v>3517</v>
-      </c>
-      <c r="N313" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="O313" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="P313" t="s" s="1">
-        <v>3518</v>
-      </c>
-      <c r="Q313" t="s" s="1">
-        <v>3519</v>
-      </c>
-      <c r="R313" t="s" s="1">
-        <v>3520</v>
-      </c>
-      <c r="S313" t="s" s="1">
-        <v>3521</v>
-      </c>
-      <c r="T313" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="U313" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="V313" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="W313" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="X313" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="Y313" t="s" s="1">
-        <v>3522</v>
-      </c>
-      <c r="Z313" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AA313" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AB313" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AC313" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AD313" t="s" s="1">
-        <v>3523</v>
-      </c>
-      <c r="AE313" t="s" s="2">
+      <c r="C313" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="D313" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="E313" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="F313" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="G313" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="H313" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="I313" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="J313" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="K313" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="L313" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="M313" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="N313" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="O313" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="P313" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="Q313" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="R313" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="S313" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="T313" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="U313" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="V313" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="W313" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="X313" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="Y313" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="Z313" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="AA313" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="AB313" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="AC313" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="AD313" t="s" s="3">
+        <v>61</v>
+      </c>
+      <c r="AE313" t="s" s="3">
         <v>61</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s" s="1">
-        <v>3524</v>
+        <v>3503</v>
       </c>
       <c r="B314" t="s" s="1">
         <v>32</v>
       </c>
       <c r="C314" t="s" s="1">
-        <v>3525</v>
+        <v>3504</v>
       </c>
       <c r="D314" t="s" s="2">
         <v>61</v>
       </c>
       <c r="E314" t="s" s="1">
-        <v>3526</v>
+        <v>3505</v>
       </c>
       <c r="F314" t="s" s="2">
         <v>61</v>
       </c>
       <c r="G314" t="s" s="1">
-        <v>3527</v>
+        <v>3506</v>
       </c>
       <c r="H314" t="s" s="2">
         <v>61</v>
       </c>
       <c r="I314" t="s" s="1">
-        <v>3528</v>
+        <v>3507</v>
       </c>
       <c r="J314" t="s" s="1">
-        <v>3529</v>
+        <v>3508</v>
       </c>
       <c r="K314" t="s" s="2">
         <v>61</v>
@@ -57087,7 +57112,7 @@
         <v>61</v>
       </c>
       <c r="M314" t="s" s="1">
-        <v>3530</v>
+        <v>3509</v>
       </c>
       <c r="N314" t="s" s="2">
         <v>61</v>
@@ -57095,17 +57120,17 @@
       <c r="O314" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="P314" t="s" s="1">
-        <v>3531</v>
+      <c r="P314" t="s" s="2">
+        <v>61</v>
       </c>
       <c r="Q314" t="s" s="1">
-        <v>3532</v>
-      </c>
-      <c r="R314" t="s" s="1">
-        <v>3533</v>
-      </c>
-      <c r="S314" t="s" s="1">
-        <v>3534</v>
+        <v>3510</v>
+      </c>
+      <c r="R314" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S314" t="s" s="2">
+        <v>61</v>
       </c>
       <c r="T314" t="s" s="2">
         <v>61</v>
@@ -57122,8 +57147,8 @@
       <c r="X314" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="Y314" t="s" s="1">
-        <v>3535</v>
+      <c r="Y314" t="s" s="2">
+        <v>61</v>
       </c>
       <c r="Z314" t="s" s="2">
         <v>61</v>
@@ -57137,43 +57162,43 @@
       <c r="AC314" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="AD314" t="s" s="1">
-        <v>3536</v>
-      </c>
-      <c r="AE314" t="s" s="2">
-        <v>61</v>
+      <c r="AD314" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE314" t="s" s="1">
+        <v>3511</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s" s="1">
-        <v>3537</v>
+        <v>3512</v>
       </c>
       <c r="B315" t="s" s="1">
         <v>32</v>
       </c>
       <c r="C315" t="s" s="1">
-        <v>3538</v>
+        <v>3513</v>
       </c>
       <c r="D315" t="s" s="2">
         <v>61</v>
       </c>
       <c r="E315" t="s" s="1">
-        <v>3539</v>
+        <v>370</v>
       </c>
       <c r="F315" t="s" s="2">
         <v>61</v>
       </c>
       <c r="G315" t="s" s="1">
-        <v>3540</v>
+        <v>3514</v>
       </c>
       <c r="H315" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="I315" t="s" s="2">
-        <v>61</v>
+      <c r="I315" t="s" s="1">
+        <v>3515</v>
       </c>
       <c r="J315" t="s" s="1">
-        <v>3541</v>
+        <v>523</v>
       </c>
       <c r="K315" t="s" s="2">
         <v>61</v>
@@ -57182,7 +57207,7 @@
         <v>61</v>
       </c>
       <c r="M315" t="s" s="1">
-        <v>3542</v>
+        <v>526</v>
       </c>
       <c r="N315" t="s" s="2">
         <v>61</v>
@@ -57194,7 +57219,7 @@
         <v>61</v>
       </c>
       <c r="Q315" t="s" s="1">
-        <v>3543</v>
+        <v>3516</v>
       </c>
       <c r="R315" t="s" s="2">
         <v>61</v>
@@ -57241,34 +57266,34 @@
     </row>
     <row r="316">
       <c r="A316" t="s" s="1">
-        <v>3544</v>
+        <v>3517</v>
       </c>
       <c r="B316" t="s" s="1">
         <v>32</v>
       </c>
       <c r="C316" t="s" s="1">
-        <v>3545</v>
+        <v>3518</v>
       </c>
       <c r="D316" t="s" s="2">
         <v>61</v>
       </c>
       <c r="E316" t="s" s="1">
-        <v>3546</v>
+        <v>3519</v>
       </c>
       <c r="F316" t="s" s="2">
         <v>61</v>
       </c>
       <c r="G316" t="s" s="1">
-        <v>3547</v>
+        <v>3520</v>
       </c>
       <c r="H316" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="I316" t="s" s="2">
-        <v>61</v>
+      <c r="I316" t="s" s="1">
+        <v>3521</v>
       </c>
       <c r="J316" t="s" s="1">
-        <v>3548</v>
+        <v>3522</v>
       </c>
       <c r="K316" t="s" s="2">
         <v>61</v>
@@ -57276,8 +57301,8 @@
       <c r="L316" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="M316" t="s" s="2">
-        <v>61</v>
+      <c r="M316" t="s" s="1">
+        <v>3523</v>
       </c>
       <c r="N316" t="s" s="2">
         <v>61</v>
@@ -57285,17 +57310,17 @@
       <c r="O316" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="P316" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="Q316" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="R316" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="S316" t="s" s="2">
-        <v>61</v>
+      <c r="P316" t="s" s="1">
+        <v>3524</v>
+      </c>
+      <c r="Q316" t="s" s="1">
+        <v>3525</v>
+      </c>
+      <c r="R316" t="s" s="1">
+        <v>3526</v>
+      </c>
+      <c r="S316" t="s" s="1">
+        <v>3527</v>
       </c>
       <c r="T316" t="s" s="2">
         <v>61</v>
@@ -57312,8 +57337,8 @@
       <c r="X316" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="Y316" t="s" s="2">
-        <v>61</v>
+      <c r="Y316" t="s" s="1">
+        <v>3528</v>
       </c>
       <c r="Z316" t="s" s="2">
         <v>61</v>
@@ -57327,8 +57352,8 @@
       <c r="AC316" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="AD316" t="s" s="2">
-        <v>61</v>
+      <c r="AD316" t="s" s="1">
+        <v>3529</v>
       </c>
       <c r="AE316" t="s" s="2">
         <v>61</v>
@@ -57336,120 +57361,120 @@
     </row>
     <row r="317">
       <c r="A317" t="s" s="1">
-        <v>3549</v>
+        <v>3530</v>
       </c>
       <c r="B317" t="s" s="1">
         <v>32</v>
       </c>
       <c r="C317" t="s" s="1">
-        <v>3550</v>
-      </c>
-      <c r="D317" t="s" s="1">
-        <v>3551</v>
+        <v>3531</v>
+      </c>
+      <c r="D317" t="s" s="2">
+        <v>61</v>
       </c>
       <c r="E317" t="s" s="1">
-        <v>3552</v>
-      </c>
-      <c r="F317" t="s" s="1">
-        <v>3553</v>
+        <v>3532</v>
+      </c>
+      <c r="F317" t="s" s="2">
+        <v>61</v>
       </c>
       <c r="G317" t="s" s="1">
-        <v>3554</v>
-      </c>
-      <c r="H317" t="s" s="1">
-        <v>3555</v>
+        <v>3533</v>
+      </c>
+      <c r="H317" t="s" s="2">
+        <v>61</v>
       </c>
       <c r="I317" t="s" s="1">
-        <v>3556</v>
+        <v>3534</v>
       </c>
       <c r="J317" t="s" s="1">
-        <v>3557</v>
-      </c>
-      <c r="K317" t="s" s="1">
-        <v>3558</v>
-      </c>
-      <c r="L317" t="s" s="1">
-        <v>3559</v>
+        <v>3535</v>
+      </c>
+      <c r="K317" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L317" t="s" s="2">
+        <v>61</v>
       </c>
       <c r="M317" t="s" s="1">
-        <v>3560</v>
-      </c>
-      <c r="N317" t="s" s="1">
-        <v>3561</v>
-      </c>
-      <c r="O317" t="s" s="1">
-        <v>3562</v>
+        <v>3536</v>
+      </c>
+      <c r="N317" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O317" t="s" s="2">
+        <v>61</v>
       </c>
       <c r="P317" t="s" s="1">
-        <v>3563</v>
+        <v>3537</v>
       </c>
       <c r="Q317" t="s" s="1">
-        <v>3564</v>
+        <v>3538</v>
       </c>
       <c r="R317" t="s" s="1">
-        <v>3565</v>
+        <v>3539</v>
       </c>
       <c r="S317" t="s" s="1">
-        <v>3566</v>
-      </c>
-      <c r="T317" t="s" s="1">
-        <v>3567</v>
-      </c>
-      <c r="U317" t="s" s="1">
-        <v>3567</v>
-      </c>
-      <c r="V317" t="s" s="1">
-        <v>3568</v>
-      </c>
-      <c r="W317" t="s" s="1">
-        <v>3569</v>
-      </c>
-      <c r="X317" t="s" s="1">
-        <v>3570</v>
+        <v>3540</v>
+      </c>
+      <c r="T317" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U317" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V317" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W317" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X317" t="s" s="2">
+        <v>61</v>
       </c>
       <c r="Y317" t="s" s="1">
-        <v>3571</v>
-      </c>
-      <c r="Z317" t="s" s="1">
-        <v>3572</v>
-      </c>
-      <c r="AA317" t="s" s="1">
-        <v>3573</v>
-      </c>
-      <c r="AB317" t="s" s="1">
-        <v>3574</v>
-      </c>
-      <c r="AC317" t="s" s="1">
-        <v>3575</v>
+        <v>3541</v>
+      </c>
+      <c r="Z317" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA317" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB317" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC317" t="s" s="2">
+        <v>61</v>
       </c>
       <c r="AD317" t="s" s="1">
-        <v>3576</v>
-      </c>
-      <c r="AE317" t="s" s="1">
-        <v>3577</v>
+        <v>3542</v>
+      </c>
+      <c r="AE317" t="s" s="2">
+        <v>61</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s" s="1">
-        <v>3578</v>
+        <v>3543</v>
       </c>
       <c r="B318" t="s" s="1">
         <v>32</v>
       </c>
       <c r="C318" t="s" s="1">
-        <v>3579</v>
+        <v>3544</v>
       </c>
       <c r="D318" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="E318" t="s" s="1">
-        <v>3580</v>
+      <c r="E318" t="s" s="2">
+        <v>61</v>
       </c>
       <c r="F318" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="G318" t="s" s="1">
-        <v>3581</v>
+      <c r="G318" t="s" s="2">
+        <v>61</v>
       </c>
       <c r="H318" t="s" s="2">
         <v>61</v>
@@ -57457,8 +57482,8 @@
       <c r="I318" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="J318" t="s" s="1">
-        <v>3582</v>
+      <c r="J318" t="s" s="2">
+        <v>61</v>
       </c>
       <c r="K318" t="s" s="2">
         <v>61</v>
@@ -57526,34 +57551,34 @@
     </row>
     <row r="319">
       <c r="A319" t="s" s="1">
-        <v>3583</v>
+        <v>3545</v>
       </c>
       <c r="B319" t="s" s="1">
         <v>32</v>
       </c>
       <c r="C319" t="s" s="1">
-        <v>3584</v>
+        <v>3546</v>
       </c>
       <c r="D319" t="s" s="2">
         <v>61</v>
       </c>
       <c r="E319" t="s" s="1">
-        <v>1454</v>
+        <v>3547</v>
       </c>
       <c r="F319" t="s" s="2">
         <v>61</v>
       </c>
       <c r="G319" t="s" s="1">
-        <v>3585</v>
+        <v>3548</v>
       </c>
       <c r="H319" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="I319" t="s" s="1">
-        <v>3586</v>
+      <c r="I319" t="s" s="2">
+        <v>61</v>
       </c>
       <c r="J319" t="s" s="1">
-        <v>3587</v>
+        <v>3549</v>
       </c>
       <c r="K319" t="s" s="2">
         <v>61</v>
@@ -57562,7 +57587,7 @@
         <v>61</v>
       </c>
       <c r="M319" t="s" s="1">
-        <v>3588</v>
+        <v>3550</v>
       </c>
       <c r="N319" t="s" s="2">
         <v>61</v>
@@ -57574,7 +57599,7 @@
         <v>61</v>
       </c>
       <c r="Q319" t="s" s="1">
-        <v>3589</v>
+        <v>3551</v>
       </c>
       <c r="R319" t="s" s="2">
         <v>61</v>
@@ -57621,319 +57646,319 @@
     </row>
     <row r="320">
       <c r="A320" t="s" s="1">
-        <v>3590</v>
+        <v>3552</v>
       </c>
       <c r="B320" t="s" s="1">
         <v>32</v>
       </c>
       <c r="C320" t="s" s="1">
-        <v>3591</v>
-      </c>
-      <c r="D320" t="s" s="1">
-        <v>3592</v>
+        <v>3553</v>
+      </c>
+      <c r="D320" t="s" s="2">
+        <v>61</v>
       </c>
       <c r="E320" t="s" s="1">
-        <v>3593</v>
-      </c>
-      <c r="F320" t="s" s="1">
-        <v>3594</v>
+        <v>3554</v>
+      </c>
+      <c r="F320" t="s" s="2">
+        <v>61</v>
       </c>
       <c r="G320" t="s" s="1">
-        <v>3595</v>
-      </c>
-      <c r="H320" t="s" s="1">
-        <v>3596</v>
-      </c>
-      <c r="I320" t="s" s="1">
-        <v>3597</v>
+        <v>3555</v>
+      </c>
+      <c r="H320" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I320" t="s" s="2">
+        <v>61</v>
       </c>
       <c r="J320" t="s" s="1">
-        <v>3598</v>
-      </c>
-      <c r="K320" t="s" s="1">
-        <v>3599</v>
-      </c>
-      <c r="L320" t="s" s="1">
-        <v>3600</v>
-      </c>
-      <c r="M320" t="s" s="1">
-        <v>3597</v>
-      </c>
-      <c r="N320" t="s" s="1">
-        <v>3601</v>
-      </c>
-      <c r="O320" t="s" s="1">
-        <v>3602</v>
-      </c>
-      <c r="P320" t="s" s="1">
-        <v>3594</v>
-      </c>
-      <c r="Q320" t="s" s="1">
-        <v>3603</v>
-      </c>
-      <c r="R320" t="s" s="1">
-        <v>3594</v>
-      </c>
-      <c r="S320" t="s" s="1">
-        <v>3604</v>
-      </c>
-      <c r="T320" t="s" s="1">
-        <v>3605</v>
-      </c>
-      <c r="U320" t="s" s="1">
-        <v>3605</v>
-      </c>
-      <c r="V320" t="s" s="1">
-        <v>3606</v>
-      </c>
-      <c r="W320" t="s" s="1">
-        <v>3607</v>
-      </c>
-      <c r="X320" t="s" s="1">
-        <v>3608</v>
-      </c>
-      <c r="Y320" t="s" s="1">
-        <v>3609</v>
-      </c>
-      <c r="Z320" t="s" s="1">
-        <v>3610</v>
-      </c>
-      <c r="AA320" t="s" s="1">
-        <v>3611</v>
-      </c>
-      <c r="AB320" t="s" s="1">
-        <v>3612</v>
-      </c>
-      <c r="AC320" t="s" s="1">
-        <v>3613</v>
-      </c>
-      <c r="AD320" t="s" s="1">
-        <v>3614</v>
-      </c>
-      <c r="AE320" t="s" s="1">
-        <v>3615</v>
+        <v>3556</v>
+      </c>
+      <c r="K320" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L320" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M320" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N320" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O320" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P320" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q320" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R320" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S320" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T320" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U320" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V320" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W320" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X320" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y320" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z320" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA320" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB320" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC320" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD320" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE320" t="s" s="2">
+        <v>61</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s" s="1">
-        <v>3616</v>
+        <v>3557</v>
       </c>
       <c r="B321" t="s" s="1">
         <v>32</v>
       </c>
       <c r="C321" t="s" s="1">
-        <v>3617</v>
-      </c>
-      <c r="D321" t="s" s="2">
-        <v>61</v>
+        <v>3558</v>
+      </c>
+      <c r="D321" t="s" s="1">
+        <v>3559</v>
       </c>
       <c r="E321" t="s" s="1">
-        <v>3618</v>
+        <v>3560</v>
       </c>
       <c r="F321" t="s" s="1">
-        <v>3619</v>
+        <v>3561</v>
       </c>
       <c r="G321" t="s" s="1">
-        <v>3620</v>
+        <v>3562</v>
       </c>
       <c r="H321" t="s" s="1">
-        <v>3621</v>
+        <v>3563</v>
       </c>
       <c r="I321" t="s" s="1">
-        <v>3622</v>
+        <v>3564</v>
       </c>
       <c r="J321" t="s" s="1">
-        <v>3623</v>
-      </c>
-      <c r="K321" t="s" s="2">
-        <v>61</v>
+        <v>3565</v>
+      </c>
+      <c r="K321" t="s" s="1">
+        <v>3566</v>
       </c>
       <c r="L321" t="s" s="1">
-        <v>3624</v>
+        <v>3567</v>
       </c>
       <c r="M321" t="s" s="1">
-        <v>3625</v>
+        <v>3568</v>
       </c>
       <c r="N321" t="s" s="1">
-        <v>3626</v>
+        <v>3569</v>
       </c>
       <c r="O321" t="s" s="1">
-        <v>3627</v>
+        <v>3570</v>
       </c>
       <c r="P321" t="s" s="1">
-        <v>3619</v>
+        <v>3571</v>
       </c>
       <c r="Q321" t="s" s="1">
-        <v>3628</v>
+        <v>3572</v>
       </c>
       <c r="R321" t="s" s="1">
-        <v>3629</v>
+        <v>3573</v>
       </c>
       <c r="S321" t="s" s="1">
-        <v>3630</v>
-      </c>
-      <c r="T321" t="s" s="2">
-        <v>61</v>
+        <v>3574</v>
+      </c>
+      <c r="T321" t="s" s="1">
+        <v>3575</v>
       </c>
       <c r="U321" t="s" s="1">
-        <v>3631</v>
+        <v>3575</v>
       </c>
       <c r="V321" t="s" s="1">
-        <v>3632</v>
+        <v>3576</v>
       </c>
       <c r="W321" t="s" s="1">
-        <v>3633</v>
-      </c>
-      <c r="X321" t="s" s="2">
-        <v>61</v>
+        <v>3577</v>
+      </c>
+      <c r="X321" t="s" s="1">
+        <v>3578</v>
       </c>
       <c r="Y321" t="s" s="1">
-        <v>3634</v>
-      </c>
-      <c r="Z321" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AA321" t="s" s="2">
-        <v>61</v>
+        <v>3579</v>
+      </c>
+      <c r="Z321" t="s" s="1">
+        <v>3580</v>
+      </c>
+      <c r="AA321" t="s" s="1">
+        <v>3581</v>
       </c>
       <c r="AB321" t="s" s="1">
-        <v>3635</v>
-      </c>
-      <c r="AC321" t="s" s="2">
-        <v>61</v>
+        <v>3582</v>
+      </c>
+      <c r="AC321" t="s" s="1">
+        <v>3583</v>
       </c>
       <c r="AD321" t="s" s="1">
-        <v>3636</v>
+        <v>3584</v>
       </c>
       <c r="AE321" t="s" s="1">
-        <v>3637</v>
+        <v>3585</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s" s="1">
-        <v>3638</v>
+        <v>3586</v>
       </c>
       <c r="B322" t="s" s="1">
         <v>32</v>
       </c>
       <c r="C322" t="s" s="1">
-        <v>3639</v>
-      </c>
-      <c r="D322" t="s" s="1">
-        <v>3640</v>
+        <v>3587</v>
+      </c>
+      <c r="D322" t="s" s="2">
+        <v>61</v>
       </c>
       <c r="E322" t="s" s="1">
-        <v>3641</v>
-      </c>
-      <c r="F322" t="s" s="1">
-        <v>3642</v>
+        <v>3588</v>
+      </c>
+      <c r="F322" t="s" s="2">
+        <v>61</v>
       </c>
       <c r="G322" t="s" s="1">
-        <v>3643</v>
-      </c>
-      <c r="H322" t="s" s="1">
-        <v>3644</v>
-      </c>
-      <c r="I322" t="s" s="1">
-        <v>3645</v>
+        <v>3589</v>
+      </c>
+      <c r="H322" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I322" t="s" s="2">
+        <v>61</v>
       </c>
       <c r="J322" t="s" s="1">
-        <v>3646</v>
-      </c>
-      <c r="K322" t="s" s="1">
-        <v>3647</v>
-      </c>
-      <c r="L322" t="s" s="1">
-        <v>3648</v>
-      </c>
-      <c r="M322" t="s" s="1">
-        <v>3649</v>
-      </c>
-      <c r="N322" t="s" s="1">
-        <v>3650</v>
-      </c>
-      <c r="O322" t="s" s="1">
-        <v>3651</v>
-      </c>
-      <c r="P322" t="s" s="1">
-        <v>3652</v>
-      </c>
-      <c r="Q322" t="s" s="1">
-        <v>3653</v>
-      </c>
-      <c r="R322" t="s" s="1">
-        <v>3654</v>
-      </c>
-      <c r="S322" t="s" s="1">
-        <v>3655</v>
-      </c>
-      <c r="T322" t="s" s="1">
-        <v>3656</v>
-      </c>
-      <c r="U322" t="s" s="1">
-        <v>3656</v>
-      </c>
-      <c r="V322" t="s" s="1">
-        <v>3657</v>
-      </c>
-      <c r="W322" t="s" s="1">
-        <v>3658</v>
-      </c>
-      <c r="X322" t="s" s="1">
-        <v>3659</v>
-      </c>
-      <c r="Y322" t="s" s="1">
-        <v>3660</v>
-      </c>
-      <c r="Z322" t="s" s="1">
-        <v>3661</v>
-      </c>
-      <c r="AA322" t="s" s="1">
-        <v>3662</v>
-      </c>
-      <c r="AB322" t="s" s="1">
-        <v>3663</v>
-      </c>
-      <c r="AC322" t="s" s="1">
-        <v>3664</v>
-      </c>
-      <c r="AD322" t="s" s="1">
-        <v>3665</v>
-      </c>
-      <c r="AE322" t="s" s="1">
-        <v>3666</v>
+        <v>3590</v>
+      </c>
+      <c r="K322" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L322" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M322" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N322" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O322" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P322" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q322" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R322" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S322" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T322" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U322" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V322" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W322" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X322" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y322" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z322" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA322" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB322" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC322" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD322" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE322" t="s" s="2">
+        <v>61</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s" s="1">
-        <v>3667</v>
+        <v>3591</v>
       </c>
       <c r="B323" t="s" s="1">
         <v>32</v>
       </c>
       <c r="C323" t="s" s="1">
-        <v>3668</v>
+        <v>3592</v>
       </c>
       <c r="D323" t="s" s="2">
         <v>61</v>
       </c>
       <c r="E323" t="s" s="1">
-        <v>3669</v>
+        <v>1454</v>
       </c>
       <c r="F323" t="s" s="2">
         <v>61</v>
       </c>
       <c r="G323" t="s" s="1">
-        <v>3670</v>
+        <v>3593</v>
       </c>
       <c r="H323" t="s" s="2">
         <v>61</v>
       </c>
       <c r="I323" t="s" s="1">
-        <v>3671</v>
+        <v>3594</v>
       </c>
       <c r="J323" t="s" s="1">
-        <v>3672</v>
+        <v>3595</v>
       </c>
       <c r="K323" t="s" s="2">
         <v>61</v>
@@ -57942,7 +57967,7 @@
         <v>61</v>
       </c>
       <c r="M323" t="s" s="1">
-        <v>3673</v>
+        <v>3596</v>
       </c>
       <c r="N323" t="s" s="2">
         <v>61</v>
@@ -57954,7 +57979,7 @@
         <v>61</v>
       </c>
       <c r="Q323" t="s" s="1">
-        <v>3674</v>
+        <v>3597</v>
       </c>
       <c r="R323" t="s" s="2">
         <v>61</v>
@@ -58001,174 +58026,174 @@
     </row>
     <row r="324">
       <c r="A324" t="s" s="1">
-        <v>3675</v>
+        <v>3598</v>
       </c>
       <c r="B324" t="s" s="1">
         <v>32</v>
       </c>
       <c r="C324" t="s" s="1">
-        <v>3676</v>
-      </c>
-      <c r="D324" t="s" s="2">
-        <v>61</v>
+        <v>3599</v>
+      </c>
+      <c r="D324" t="s" s="1">
+        <v>3600</v>
       </c>
       <c r="E324" t="s" s="1">
-        <v>3677</v>
-      </c>
-      <c r="F324" t="s" s="2">
-        <v>61</v>
+        <v>3601</v>
+      </c>
+      <c r="F324" t="s" s="1">
+        <v>3602</v>
       </c>
       <c r="G324" t="s" s="1">
-        <v>3678</v>
-      </c>
-      <c r="H324" t="s" s="2">
-        <v>61</v>
+        <v>3603</v>
+      </c>
+      <c r="H324" t="s" s="1">
+        <v>3604</v>
       </c>
       <c r="I324" t="s" s="1">
-        <v>3679</v>
+        <v>3605</v>
       </c>
       <c r="J324" t="s" s="1">
-        <v>3680</v>
-      </c>
-      <c r="K324" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="L324" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="M324" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="N324" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="O324" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="P324" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="Q324" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="R324" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="S324" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="T324" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="U324" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="V324" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="W324" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="X324" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="Y324" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="Z324" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AA324" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AB324" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AC324" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AD324" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AE324" t="s" s="2">
-        <v>61</v>
+        <v>3606</v>
+      </c>
+      <c r="K324" t="s" s="1">
+        <v>3607</v>
+      </c>
+      <c r="L324" t="s" s="1">
+        <v>3608</v>
+      </c>
+      <c r="M324" t="s" s="1">
+        <v>3605</v>
+      </c>
+      <c r="N324" t="s" s="1">
+        <v>3609</v>
+      </c>
+      <c r="O324" t="s" s="1">
+        <v>3610</v>
+      </c>
+      <c r="P324" t="s" s="1">
+        <v>3602</v>
+      </c>
+      <c r="Q324" t="s" s="1">
+        <v>3611</v>
+      </c>
+      <c r="R324" t="s" s="1">
+        <v>3602</v>
+      </c>
+      <c r="S324" t="s" s="1">
+        <v>3612</v>
+      </c>
+      <c r="T324" t="s" s="1">
+        <v>3613</v>
+      </c>
+      <c r="U324" t="s" s="1">
+        <v>3613</v>
+      </c>
+      <c r="V324" t="s" s="1">
+        <v>3614</v>
+      </c>
+      <c r="W324" t="s" s="1">
+        <v>3615</v>
+      </c>
+      <c r="X324" t="s" s="1">
+        <v>3616</v>
+      </c>
+      <c r="Y324" t="s" s="1">
+        <v>3617</v>
+      </c>
+      <c r="Z324" t="s" s="1">
+        <v>3618</v>
+      </c>
+      <c r="AA324" t="s" s="1">
+        <v>3619</v>
+      </c>
+      <c r="AB324" t="s" s="1">
+        <v>3620</v>
+      </c>
+      <c r="AC324" t="s" s="1">
+        <v>3621</v>
+      </c>
+      <c r="AD324" t="s" s="1">
+        <v>3622</v>
+      </c>
+      <c r="AE324" t="s" s="1">
+        <v>3623</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s" s="1">
-        <v>3681</v>
+        <v>3624</v>
       </c>
       <c r="B325" t="s" s="1">
         <v>32</v>
       </c>
       <c r="C325" t="s" s="1">
-        <v>3682</v>
+        <v>3625</v>
       </c>
       <c r="D325" t="s" s="2">
         <v>61</v>
       </c>
       <c r="E325" t="s" s="1">
-        <v>3683</v>
-      </c>
-      <c r="F325" t="s" s="2">
-        <v>61</v>
+        <v>3626</v>
+      </c>
+      <c r="F325" t="s" s="1">
+        <v>3627</v>
       </c>
       <c r="G325" t="s" s="1">
-        <v>3684</v>
-      </c>
-      <c r="H325" t="s" s="2">
-        <v>61</v>
+        <v>3628</v>
+      </c>
+      <c r="H325" t="s" s="1">
+        <v>3629</v>
       </c>
       <c r="I325" t="s" s="1">
-        <v>3685</v>
+        <v>3630</v>
       </c>
       <c r="J325" t="s" s="1">
-        <v>3686</v>
+        <v>3631</v>
       </c>
       <c r="K325" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="L325" t="s" s="2">
-        <v>61</v>
+      <c r="L325" t="s" s="1">
+        <v>3632</v>
       </c>
       <c r="M325" t="s" s="1">
-        <v>3687</v>
-      </c>
-      <c r="N325" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="O325" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="P325" t="s" s="2">
-        <v>61</v>
+        <v>3633</v>
+      </c>
+      <c r="N325" t="s" s="1">
+        <v>3634</v>
+      </c>
+      <c r="O325" t="s" s="1">
+        <v>3635</v>
+      </c>
+      <c r="P325" t="s" s="1">
+        <v>3627</v>
       </c>
       <c r="Q325" t="s" s="1">
-        <v>3688</v>
-      </c>
-      <c r="R325" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="S325" t="s" s="2">
-        <v>61</v>
+        <v>3636</v>
+      </c>
+      <c r="R325" t="s" s="1">
+        <v>3637</v>
+      </c>
+      <c r="S325" t="s" s="1">
+        <v>3638</v>
       </c>
       <c r="T325" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="U325" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="V325" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="W325" t="s" s="2">
-        <v>61</v>
+      <c r="U325" t="s" s="1">
+        <v>3639</v>
+      </c>
+      <c r="V325" t="s" s="1">
+        <v>3640</v>
+      </c>
+      <c r="W325" t="s" s="1">
+        <v>3641</v>
       </c>
       <c r="X325" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="Y325" t="s" s="2">
-        <v>61</v>
+      <c r="Y325" t="s" s="1">
+        <v>3642</v>
       </c>
       <c r="Z325" t="s" s="2">
         <v>61</v>
@@ -58176,144 +58201,144 @@
       <c r="AA325" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="AB325" t="s" s="2">
-        <v>61</v>
+      <c r="AB325" t="s" s="1">
+        <v>3643</v>
       </c>
       <c r="AC325" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="AD325" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AE325" t="s" s="2">
-        <v>61</v>
+      <c r="AD325" t="s" s="1">
+        <v>3644</v>
+      </c>
+      <c r="AE325" t="s" s="1">
+        <v>3645</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s" s="1">
-        <v>3689</v>
+        <v>3646</v>
       </c>
       <c r="B326" t="s" s="1">
         <v>32</v>
       </c>
       <c r="C326" t="s" s="1">
-        <v>3690</v>
-      </c>
-      <c r="D326" t="s" s="2">
-        <v>61</v>
+        <v>3647</v>
+      </c>
+      <c r="D326" t="s" s="1">
+        <v>3648</v>
       </c>
       <c r="E326" t="s" s="1">
-        <v>3691</v>
-      </c>
-      <c r="F326" t="s" s="2">
-        <v>61</v>
+        <v>3649</v>
+      </c>
+      <c r="F326" t="s" s="1">
+        <v>3650</v>
       </c>
       <c r="G326" t="s" s="1">
-        <v>3692</v>
-      </c>
-      <c r="H326" t="s" s="2">
-        <v>61</v>
+        <v>3651</v>
+      </c>
+      <c r="H326" t="s" s="1">
+        <v>3652</v>
       </c>
       <c r="I326" t="s" s="1">
-        <v>3693</v>
+        <v>3653</v>
       </c>
       <c r="J326" t="s" s="1">
-        <v>3694</v>
-      </c>
-      <c r="K326" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="L326" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="M326" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="N326" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="O326" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="P326" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="Q326" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="R326" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="S326" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="T326" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="U326" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="V326" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="W326" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="X326" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="Y326" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="Z326" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AA326" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AB326" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AC326" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AD326" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="AE326" t="s" s="2">
-        <v>61</v>
+        <v>3654</v>
+      </c>
+      <c r="K326" t="s" s="1">
+        <v>3655</v>
+      </c>
+      <c r="L326" t="s" s="1">
+        <v>3656</v>
+      </c>
+      <c r="M326" t="s" s="1">
+        <v>3657</v>
+      </c>
+      <c r="N326" t="s" s="1">
+        <v>3658</v>
+      </c>
+      <c r="O326" t="s" s="1">
+        <v>3659</v>
+      </c>
+      <c r="P326" t="s" s="1">
+        <v>3660</v>
+      </c>
+      <c r="Q326" t="s" s="1">
+        <v>3661</v>
+      </c>
+      <c r="R326" t="s" s="1">
+        <v>3662</v>
+      </c>
+      <c r="S326" t="s" s="1">
+        <v>3663</v>
+      </c>
+      <c r="T326" t="s" s="1">
+        <v>3664</v>
+      </c>
+      <c r="U326" t="s" s="1">
+        <v>3664</v>
+      </c>
+      <c r="V326" t="s" s="1">
+        <v>3665</v>
+      </c>
+      <c r="W326" t="s" s="1">
+        <v>3666</v>
+      </c>
+      <c r="X326" t="s" s="1">
+        <v>3667</v>
+      </c>
+      <c r="Y326" t="s" s="1">
+        <v>3668</v>
+      </c>
+      <c r="Z326" t="s" s="1">
+        <v>3669</v>
+      </c>
+      <c r="AA326" t="s" s="1">
+        <v>3670</v>
+      </c>
+      <c r="AB326" t="s" s="1">
+        <v>3671</v>
+      </c>
+      <c r="AC326" t="s" s="1">
+        <v>3672</v>
+      </c>
+      <c r="AD326" t="s" s="1">
+        <v>3673</v>
+      </c>
+      <c r="AE326" t="s" s="1">
+        <v>3674</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s" s="1">
-        <v>3695</v>
+        <v>3675</v>
       </c>
       <c r="B327" t="s" s="1">
         <v>32</v>
       </c>
       <c r="C327" t="s" s="1">
-        <v>3696</v>
+        <v>3676</v>
       </c>
       <c r="D327" t="s" s="2">
         <v>61</v>
       </c>
       <c r="E327" t="s" s="1">
-        <v>3697</v>
+        <v>3677</v>
       </c>
       <c r="F327" t="s" s="2">
         <v>61</v>
       </c>
       <c r="G327" t="s" s="1">
-        <v>3698</v>
+        <v>3678</v>
       </c>
       <c r="H327" t="s" s="2">
         <v>61</v>
       </c>
       <c r="I327" t="s" s="1">
-        <v>3699</v>
+        <v>3679</v>
       </c>
       <c r="J327" t="s" s="1">
-        <v>3700</v>
+        <v>3680</v>
       </c>
       <c r="K327" t="s" s="2">
         <v>61</v>
@@ -58321,8 +58346,8 @@
       <c r="L327" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="M327" t="s" s="2">
-        <v>61</v>
+      <c r="M327" t="s" s="1">
+        <v>3681</v>
       </c>
       <c r="N327" t="s" s="2">
         <v>61</v>
@@ -58333,8 +58358,8 @@
       <c r="P327" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="Q327" t="s" s="2">
-        <v>61</v>
+      <c r="Q327" t="s" s="1">
+        <v>3682</v>
       </c>
       <c r="R327" t="s" s="2">
         <v>61</v>
@@ -58381,101 +58406,481 @@
     </row>
     <row r="328">
       <c r="A328" t="s" s="1">
-        <v>3701</v>
+        <v>3683</v>
       </c>
       <c r="B328" t="s" s="1">
         <v>32</v>
       </c>
       <c r="C328" t="s" s="1">
+        <v>3684</v>
+      </c>
+      <c r="D328" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E328" t="s" s="1">
+        <v>3685</v>
+      </c>
+      <c r="F328" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G328" t="s" s="1">
+        <v>3686</v>
+      </c>
+      <c r="H328" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I328" t="s" s="1">
+        <v>3687</v>
+      </c>
+      <c r="J328" t="s" s="1">
+        <v>3688</v>
+      </c>
+      <c r="K328" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L328" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M328" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N328" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O328" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P328" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q328" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R328" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S328" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T328" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U328" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V328" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W328" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X328" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y328" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z328" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA328" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB328" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC328" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD328" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE328" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s" s="1">
+        <v>3689</v>
+      </c>
+      <c r="B329" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C329" t="s" s="1">
+        <v>3690</v>
+      </c>
+      <c r="D329" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E329" t="s" s="1">
+        <v>3691</v>
+      </c>
+      <c r="F329" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G329" t="s" s="1">
+        <v>3692</v>
+      </c>
+      <c r="H329" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I329" t="s" s="1">
+        <v>3693</v>
+      </c>
+      <c r="J329" t="s" s="1">
+        <v>3694</v>
+      </c>
+      <c r="K329" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L329" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M329" t="s" s="1">
+        <v>3695</v>
+      </c>
+      <c r="N329" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O329" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P329" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q329" t="s" s="1">
+        <v>3696</v>
+      </c>
+      <c r="R329" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S329" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T329" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U329" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V329" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W329" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X329" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y329" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z329" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA329" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB329" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC329" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD329" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE329" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s" s="1">
+        <v>3697</v>
+      </c>
+      <c r="B330" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C330" t="s" s="1">
+        <v>3698</v>
+      </c>
+      <c r="D330" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E330" t="s" s="1">
+        <v>3699</v>
+      </c>
+      <c r="F330" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G330" t="s" s="1">
+        <v>3700</v>
+      </c>
+      <c r="H330" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I330" t="s" s="1">
+        <v>3701</v>
+      </c>
+      <c r="J330" t="s" s="1">
         <v>3702</v>
       </c>
-      <c r="D328" t="s" s="1">
+      <c r="K330" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L330" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M330" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N330" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O330" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P330" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q330" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R330" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S330" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T330" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U330" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V330" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W330" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X330" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y330" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z330" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA330" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB330" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC330" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD330" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE330" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s" s="1">
         <v>3703</v>
       </c>
-      <c r="E328" t="s" s="1">
+      <c r="B331" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C331" t="s" s="1">
         <v>3704</v>
       </c>
-      <c r="F328" t="s" s="1">
+      <c r="D331" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="E331" t="s" s="1">
         <v>3705</v>
       </c>
-      <c r="G328" t="s" s="1">
+      <c r="F331" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="G331" t="s" s="1">
         <v>3706</v>
       </c>
-      <c r="H328" t="s" s="1">
+      <c r="H331" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="I331" t="s" s="1">
         <v>3707</v>
       </c>
-      <c r="I328" t="s" s="1">
+      <c r="J331" t="s" s="1">
         <v>3708</v>
       </c>
-      <c r="J328" t="s" s="1">
+      <c r="K331" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L331" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M331" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="N331" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="O331" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="P331" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Q331" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="R331" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="S331" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="T331" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="U331" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="V331" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="W331" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="X331" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Y331" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="Z331" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AA331" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AB331" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AC331" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AD331" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AE331" t="s" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s" s="1">
         <v>3709</v>
       </c>
-      <c r="K328" t="s" s="1">
+      <c r="B332" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C332" t="s" s="1">
         <v>3710</v>
       </c>
-      <c r="L328" t="s" s="1">
+      <c r="D332" t="s" s="1">
         <v>3711</v>
       </c>
-      <c r="M328" t="s" s="1">
+      <c r="E332" t="s" s="1">
         <v>3712</v>
       </c>
-      <c r="N328" t="s" s="1">
+      <c r="F332" t="s" s="1">
         <v>3713</v>
       </c>
-      <c r="O328" t="s" s="1">
+      <c r="G332" t="s" s="1">
         <v>3714</v>
       </c>
-      <c r="P328" t="s" s="1">
+      <c r="H332" t="s" s="1">
         <v>3715</v>
       </c>
-      <c r="Q328" t="s" s="1">
+      <c r="I332" t="s" s="1">
         <v>3716</v>
       </c>
-      <c r="R328" t="s" s="1">
+      <c r="J332" t="s" s="1">
         <v>3717</v>
       </c>
-      <c r="S328" t="s" s="1">
+      <c r="K332" t="s" s="1">
         <v>3718</v>
       </c>
-      <c r="T328" t="s" s="1">
+      <c r="L332" t="s" s="1">
         <v>3719</v>
       </c>
-      <c r="U328" t="s" s="1">
+      <c r="M332" t="s" s="1">
         <v>3720</v>
       </c>
-      <c r="V328" t="s" s="1">
+      <c r="N332" t="s" s="1">
         <v>3721</v>
       </c>
-      <c r="W328" t="s" s="1">
+      <c r="O332" t="s" s="1">
         <v>3722</v>
       </c>
-      <c r="X328" t="s" s="1">
+      <c r="P332" t="s" s="1">
         <v>3723</v>
       </c>
-      <c r="Y328" t="s" s="1">
+      <c r="Q332" t="s" s="1">
         <v>3724</v>
       </c>
-      <c r="Z328" t="s" s="1">
+      <c r="R332" t="s" s="1">
         <v>3725</v>
       </c>
-      <c r="AA328" t="s" s="1">
+      <c r="S332" t="s" s="1">
         <v>3726</v>
       </c>
-      <c r="AB328" t="s" s="1">
+      <c r="T332" t="s" s="1">
         <v>3727</v>
       </c>
-      <c r="AC328" t="s" s="1">
+      <c r="U332" t="s" s="1">
         <v>3728</v>
       </c>
-      <c r="AD328" t="s" s="1">
+      <c r="V332" t="s" s="1">
         <v>3729</v>
       </c>
-      <c r="AE328" t="s" s="1">
+      <c r="W332" t="s" s="1">
         <v>3730</v>
+      </c>
+      <c r="X332" t="s" s="1">
+        <v>3731</v>
+      </c>
+      <c r="Y332" t="s" s="1">
+        <v>3732</v>
+      </c>
+      <c r="Z332" t="s" s="1">
+        <v>3733</v>
+      </c>
+      <c r="AA332" t="s" s="1">
+        <v>3734</v>
+      </c>
+      <c r="AB332" t="s" s="1">
+        <v>3735</v>
+      </c>
+      <c r="AC332" t="s" s="1">
+        <v>3736</v>
+      </c>
+      <c r="AD332" t="s" s="1">
+        <v>3737</v>
+      </c>
+      <c r="AE332" t="s" s="1">
+        <v>3738</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AF328"/>
+  <autoFilter ref="A1:AF332"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId3"/>

--- a/app/translations.xlsx
+++ b/app/translations.xlsx
@@ -12893,7 +12893,9 @@
 Prosím, zkontrolujte nastavení nebo nahlaste chybu</t>
   </si>
   <si>
-    <t>Überprüfe deine Einstellungen oder melde einen Bug</t>
+    <t>Beim autom. Backup ist ein Fehler aufgetreten:
+'%1$s'
+Überprüfe deine Einstellungen oder melde einen Bug</t>
   </si>
   <si>
     <t>Ha ocurrido un error durante una copia automática:

--- a/app/translations.xlsx
+++ b/app/translations.xlsx
@@ -13680,7 +13680,7 @@
     <t>首先設定上面的備份資料夾</t>
   </si>
   <si>
-    <t>auto_save_after_idle_delay</t>
+    <t>auto_save_after_idle_time</t>
   </si>
   <si>
     <t>Auto save note after specified idle time</t>

--- a/app/translations.xlsx
+++ b/app/translations.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Translations" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Translations!$A$1:$AG$337</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Translations!$A$1:$AG$338</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -10772,7 +10772,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A313" authorId="0">
+    <comment ref="A314" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10784,7 +10784,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B313" authorId="0">
+    <comment ref="B314" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10796,7 +10796,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C313" authorId="0">
+    <comment ref="C314" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10808,7 +10808,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D313" authorId="0">
+    <comment ref="D314" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10820,7 +10820,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E313" authorId="0">
+    <comment ref="E314" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10832,7 +10832,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F313" authorId="0">
+    <comment ref="F314" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10844,7 +10844,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G313" authorId="0">
+    <comment ref="G314" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10856,7 +10856,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H313" authorId="0">
+    <comment ref="H314" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10868,7 +10868,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I313" authorId="0">
+    <comment ref="I314" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10880,7 +10880,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J313" authorId="0">
+    <comment ref="J314" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10892,7 +10892,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K313" authorId="0">
+    <comment ref="K314" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10904,7 +10904,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L313" authorId="0">
+    <comment ref="L314" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10916,7 +10916,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M313" authorId="0">
+    <comment ref="M314" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10928,7 +10928,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N313" authorId="0">
+    <comment ref="N314" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10940,7 +10940,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O313" authorId="0">
+    <comment ref="O314" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10952,7 +10952,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P313" authorId="0">
+    <comment ref="P314" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10964,7 +10964,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q313" authorId="0">
+    <comment ref="Q314" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10976,7 +10976,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R313" authorId="0">
+    <comment ref="R314" authorId="0">
       <text>
         <r>
           <rPr>
@@ -10988,7 +10988,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S313" authorId="0">
+    <comment ref="S314" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11000,7 +11000,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T313" authorId="0">
+    <comment ref="T314" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11012,7 +11012,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U313" authorId="0">
+    <comment ref="U314" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11024,7 +11024,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V313" authorId="0">
+    <comment ref="V314" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11036,7 +11036,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W313" authorId="0">
+    <comment ref="W314" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11048,7 +11048,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X313" authorId="0">
+    <comment ref="X314" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11060,7 +11060,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y313" authorId="0">
+    <comment ref="Y314" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11072,7 +11072,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z313" authorId="0">
+    <comment ref="Z314" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11084,7 +11084,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA313" authorId="0">
+    <comment ref="AA314" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11096,7 +11096,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB313" authorId="0">
+    <comment ref="AB314" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11108,7 +11108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC313" authorId="0">
+    <comment ref="AC314" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11120,7 +11120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD313" authorId="0">
+    <comment ref="AD314" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11132,7 +11132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE313" authorId="0">
+    <comment ref="AE314" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11144,7 +11144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF313" authorId="0">
+    <comment ref="AF314" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11156,7 +11156,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A314" authorId="0">
+    <comment ref="A315" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11168,7 +11168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B314" authorId="0">
+    <comment ref="B315" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11180,7 +11180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C314" authorId="0">
+    <comment ref="C315" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11192,7 +11192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D314" authorId="0">
+    <comment ref="D315" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11204,7 +11204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E314" authorId="0">
+    <comment ref="E315" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11216,7 +11216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F314" authorId="0">
+    <comment ref="F315" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11228,7 +11228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G314" authorId="0">
+    <comment ref="G315" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11240,7 +11240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H314" authorId="0">
+    <comment ref="H315" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11252,7 +11252,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I314" authorId="0">
+    <comment ref="I315" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11264,7 +11264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J314" authorId="0">
+    <comment ref="J315" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11276,7 +11276,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K314" authorId="0">
+    <comment ref="K315" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11288,7 +11288,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L314" authorId="0">
+    <comment ref="L315" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11300,7 +11300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M314" authorId="0">
+    <comment ref="M315" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11312,7 +11312,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N314" authorId="0">
+    <comment ref="N315" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11324,7 +11324,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O314" authorId="0">
+    <comment ref="O315" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11336,7 +11336,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P314" authorId="0">
+    <comment ref="P315" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11348,7 +11348,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q314" authorId="0">
+    <comment ref="Q315" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11360,7 +11360,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R314" authorId="0">
+    <comment ref="R315" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11372,7 +11372,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S314" authorId="0">
+    <comment ref="S315" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11384,7 +11384,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T314" authorId="0">
+    <comment ref="T315" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11396,7 +11396,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U314" authorId="0">
+    <comment ref="U315" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11408,7 +11408,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V314" authorId="0">
+    <comment ref="V315" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11420,7 +11420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W314" authorId="0">
+    <comment ref="W315" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11432,7 +11432,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X314" authorId="0">
+    <comment ref="X315" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11444,7 +11444,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y314" authorId="0">
+    <comment ref="Y315" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11456,7 +11456,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z314" authorId="0">
+    <comment ref="Z315" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11468,7 +11468,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA314" authorId="0">
+    <comment ref="AA315" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11480,7 +11480,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB314" authorId="0">
+    <comment ref="AB315" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11492,7 +11492,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC314" authorId="0">
+    <comment ref="AC315" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11504,7 +11504,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD314" authorId="0">
+    <comment ref="AD315" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11516,7 +11516,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE314" authorId="0">
+    <comment ref="AE315" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11528,7 +11528,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF314" authorId="0">
+    <comment ref="AF315" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11540,7 +11540,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A317" authorId="0">
+    <comment ref="A318" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11552,7 +11552,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B317" authorId="0">
+    <comment ref="B318" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11564,7 +11564,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C317" authorId="0">
+    <comment ref="C318" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11576,7 +11576,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D317" authorId="0">
+    <comment ref="D318" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11588,7 +11588,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E317" authorId="0">
+    <comment ref="E318" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11600,7 +11600,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F317" authorId="0">
+    <comment ref="F318" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11612,7 +11612,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G317" authorId="0">
+    <comment ref="G318" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11624,7 +11624,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H317" authorId="0">
+    <comment ref="H318" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11636,7 +11636,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I317" authorId="0">
+    <comment ref="I318" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11648,7 +11648,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J317" authorId="0">
+    <comment ref="J318" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11660,7 +11660,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K317" authorId="0">
+    <comment ref="K318" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11672,7 +11672,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L317" authorId="0">
+    <comment ref="L318" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11684,7 +11684,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M317" authorId="0">
+    <comment ref="M318" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11696,7 +11696,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N317" authorId="0">
+    <comment ref="N318" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11708,7 +11708,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O317" authorId="0">
+    <comment ref="O318" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11720,7 +11720,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P317" authorId="0">
+    <comment ref="P318" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11732,7 +11732,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q317" authorId="0">
+    <comment ref="Q318" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11744,7 +11744,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R317" authorId="0">
+    <comment ref="R318" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11756,7 +11756,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S317" authorId="0">
+    <comment ref="S318" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11768,7 +11768,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T317" authorId="0">
+    <comment ref="T318" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11780,7 +11780,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U317" authorId="0">
+    <comment ref="U318" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11792,7 +11792,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V317" authorId="0">
+    <comment ref="V318" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11804,7 +11804,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W317" authorId="0">
+    <comment ref="W318" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11816,7 +11816,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X317" authorId="0">
+    <comment ref="X318" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11828,7 +11828,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y317" authorId="0">
+    <comment ref="Y318" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11840,7 +11840,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z317" authorId="0">
+    <comment ref="Z318" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11852,7 +11852,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA317" authorId="0">
+    <comment ref="AA318" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11864,7 +11864,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB317" authorId="0">
+    <comment ref="AB318" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11876,7 +11876,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC317" authorId="0">
+    <comment ref="AC318" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11888,7 +11888,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD317" authorId="0">
+    <comment ref="AD318" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11900,7 +11900,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE317" authorId="0">
+    <comment ref="AE318" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11912,7 +11912,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF317" authorId="0">
+    <comment ref="AF318" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11924,7 +11924,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A318" authorId="0">
+    <comment ref="A319" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11936,7 +11936,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B318" authorId="0">
+    <comment ref="B319" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11948,7 +11948,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C318" authorId="0">
+    <comment ref="C319" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11960,7 +11960,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D318" authorId="0">
+    <comment ref="D319" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11972,7 +11972,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E318" authorId="0">
+    <comment ref="E319" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11984,7 +11984,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F318" authorId="0">
+    <comment ref="F319" authorId="0">
       <text>
         <r>
           <rPr>
@@ -11996,7 +11996,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G318" authorId="0">
+    <comment ref="G319" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12008,7 +12008,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H318" authorId="0">
+    <comment ref="H319" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12020,7 +12020,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I318" authorId="0">
+    <comment ref="I319" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12032,7 +12032,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J318" authorId="0">
+    <comment ref="J319" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12044,7 +12044,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K318" authorId="0">
+    <comment ref="K319" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12056,7 +12056,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L318" authorId="0">
+    <comment ref="L319" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12068,7 +12068,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M318" authorId="0">
+    <comment ref="M319" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12080,7 +12080,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N318" authorId="0">
+    <comment ref="N319" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12092,7 +12092,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O318" authorId="0">
+    <comment ref="O319" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12104,7 +12104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P318" authorId="0">
+    <comment ref="P319" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12116,7 +12116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q318" authorId="0">
+    <comment ref="Q319" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12128,7 +12128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R318" authorId="0">
+    <comment ref="R319" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12140,7 +12140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S318" authorId="0">
+    <comment ref="S319" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12152,7 +12152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T318" authorId="0">
+    <comment ref="T319" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12164,7 +12164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U318" authorId="0">
+    <comment ref="U319" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12176,7 +12176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V318" authorId="0">
+    <comment ref="V319" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12188,7 +12188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W318" authorId="0">
+    <comment ref="W319" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12200,7 +12200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X318" authorId="0">
+    <comment ref="X319" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12212,7 +12212,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y318" authorId="0">
+    <comment ref="Y319" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12224,7 +12224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z318" authorId="0">
+    <comment ref="Z319" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12236,7 +12236,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA318" authorId="0">
+    <comment ref="AA319" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12248,7 +12248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB318" authorId="0">
+    <comment ref="AB319" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12260,7 +12260,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC318" authorId="0">
+    <comment ref="AC319" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12272,7 +12272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD318" authorId="0">
+    <comment ref="AD319" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12284,7 +12284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE318" authorId="0">
+    <comment ref="AE319" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12296,7 +12296,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF318" authorId="0">
+    <comment ref="AF319" authorId="0">
       <text>
         <r>
           <rPr>
@@ -12335,7 +12335,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10784" uniqueCount="4512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10816" uniqueCount="4514">
   <si>
     <t>Key</t>
   </si>
@@ -24832,6 +24832,12 @@
   </si>
   <si>
     <t>主題</t>
+  </si>
+  <si>
+    <t>theme_use_dynamic_colors</t>
+  </si>
+  <si>
+    <t>Use system's wallpaper colors</t>
   </si>
   <si>
     <t>title</t>
@@ -30210,7 +30216,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF337"/>
+  <dimension ref="A1:AF338"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="3.0" ySplit="1.0" state="frozen" topLeftCell="D2" activePane="bottomRight"/>
@@ -60515,391 +60521,391 @@
       <c r="C310" t="s" s="1">
         <v>4136</v>
       </c>
-      <c r="D310" t="s" s="1">
-        <v>4137</v>
-      </c>
-      <c r="E310" t="s" s="1">
-        <v>4138</v>
-      </c>
-      <c r="F310" t="s" s="1">
-        <v>4139</v>
-      </c>
-      <c r="G310" t="s" s="1">
-        <v>4139</v>
-      </c>
-      <c r="H310" t="s" s="1">
-        <v>4140</v>
-      </c>
-      <c r="I310" t="s" s="1">
-        <v>4141</v>
-      </c>
-      <c r="J310" t="s" s="1">
-        <v>4142</v>
-      </c>
-      <c r="K310" t="s" s="1">
-        <v>4143</v>
-      </c>
-      <c r="L310" t="s" s="1">
-        <v>4144</v>
-      </c>
-      <c r="M310" t="s" s="1">
-        <v>4145</v>
-      </c>
-      <c r="N310" t="s" s="1">
-        <v>4146</v>
-      </c>
-      <c r="O310" t="s" s="1">
-        <v>4147</v>
-      </c>
-      <c r="P310" t="s" s="1">
-        <v>4148</v>
-      </c>
-      <c r="Q310" t="s" s="1">
-        <v>4139</v>
-      </c>
-      <c r="R310" t="s" s="1">
-        <v>4148</v>
-      </c>
-      <c r="S310" t="s" s="1">
-        <v>4149</v>
-      </c>
-      <c r="T310" t="s" s="1">
-        <v>4141</v>
-      </c>
-      <c r="U310" t="s" s="1">
-        <v>4141</v>
-      </c>
-      <c r="V310" t="s" s="1">
-        <v>4150</v>
-      </c>
-      <c r="W310" t="s" s="1">
-        <v>4151</v>
-      </c>
-      <c r="X310" t="s" s="1">
-        <v>4152</v>
-      </c>
-      <c r="Y310" t="s" s="1">
-        <v>4153</v>
-      </c>
-      <c r="Z310" t="s" s="1">
-        <v>4139</v>
-      </c>
-      <c r="AA310" t="s" s="1">
-        <v>4154</v>
-      </c>
-      <c r="AB310" t="s" s="1">
-        <v>4155</v>
-      </c>
-      <c r="AC310" t="s" s="1">
-        <v>4156</v>
-      </c>
-      <c r="AD310" t="s" s="1">
-        <v>4157</v>
-      </c>
-      <c r="AE310" t="s" s="1">
-        <v>4158</v>
-      </c>
-      <c r="AF310" t="s" s="1">
-        <v>4159</v>
+      <c r="D310" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E310" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F310" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G310" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H310" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I310" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J310" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K310" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L310" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M310" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N310" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O310" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P310" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q310" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R310" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S310" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T310" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U310" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V310" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W310" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X310" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y310" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z310" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA310" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB310" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC310" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD310" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE310" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF310" t="s" s="2">
+        <v>63</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s" s="1">
-        <v>4160</v>
+        <v>4137</v>
       </c>
       <c r="B311" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C311" t="s" s="1">
+        <v>4138</v>
+      </c>
+      <c r="D311" t="s" s="1">
+        <v>4139</v>
+      </c>
+      <c r="E311" t="s" s="1">
+        <v>4140</v>
+      </c>
+      <c r="F311" t="s" s="1">
+        <v>4141</v>
+      </c>
+      <c r="G311" t="s" s="1">
+        <v>4141</v>
+      </c>
+      <c r="H311" t="s" s="1">
+        <v>4142</v>
+      </c>
+      <c r="I311" t="s" s="1">
+        <v>4143</v>
+      </c>
+      <c r="J311" t="s" s="1">
+        <v>4144</v>
+      </c>
+      <c r="K311" t="s" s="1">
+        <v>4145</v>
+      </c>
+      <c r="L311" t="s" s="1">
+        <v>4146</v>
+      </c>
+      <c r="M311" t="s" s="1">
+        <v>4147</v>
+      </c>
+      <c r="N311" t="s" s="1">
+        <v>4148</v>
+      </c>
+      <c r="O311" t="s" s="1">
+        <v>4149</v>
+      </c>
+      <c r="P311" t="s" s="1">
+        <v>4150</v>
+      </c>
+      <c r="Q311" t="s" s="1">
+        <v>4141</v>
+      </c>
+      <c r="R311" t="s" s="1">
+        <v>4150</v>
+      </c>
+      <c r="S311" t="s" s="1">
+        <v>4151</v>
+      </c>
+      <c r="T311" t="s" s="1">
+        <v>4143</v>
+      </c>
+      <c r="U311" t="s" s="1">
+        <v>4143</v>
+      </c>
+      <c r="V311" t="s" s="1">
+        <v>4152</v>
+      </c>
+      <c r="W311" t="s" s="1">
+        <v>4153</v>
+      </c>
+      <c r="X311" t="s" s="1">
+        <v>4154</v>
+      </c>
+      <c r="Y311" t="s" s="1">
+        <v>4155</v>
+      </c>
+      <c r="Z311" t="s" s="1">
+        <v>4141</v>
+      </c>
+      <c r="AA311" t="s" s="1">
+        <v>4156</v>
+      </c>
+      <c r="AB311" t="s" s="1">
+        <v>4157</v>
+      </c>
+      <c r="AC311" t="s" s="1">
+        <v>4158</v>
+      </c>
+      <c r="AD311" t="s" s="1">
+        <v>4159</v>
+      </c>
+      <c r="AE311" t="s" s="1">
+        <v>4160</v>
+      </c>
+      <c r="AF311" t="s" s="1">
         <v>4161</v>
-      </c>
-      <c r="D311" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="E311" t="s" s="1">
-        <v>4162</v>
-      </c>
-      <c r="F311" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="G311" t="s" s="1">
-        <v>4163</v>
-      </c>
-      <c r="H311" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="I311" t="s" s="1">
-        <v>4164</v>
-      </c>
-      <c r="J311" t="s" s="1">
-        <v>4165</v>
-      </c>
-      <c r="K311" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="L311" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M311" t="s" s="1">
-        <v>4166</v>
-      </c>
-      <c r="N311" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="O311" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="P311" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Q311" t="s" s="1">
-        <v>4167</v>
-      </c>
-      <c r="R311" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="S311" t="s" s="1">
-        <v>4168</v>
-      </c>
-      <c r="T311" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="U311" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="V311" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="W311" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="X311" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Y311" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Z311" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AA311" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AB311" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AC311" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AD311" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AE311" t="s" s="1">
-        <v>4169</v>
-      </c>
-      <c r="AF311" t="s" s="1">
-        <v>4170</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s" s="1">
-        <v>4171</v>
+        <v>4162</v>
       </c>
       <c r="B312" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C312" t="s" s="1">
+        <v>4163</v>
+      </c>
+      <c r="D312" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E312" t="s" s="1">
+        <v>4164</v>
+      </c>
+      <c r="F312" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G312" t="s" s="1">
+        <v>4165</v>
+      </c>
+      <c r="H312" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I312" t="s" s="1">
+        <v>4166</v>
+      </c>
+      <c r="J312" t="s" s="1">
+        <v>4167</v>
+      </c>
+      <c r="K312" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L312" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M312" t="s" s="1">
+        <v>4168</v>
+      </c>
+      <c r="N312" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O312" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P312" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q312" t="s" s="1">
+        <v>4169</v>
+      </c>
+      <c r="R312" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S312" t="s" s="1">
+        <v>4170</v>
+      </c>
+      <c r="T312" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U312" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V312" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W312" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X312" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y312" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z312" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA312" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB312" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC312" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD312" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE312" t="s" s="1">
+        <v>4171</v>
+      </c>
+      <c r="AF312" t="s" s="1">
         <v>4172</v>
-      </c>
-      <c r="D312" t="s" s="1">
-        <v>4173</v>
-      </c>
-      <c r="E312" t="s" s="1">
-        <v>4174</v>
-      </c>
-      <c r="F312" t="s" s="1">
-        <v>4175</v>
-      </c>
-      <c r="G312" t="s" s="1">
-        <v>4176</v>
-      </c>
-      <c r="H312" t="s" s="1">
-        <v>4177</v>
-      </c>
-      <c r="I312" t="s" s="1">
-        <v>4178</v>
-      </c>
-      <c r="J312" t="s" s="1">
-        <v>3533</v>
-      </c>
-      <c r="K312" t="s" s="1">
-        <v>4179</v>
-      </c>
-      <c r="L312" t="s" s="1">
-        <v>4180</v>
-      </c>
-      <c r="M312" t="s" s="1">
-        <v>4181</v>
-      </c>
-      <c r="N312" t="s" s="1">
-        <v>4182</v>
-      </c>
-      <c r="O312" t="s" s="1">
-        <v>4183</v>
-      </c>
-      <c r="P312" t="s" s="1">
-        <v>4184</v>
-      </c>
-      <c r="Q312" t="s" s="1">
-        <v>4185</v>
-      </c>
-      <c r="R312" t="s" s="1">
-        <v>4186</v>
-      </c>
-      <c r="S312" t="s" s="1">
-        <v>4187</v>
-      </c>
-      <c r="T312" t="s" s="1">
-        <v>4188</v>
-      </c>
-      <c r="U312" t="s" s="1">
-        <v>4188</v>
-      </c>
-      <c r="V312" t="s" s="1">
-        <v>4189</v>
-      </c>
-      <c r="W312" t="s" s="1">
-        <v>4190</v>
-      </c>
-      <c r="X312" t="s" s="1">
-        <v>4191</v>
-      </c>
-      <c r="Y312" t="s" s="1">
-        <v>4192</v>
-      </c>
-      <c r="Z312" t="s" s="1">
-        <v>4193</v>
-      </c>
-      <c r="AA312" t="s" s="1">
-        <v>4194</v>
-      </c>
-      <c r="AB312" t="s" s="1">
-        <v>4195</v>
-      </c>
-      <c r="AC312" t="s" s="1">
-        <v>4196</v>
-      </c>
-      <c r="AD312" t="s" s="1">
-        <v>4197</v>
-      </c>
-      <c r="AE312" t="s" s="1">
-        <v>4198</v>
-      </c>
-      <c r="AF312" t="s" s="1">
-        <v>4199</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s" s="1">
-        <v>4200</v>
+        <v>4173</v>
       </c>
       <c r="B313" t="s" s="1">
         <v>33</v>
       </c>
-      <c r="C313" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="D313" t="s" s="3">
-        <v>63</v>
+      <c r="C313" t="s" s="1">
+        <v>4174</v>
+      </c>
+      <c r="D313" t="s" s="1">
+        <v>4175</v>
       </c>
       <c r="E313" t="s" s="1">
-        <v>3554</v>
-      </c>
-      <c r="F313" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="G313" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="H313" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="I313" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="J313" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="K313" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="L313" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="M313" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="N313" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="O313" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="P313" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="Q313" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="R313" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="S313" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="T313" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="U313" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="V313" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="W313" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="X313" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="Y313" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="Z313" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="AA313" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="AB313" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="AC313" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="AD313" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="AE313" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="AF313" t="s" s="3">
-        <v>63</v>
+        <v>4176</v>
+      </c>
+      <c r="F313" t="s" s="1">
+        <v>4177</v>
+      </c>
+      <c r="G313" t="s" s="1">
+        <v>4178</v>
+      </c>
+      <c r="H313" t="s" s="1">
+        <v>4179</v>
+      </c>
+      <c r="I313" t="s" s="1">
+        <v>4180</v>
+      </c>
+      <c r="J313" t="s" s="1">
+        <v>3533</v>
+      </c>
+      <c r="K313" t="s" s="1">
+        <v>4181</v>
+      </c>
+      <c r="L313" t="s" s="1">
+        <v>4182</v>
+      </c>
+      <c r="M313" t="s" s="1">
+        <v>4183</v>
+      </c>
+      <c r="N313" t="s" s="1">
+        <v>4184</v>
+      </c>
+      <c r="O313" t="s" s="1">
+        <v>4185</v>
+      </c>
+      <c r="P313" t="s" s="1">
+        <v>4186</v>
+      </c>
+      <c r="Q313" t="s" s="1">
+        <v>4187</v>
+      </c>
+      <c r="R313" t="s" s="1">
+        <v>4188</v>
+      </c>
+      <c r="S313" t="s" s="1">
+        <v>4189</v>
+      </c>
+      <c r="T313" t="s" s="1">
+        <v>4190</v>
+      </c>
+      <c r="U313" t="s" s="1">
+        <v>4190</v>
+      </c>
+      <c r="V313" t="s" s="1">
+        <v>4191</v>
+      </c>
+      <c r="W313" t="s" s="1">
+        <v>4192</v>
+      </c>
+      <c r="X313" t="s" s="1">
+        <v>4193</v>
+      </c>
+      <c r="Y313" t="s" s="1">
+        <v>4194</v>
+      </c>
+      <c r="Z313" t="s" s="1">
+        <v>4195</v>
+      </c>
+      <c r="AA313" t="s" s="1">
+        <v>4196</v>
+      </c>
+      <c r="AB313" t="s" s="1">
+        <v>4197</v>
+      </c>
+      <c r="AC313" t="s" s="1">
+        <v>4198</v>
+      </c>
+      <c r="AD313" t="s" s="1">
+        <v>4199</v>
+      </c>
+      <c r="AE313" t="s" s="1">
+        <v>4200</v>
+      </c>
+      <c r="AF313" t="s" s="1">
+        <v>4201</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s" s="1">
-        <v>4201</v>
+        <v>4202</v>
       </c>
       <c r="B314" t="s" s="1">
         <v>33</v>
@@ -60997,195 +61003,195 @@
     </row>
     <row r="315">
       <c r="A315" t="s" s="1">
-        <v>4202</v>
+        <v>4203</v>
       </c>
       <c r="B315" t="s" s="1">
         <v>33</v>
       </c>
-      <c r="C315" t="s" s="1">
-        <v>4203</v>
-      </c>
-      <c r="D315" t="s" s="2">
+      <c r="C315" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="D315" t="s" s="3">
         <v>63</v>
       </c>
       <c r="E315" t="s" s="1">
         <v>3554</v>
       </c>
-      <c r="F315" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="G315" t="s" s="1">
-        <v>4204</v>
-      </c>
-      <c r="H315" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="I315" t="s" s="1">
-        <v>4205</v>
-      </c>
-      <c r="J315" t="s" s="1">
-        <v>4206</v>
-      </c>
-      <c r="K315" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="L315" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M315" t="s" s="1">
-        <v>4207</v>
-      </c>
-      <c r="N315" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="O315" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="P315" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Q315" t="s" s="1">
-        <v>4208</v>
-      </c>
-      <c r="R315" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="S315" t="s" s="1">
-        <v>4209</v>
-      </c>
-      <c r="T315" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="U315" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="V315" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="W315" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="X315" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Y315" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Z315" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AA315" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AB315" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AC315" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AD315" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AE315" t="s" s="1">
-        <v>4210</v>
-      </c>
-      <c r="AF315" t="s" s="2">
+      <c r="F315" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="G315" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="H315" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="I315" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="J315" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="K315" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="L315" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="M315" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="N315" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="O315" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="P315" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="Q315" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="R315" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="S315" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="T315" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="U315" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="V315" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="W315" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="X315" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="Y315" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="Z315" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AA315" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AB315" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AC315" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AD315" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AE315" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AF315" t="s" s="3">
         <v>63</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s" s="1">
-        <v>4211</v>
+        <v>4204</v>
       </c>
       <c r="B316" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C316" t="s" s="1">
+        <v>4205</v>
+      </c>
+      <c r="D316" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E316" t="s" s="1">
+        <v>3554</v>
+      </c>
+      <c r="F316" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G316" t="s" s="1">
+        <v>4206</v>
+      </c>
+      <c r="H316" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I316" t="s" s="1">
+        <v>4207</v>
+      </c>
+      <c r="J316" t="s" s="1">
+        <v>4208</v>
+      </c>
+      <c r="K316" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L316" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M316" t="s" s="1">
+        <v>4209</v>
+      </c>
+      <c r="N316" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O316" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P316" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q316" t="s" s="1">
+        <v>4210</v>
+      </c>
+      <c r="R316" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S316" t="s" s="1">
+        <v>4211</v>
+      </c>
+      <c r="T316" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U316" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V316" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W316" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X316" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y316" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z316" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA316" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB316" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC316" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD316" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE316" t="s" s="1">
         <v>4212</v>
-      </c>
-      <c r="D316" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="E316" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="F316" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="G316" t="s" s="1">
-        <v>4213</v>
-      </c>
-      <c r="H316" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="I316" t="s" s="1">
-        <v>4214</v>
-      </c>
-      <c r="J316" t="s" s="1">
-        <v>4215</v>
-      </c>
-      <c r="K316" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="L316" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M316" t="s" s="1">
-        <v>4216</v>
-      </c>
-      <c r="N316" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="O316" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="P316" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Q316" t="s" s="1">
-        <v>4217</v>
-      </c>
-      <c r="R316" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="S316" t="s" s="1">
-        <v>4218</v>
-      </c>
-      <c r="T316" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="U316" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="V316" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="W316" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="X316" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Y316" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Z316" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AA316" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AB316" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AC316" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AD316" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AE316" t="s" s="1">
-        <v>4210</v>
       </c>
       <c r="AF316" t="s" s="2">
         <v>63</v>
@@ -61193,105 +61199,105 @@
     </row>
     <row r="317">
       <c r="A317" t="s" s="1">
-        <v>4219</v>
+        <v>4213</v>
       </c>
       <c r="B317" t="s" s="1">
         <v>33</v>
       </c>
-      <c r="C317" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="D317" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="E317" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="F317" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="G317" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="H317" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="I317" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="J317" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="K317" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="L317" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="M317" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="N317" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="O317" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="P317" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="Q317" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="R317" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="S317" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="T317" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="U317" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="V317" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="W317" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="X317" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="Y317" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="Z317" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="AA317" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="AB317" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="AC317" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="AD317" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="AE317" t="s" s="3">
-        <v>63</v>
-      </c>
-      <c r="AF317" t="s" s="3">
+      <c r="C317" t="s" s="1">
+        <v>4214</v>
+      </c>
+      <c r="D317" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E317" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F317" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G317" t="s" s="1">
+        <v>4215</v>
+      </c>
+      <c r="H317" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I317" t="s" s="1">
+        <v>4216</v>
+      </c>
+      <c r="J317" t="s" s="1">
+        <v>4217</v>
+      </c>
+      <c r="K317" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L317" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M317" t="s" s="1">
+        <v>4218</v>
+      </c>
+      <c r="N317" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O317" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P317" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q317" t="s" s="1">
+        <v>4219</v>
+      </c>
+      <c r="R317" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S317" t="s" s="1">
+        <v>4220</v>
+      </c>
+      <c r="T317" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U317" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V317" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W317" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X317" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y317" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z317" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA317" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB317" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC317" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD317" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE317" t="s" s="1">
+        <v>4212</v>
+      </c>
+      <c r="AF317" t="s" s="2">
         <v>63</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s" s="1">
-        <v>4220</v>
+        <v>4221</v>
       </c>
       <c r="B318" t="s" s="1">
         <v>33</v>
@@ -61389,1868 +61395,1966 @@
     </row>
     <row r="319">
       <c r="A319" t="s" s="1">
-        <v>4221</v>
+        <v>4222</v>
       </c>
       <c r="B319" t="s" s="1">
         <v>33</v>
       </c>
-      <c r="C319" t="s" s="1">
-        <v>4222</v>
-      </c>
-      <c r="D319" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="E319" t="s" s="1">
-        <v>4223</v>
-      </c>
-      <c r="F319" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="G319" t="s" s="1">
-        <v>4224</v>
-      </c>
-      <c r="H319" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="I319" t="s" s="1">
-        <v>4225</v>
-      </c>
-      <c r="J319" t="s" s="1">
-        <v>4226</v>
-      </c>
-      <c r="K319" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="L319" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M319" t="s" s="1">
-        <v>4227</v>
-      </c>
-      <c r="N319" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="O319" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="P319" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Q319" t="s" s="1">
-        <v>4228</v>
-      </c>
-      <c r="R319" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="S319" t="s" s="1">
-        <v>4229</v>
-      </c>
-      <c r="T319" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="U319" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="V319" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="W319" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="X319" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Y319" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Z319" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AA319" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AB319" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AC319" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AD319" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AE319" t="s" s="1">
-        <v>4230</v>
-      </c>
-      <c r="AF319" t="s" s="1">
-        <v>4231</v>
+      <c r="C319" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="D319" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="E319" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="F319" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="G319" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="H319" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="I319" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="J319" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="K319" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="L319" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="M319" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="N319" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="O319" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="P319" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="Q319" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="R319" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="S319" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="T319" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="U319" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="V319" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="W319" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="X319" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="Y319" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="Z319" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AA319" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AB319" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AC319" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AD319" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AE319" t="s" s="3">
+        <v>63</v>
+      </c>
+      <c r="AF319" t="s" s="3">
+        <v>63</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s" s="1">
-        <v>4232</v>
+        <v>4223</v>
       </c>
       <c r="B320" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C320" t="s" s="1">
+        <v>4224</v>
+      </c>
+      <c r="D320" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E320" t="s" s="1">
+        <v>4225</v>
+      </c>
+      <c r="F320" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G320" t="s" s="1">
+        <v>4226</v>
+      </c>
+      <c r="H320" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I320" t="s" s="1">
+        <v>4227</v>
+      </c>
+      <c r="J320" t="s" s="1">
+        <v>4228</v>
+      </c>
+      <c r="K320" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L320" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M320" t="s" s="1">
+        <v>4229</v>
+      </c>
+      <c r="N320" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O320" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P320" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q320" t="s" s="1">
+        <v>4230</v>
+      </c>
+      <c r="R320" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S320" t="s" s="1">
+        <v>4231</v>
+      </c>
+      <c r="T320" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U320" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V320" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W320" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X320" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y320" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z320" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA320" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB320" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC320" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD320" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE320" t="s" s="1">
+        <v>4232</v>
+      </c>
+      <c r="AF320" t="s" s="1">
         <v>4233</v>
-      </c>
-      <c r="D320" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="E320" t="s" s="1">
-        <v>454</v>
-      </c>
-      <c r="F320" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="G320" t="s" s="1">
-        <v>4234</v>
-      </c>
-      <c r="H320" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="I320" t="s" s="1">
-        <v>4235</v>
-      </c>
-      <c r="J320" t="s" s="1">
-        <v>656</v>
-      </c>
-      <c r="K320" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="L320" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M320" t="s" s="1">
-        <v>659</v>
-      </c>
-      <c r="N320" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="O320" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="P320" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Q320" t="s" s="1">
-        <v>4236</v>
-      </c>
-      <c r="R320" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="S320" t="s" s="1">
-        <v>459</v>
-      </c>
-      <c r="T320" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="U320" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="V320" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="W320" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="X320" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Y320" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Z320" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AA320" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AB320" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AC320" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AD320" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AE320" t="s" s="1">
-        <v>4237</v>
-      </c>
-      <c r="AF320" t="s" s="1">
-        <v>4238</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s" s="1">
-        <v>4239</v>
+        <v>4234</v>
       </c>
       <c r="B321" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C321" t="s" s="1">
+        <v>4235</v>
+      </c>
+      <c r="D321" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E321" t="s" s="1">
+        <v>454</v>
+      </c>
+      <c r="F321" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G321" t="s" s="1">
+        <v>4236</v>
+      </c>
+      <c r="H321" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I321" t="s" s="1">
+        <v>4237</v>
+      </c>
+      <c r="J321" t="s" s="1">
+        <v>656</v>
+      </c>
+      <c r="K321" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L321" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M321" t="s" s="1">
+        <v>659</v>
+      </c>
+      <c r="N321" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O321" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P321" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q321" t="s" s="1">
+        <v>4238</v>
+      </c>
+      <c r="R321" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S321" t="s" s="1">
+        <v>459</v>
+      </c>
+      <c r="T321" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U321" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V321" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W321" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X321" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y321" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z321" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA321" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB321" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC321" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD321" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE321" t="s" s="1">
+        <v>4239</v>
+      </c>
+      <c r="AF321" t="s" s="1">
         <v>4240</v>
-      </c>
-      <c r="D321" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="E321" t="s" s="1">
-        <v>4241</v>
-      </c>
-      <c r="F321" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="G321" t="s" s="1">
-        <v>4242</v>
-      </c>
-      <c r="H321" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="I321" t="s" s="1">
-        <v>4243</v>
-      </c>
-      <c r="J321" t="s" s="1">
-        <v>4244</v>
-      </c>
-      <c r="K321" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="L321" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M321" t="s" s="1">
-        <v>4245</v>
-      </c>
-      <c r="N321" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="O321" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="P321" t="s" s="1">
-        <v>4246</v>
-      </c>
-      <c r="Q321" t="s" s="1">
-        <v>4247</v>
-      </c>
-      <c r="R321" t="s" s="1">
-        <v>4248</v>
-      </c>
-      <c r="S321" t="s" s="1">
-        <v>4249</v>
-      </c>
-      <c r="T321" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="U321" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="V321" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="W321" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="X321" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Y321" t="s" s="1">
-        <v>4250</v>
-      </c>
-      <c r="Z321" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AA321" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AB321" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AC321" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AD321" t="s" s="1">
-        <v>4251</v>
-      </c>
-      <c r="AE321" t="s" s="1">
-        <v>4252</v>
-      </c>
-      <c r="AF321" t="s" s="1">
-        <v>4253</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s" s="1">
-        <v>4254</v>
+        <v>4241</v>
       </c>
       <c r="B322" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C322" t="s" s="1">
+        <v>4242</v>
+      </c>
+      <c r="D322" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E322" t="s" s="1">
+        <v>4243</v>
+      </c>
+      <c r="F322" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G322" t="s" s="1">
+        <v>4244</v>
+      </c>
+      <c r="H322" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I322" t="s" s="1">
+        <v>4245</v>
+      </c>
+      <c r="J322" t="s" s="1">
+        <v>4246</v>
+      </c>
+      <c r="K322" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L322" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M322" t="s" s="1">
+        <v>4247</v>
+      </c>
+      <c r="N322" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O322" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P322" t="s" s="1">
+        <v>4248</v>
+      </c>
+      <c r="Q322" t="s" s="1">
+        <v>4249</v>
+      </c>
+      <c r="R322" t="s" s="1">
+        <v>4250</v>
+      </c>
+      <c r="S322" t="s" s="1">
+        <v>4251</v>
+      </c>
+      <c r="T322" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U322" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V322" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W322" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X322" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y322" t="s" s="1">
+        <v>4252</v>
+      </c>
+      <c r="Z322" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA322" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB322" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC322" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD322" t="s" s="1">
+        <v>4253</v>
+      </c>
+      <c r="AE322" t="s" s="1">
+        <v>4254</v>
+      </c>
+      <c r="AF322" t="s" s="1">
         <v>4255</v>
-      </c>
-      <c r="D322" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="E322" t="s" s="1">
-        <v>4256</v>
-      </c>
-      <c r="F322" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="G322" t="s" s="1">
-        <v>4257</v>
-      </c>
-      <c r="H322" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="I322" t="s" s="1">
-        <v>4258</v>
-      </c>
-      <c r="J322" t="s" s="1">
-        <v>4259</v>
-      </c>
-      <c r="K322" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="L322" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M322" t="s" s="1">
-        <v>4260</v>
-      </c>
-      <c r="N322" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="O322" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="P322" t="s" s="1">
-        <v>4261</v>
-      </c>
-      <c r="Q322" t="s" s="1">
-        <v>4262</v>
-      </c>
-      <c r="R322" t="s" s="1">
-        <v>4263</v>
-      </c>
-      <c r="S322" t="s" s="1">
-        <v>4264</v>
-      </c>
-      <c r="T322" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="U322" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="V322" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="W322" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="X322" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Y322" t="s" s="1">
-        <v>4265</v>
-      </c>
-      <c r="Z322" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AA322" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AB322" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AC322" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AD322" t="s" s="1">
-        <v>4266</v>
-      </c>
-      <c r="AE322" t="s" s="1">
-        <v>4267</v>
-      </c>
-      <c r="AF322" t="s" s="1">
-        <v>4268</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s" s="1">
-        <v>4269</v>
+        <v>4256</v>
       </c>
       <c r="B323" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C323" t="s" s="1">
+        <v>4257</v>
+      </c>
+      <c r="D323" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E323" t="s" s="1">
+        <v>4258</v>
+      </c>
+      <c r="F323" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G323" t="s" s="1">
+        <v>4259</v>
+      </c>
+      <c r="H323" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I323" t="s" s="1">
+        <v>4260</v>
+      </c>
+      <c r="J323" t="s" s="1">
+        <v>4261</v>
+      </c>
+      <c r="K323" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L323" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M323" t="s" s="1">
+        <v>4262</v>
+      </c>
+      <c r="N323" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O323" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P323" t="s" s="1">
+        <v>4263</v>
+      </c>
+      <c r="Q323" t="s" s="1">
+        <v>4264</v>
+      </c>
+      <c r="R323" t="s" s="1">
+        <v>4265</v>
+      </c>
+      <c r="S323" t="s" s="1">
+        <v>4266</v>
+      </c>
+      <c r="T323" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U323" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V323" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W323" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X323" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y323" t="s" s="1">
+        <v>4267</v>
+      </c>
+      <c r="Z323" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA323" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB323" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC323" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD323" t="s" s="1">
+        <v>4268</v>
+      </c>
+      <c r="AE323" t="s" s="1">
+        <v>4269</v>
+      </c>
+      <c r="AF323" t="s" s="1">
         <v>4270</v>
-      </c>
-      <c r="D323" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="E323" t="s" s="1">
-        <v>4271</v>
-      </c>
-      <c r="F323" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="G323" t="s" s="1">
-        <v>4272</v>
-      </c>
-      <c r="H323" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="I323" t="s" s="1">
-        <v>4273</v>
-      </c>
-      <c r="J323" t="s" s="1">
-        <v>4274</v>
-      </c>
-      <c r="K323" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="L323" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M323" t="s" s="1">
-        <v>4275</v>
-      </c>
-      <c r="N323" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="O323" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="P323" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Q323" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="R323" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="S323" t="s" s="1">
-        <v>4276</v>
-      </c>
-      <c r="T323" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="U323" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="V323" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="W323" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="X323" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Y323" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Z323" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AA323" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AB323" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AC323" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AD323" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AE323" t="s" s="1">
-        <v>4277</v>
-      </c>
-      <c r="AF323" t="s" s="1">
-        <v>4278</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s" s="1">
-        <v>4279</v>
+        <v>4271</v>
       </c>
       <c r="B324" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C324" t="s" s="1">
+        <v>4272</v>
+      </c>
+      <c r="D324" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E324" t="s" s="1">
+        <v>4273</v>
+      </c>
+      <c r="F324" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G324" t="s" s="1">
+        <v>4274</v>
+      </c>
+      <c r="H324" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I324" t="s" s="1">
+        <v>4275</v>
+      </c>
+      <c r="J324" t="s" s="1">
+        <v>4276</v>
+      </c>
+      <c r="K324" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L324" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M324" t="s" s="1">
+        <v>4277</v>
+      </c>
+      <c r="N324" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O324" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P324" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q324" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R324" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S324" t="s" s="1">
+        <v>4278</v>
+      </c>
+      <c r="T324" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U324" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V324" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W324" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X324" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y324" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z324" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA324" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB324" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC324" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD324" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE324" t="s" s="1">
+        <v>4279</v>
+      </c>
+      <c r="AF324" t="s" s="1">
         <v>4280</v>
-      </c>
-      <c r="D324" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="E324" t="s" s="1">
-        <v>4281</v>
-      </c>
-      <c r="F324" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="G324" t="s" s="1">
-        <v>4282</v>
-      </c>
-      <c r="H324" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="I324" t="s" s="1">
-        <v>4283</v>
-      </c>
-      <c r="J324" t="s" s="1">
-        <v>4284</v>
-      </c>
-      <c r="K324" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="L324" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M324" t="s" s="1">
-        <v>4285</v>
-      </c>
-      <c r="N324" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="O324" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="P324" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Q324" t="s" s="1">
-        <v>4286</v>
-      </c>
-      <c r="R324" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="S324" t="s" s="1">
-        <v>4287</v>
-      </c>
-      <c r="T324" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="U324" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="V324" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="W324" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="X324" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Y324" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Z324" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AA324" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AB324" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AC324" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AD324" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AE324" t="s" s="1">
-        <v>4288</v>
-      </c>
-      <c r="AF324" t="s" s="1">
-        <v>4289</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s" s="1">
-        <v>4290</v>
+        <v>4281</v>
       </c>
       <c r="B325" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C325" t="s" s="1">
+        <v>4282</v>
+      </c>
+      <c r="D325" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E325" t="s" s="1">
+        <v>4283</v>
+      </c>
+      <c r="F325" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G325" t="s" s="1">
+        <v>4284</v>
+      </c>
+      <c r="H325" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I325" t="s" s="1">
+        <v>4285</v>
+      </c>
+      <c r="J325" t="s" s="1">
+        <v>4286</v>
+      </c>
+      <c r="K325" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L325" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M325" t="s" s="1">
+        <v>4287</v>
+      </c>
+      <c r="N325" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O325" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P325" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q325" t="s" s="1">
+        <v>4288</v>
+      </c>
+      <c r="R325" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S325" t="s" s="1">
+        <v>4289</v>
+      </c>
+      <c r="T325" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U325" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V325" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W325" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X325" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y325" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z325" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA325" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB325" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC325" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD325" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE325" t="s" s="1">
+        <v>4290</v>
+      </c>
+      <c r="AF325" t="s" s="1">
         <v>4291</v>
-      </c>
-      <c r="D325" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="E325" t="s" s="1">
-        <v>4292</v>
-      </c>
-      <c r="F325" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="G325" t="s" s="1">
-        <v>4293</v>
-      </c>
-      <c r="H325" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="I325" t="s" s="1">
-        <v>4294</v>
-      </c>
-      <c r="J325" t="s" s="1">
-        <v>4295</v>
-      </c>
-      <c r="K325" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="L325" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M325" t="s" s="1">
-        <v>4296</v>
-      </c>
-      <c r="N325" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="O325" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="P325" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Q325" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="R325" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="S325" t="s" s="1">
-        <v>4297</v>
-      </c>
-      <c r="T325" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="U325" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="V325" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="W325" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="X325" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Y325" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Z325" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AA325" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AB325" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AC325" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AD325" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AE325" t="s" s="1">
-        <v>4298</v>
-      </c>
-      <c r="AF325" t="s" s="1">
-        <v>4299</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s" s="1">
-        <v>4300</v>
+        <v>4292</v>
       </c>
       <c r="B326" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C326" t="s" s="1">
+        <v>4293</v>
+      </c>
+      <c r="D326" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E326" t="s" s="1">
+        <v>4294</v>
+      </c>
+      <c r="F326" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G326" t="s" s="1">
+        <v>4295</v>
+      </c>
+      <c r="H326" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I326" t="s" s="1">
+        <v>4296</v>
+      </c>
+      <c r="J326" t="s" s="1">
+        <v>4297</v>
+      </c>
+      <c r="K326" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L326" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M326" t="s" s="1">
+        <v>4298</v>
+      </c>
+      <c r="N326" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O326" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P326" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q326" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R326" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S326" t="s" s="1">
+        <v>4299</v>
+      </c>
+      <c r="T326" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U326" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V326" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W326" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X326" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y326" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z326" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA326" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB326" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC326" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD326" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE326" t="s" s="1">
+        <v>4300</v>
+      </c>
+      <c r="AF326" t="s" s="1">
         <v>4301</v>
-      </c>
-      <c r="D326" t="s" s="1">
-        <v>4302</v>
-      </c>
-      <c r="E326" t="s" s="1">
-        <v>4303</v>
-      </c>
-      <c r="F326" t="s" s="1">
-        <v>4304</v>
-      </c>
-      <c r="G326" t="s" s="1">
-        <v>4305</v>
-      </c>
-      <c r="H326" t="s" s="1">
-        <v>4306</v>
-      </c>
-      <c r="I326" t="s" s="1">
-        <v>4307</v>
-      </c>
-      <c r="J326" t="s" s="1">
-        <v>4308</v>
-      </c>
-      <c r="K326" t="s" s="1">
-        <v>4309</v>
-      </c>
-      <c r="L326" t="s" s="1">
-        <v>4310</v>
-      </c>
-      <c r="M326" t="s" s="1">
-        <v>4311</v>
-      </c>
-      <c r="N326" t="s" s="1">
-        <v>4312</v>
-      </c>
-      <c r="O326" t="s" s="1">
-        <v>4313</v>
-      </c>
-      <c r="P326" t="s" s="1">
-        <v>4314</v>
-      </c>
-      <c r="Q326" t="s" s="1">
-        <v>4315</v>
-      </c>
-      <c r="R326" t="s" s="1">
-        <v>4316</v>
-      </c>
-      <c r="S326" t="s" s="1">
-        <v>4317</v>
-      </c>
-      <c r="T326" t="s" s="1">
-        <v>4318</v>
-      </c>
-      <c r="U326" t="s" s="1">
-        <v>4318</v>
-      </c>
-      <c r="V326" t="s" s="1">
-        <v>4319</v>
-      </c>
-      <c r="W326" t="s" s="1">
-        <v>4320</v>
-      </c>
-      <c r="X326" t="s" s="1">
-        <v>4321</v>
-      </c>
-      <c r="Y326" t="s" s="1">
-        <v>4322</v>
-      </c>
-      <c r="Z326" t="s" s="1">
-        <v>4323</v>
-      </c>
-      <c r="AA326" t="s" s="1">
-        <v>4324</v>
-      </c>
-      <c r="AB326" t="s" s="1">
-        <v>4325</v>
-      </c>
-      <c r="AC326" t="s" s="1">
-        <v>4326</v>
-      </c>
-      <c r="AD326" t="s" s="1">
-        <v>4327</v>
-      </c>
-      <c r="AE326" t="s" s="1">
-        <v>4328</v>
-      </c>
-      <c r="AF326" t="s" s="1">
-        <v>4329</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s" s="1">
-        <v>4330</v>
+        <v>4302</v>
       </c>
       <c r="B327" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C327" t="s" s="1">
+        <v>4303</v>
+      </c>
+      <c r="D327" t="s" s="1">
+        <v>4304</v>
+      </c>
+      <c r="E327" t="s" s="1">
+        <v>4305</v>
+      </c>
+      <c r="F327" t="s" s="1">
+        <v>4306</v>
+      </c>
+      <c r="G327" t="s" s="1">
+        <v>4307</v>
+      </c>
+      <c r="H327" t="s" s="1">
+        <v>4308</v>
+      </c>
+      <c r="I327" t="s" s="1">
+        <v>4309</v>
+      </c>
+      <c r="J327" t="s" s="1">
+        <v>4310</v>
+      </c>
+      <c r="K327" t="s" s="1">
+        <v>4311</v>
+      </c>
+      <c r="L327" t="s" s="1">
+        <v>4312</v>
+      </c>
+      <c r="M327" t="s" s="1">
+        <v>4313</v>
+      </c>
+      <c r="N327" t="s" s="1">
+        <v>4314</v>
+      </c>
+      <c r="O327" t="s" s="1">
+        <v>4315</v>
+      </c>
+      <c r="P327" t="s" s="1">
+        <v>4316</v>
+      </c>
+      <c r="Q327" t="s" s="1">
+        <v>4317</v>
+      </c>
+      <c r="R327" t="s" s="1">
+        <v>4318</v>
+      </c>
+      <c r="S327" t="s" s="1">
+        <v>4319</v>
+      </c>
+      <c r="T327" t="s" s="1">
+        <v>4320</v>
+      </c>
+      <c r="U327" t="s" s="1">
+        <v>4320</v>
+      </c>
+      <c r="V327" t="s" s="1">
+        <v>4321</v>
+      </c>
+      <c r="W327" t="s" s="1">
+        <v>4322</v>
+      </c>
+      <c r="X327" t="s" s="1">
+        <v>4323</v>
+      </c>
+      <c r="Y327" t="s" s="1">
+        <v>4324</v>
+      </c>
+      <c r="Z327" t="s" s="1">
+        <v>4325</v>
+      </c>
+      <c r="AA327" t="s" s="1">
+        <v>4326</v>
+      </c>
+      <c r="AB327" t="s" s="1">
+        <v>4327</v>
+      </c>
+      <c r="AC327" t="s" s="1">
+        <v>4328</v>
+      </c>
+      <c r="AD327" t="s" s="1">
+        <v>4329</v>
+      </c>
+      <c r="AE327" t="s" s="1">
+        <v>4330</v>
+      </c>
+      <c r="AF327" t="s" s="1">
         <v>4331</v>
-      </c>
-      <c r="D327" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="E327" t="s" s="1">
-        <v>4332</v>
-      </c>
-      <c r="F327" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="G327" t="s" s="1">
-        <v>4333</v>
-      </c>
-      <c r="H327" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="I327" t="s" s="1">
-        <v>4334</v>
-      </c>
-      <c r="J327" t="s" s="1">
-        <v>4335</v>
-      </c>
-      <c r="K327" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="L327" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M327" t="s" s="1">
-        <v>3036</v>
-      </c>
-      <c r="N327" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="O327" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="P327" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Q327" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="R327" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="S327" t="s" s="1">
-        <v>4336</v>
-      </c>
-      <c r="T327" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="U327" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="V327" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="W327" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="X327" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Y327" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Z327" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AA327" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AB327" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AC327" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AD327" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AE327" t="s" s="1">
-        <v>4337</v>
-      </c>
-      <c r="AF327" t="s" s="1">
-        <v>4338</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="s" s="1">
-        <v>4339</v>
+        <v>4332</v>
       </c>
       <c r="B328" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C328" t="s" s="1">
+        <v>4333</v>
+      </c>
+      <c r="D328" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E328" t="s" s="1">
+        <v>4334</v>
+      </c>
+      <c r="F328" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G328" t="s" s="1">
+        <v>4335</v>
+      </c>
+      <c r="H328" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I328" t="s" s="1">
+        <v>4336</v>
+      </c>
+      <c r="J328" t="s" s="1">
+        <v>4337</v>
+      </c>
+      <c r="K328" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L328" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M328" t="s" s="1">
+        <v>3036</v>
+      </c>
+      <c r="N328" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O328" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P328" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q328" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R328" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S328" t="s" s="1">
+        <v>4338</v>
+      </c>
+      <c r="T328" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U328" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V328" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W328" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X328" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y328" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z328" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA328" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB328" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC328" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD328" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE328" t="s" s="1">
+        <v>4339</v>
+      </c>
+      <c r="AF328" t="s" s="1">
         <v>4340</v>
-      </c>
-      <c r="D328" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="E328" t="s" s="1">
-        <v>1758</v>
-      </c>
-      <c r="F328" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="G328" t="s" s="1">
-        <v>4341</v>
-      </c>
-      <c r="H328" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="I328" t="s" s="1">
-        <v>4342</v>
-      </c>
-      <c r="J328" t="s" s="1">
-        <v>4343</v>
-      </c>
-      <c r="K328" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="L328" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M328" t="s" s="1">
-        <v>4344</v>
-      </c>
-      <c r="N328" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="O328" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="P328" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Q328" t="s" s="1">
-        <v>4345</v>
-      </c>
-      <c r="R328" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="S328" t="s" s="1">
-        <v>4346</v>
-      </c>
-      <c r="T328" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="U328" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="V328" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="W328" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="X328" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Y328" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Z328" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AA328" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AB328" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AC328" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AD328" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AE328" t="s" s="1">
-        <v>4347</v>
-      </c>
-      <c r="AF328" t="s" s="1">
-        <v>4348</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s" s="1">
-        <v>4349</v>
+        <v>4341</v>
       </c>
       <c r="B329" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C329" t="s" s="1">
+        <v>4342</v>
+      </c>
+      <c r="D329" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E329" t="s" s="1">
+        <v>1758</v>
+      </c>
+      <c r="F329" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G329" t="s" s="1">
+        <v>4343</v>
+      </c>
+      <c r="H329" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I329" t="s" s="1">
+        <v>4344</v>
+      </c>
+      <c r="J329" t="s" s="1">
+        <v>4345</v>
+      </c>
+      <c r="K329" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L329" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M329" t="s" s="1">
+        <v>4346</v>
+      </c>
+      <c r="N329" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O329" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P329" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q329" t="s" s="1">
+        <v>4347</v>
+      </c>
+      <c r="R329" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S329" t="s" s="1">
+        <v>4348</v>
+      </c>
+      <c r="T329" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U329" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V329" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W329" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X329" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y329" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z329" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA329" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB329" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC329" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD329" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE329" t="s" s="1">
+        <v>4349</v>
+      </c>
+      <c r="AF329" t="s" s="1">
         <v>4350</v>
-      </c>
-      <c r="D329" t="s" s="1">
-        <v>4351</v>
-      </c>
-      <c r="E329" t="s" s="1">
-        <v>4352</v>
-      </c>
-      <c r="F329" t="s" s="1">
-        <v>4353</v>
-      </c>
-      <c r="G329" t="s" s="1">
-        <v>4354</v>
-      </c>
-      <c r="H329" t="s" s="1">
-        <v>4355</v>
-      </c>
-      <c r="I329" t="s" s="1">
-        <v>4356</v>
-      </c>
-      <c r="J329" t="s" s="1">
-        <v>4357</v>
-      </c>
-      <c r="K329" t="s" s="1">
-        <v>4358</v>
-      </c>
-      <c r="L329" t="s" s="1">
-        <v>4359</v>
-      </c>
-      <c r="M329" t="s" s="1">
-        <v>4356</v>
-      </c>
-      <c r="N329" t="s" s="1">
-        <v>4360</v>
-      </c>
-      <c r="O329" t="s" s="1">
-        <v>4361</v>
-      </c>
-      <c r="P329" t="s" s="1">
-        <v>4353</v>
-      </c>
-      <c r="Q329" t="s" s="1">
-        <v>4362</v>
-      </c>
-      <c r="R329" t="s" s="1">
-        <v>4353</v>
-      </c>
-      <c r="S329" t="s" s="1">
-        <v>4363</v>
-      </c>
-      <c r="T329" t="s" s="1">
-        <v>4364</v>
-      </c>
-      <c r="U329" t="s" s="1">
-        <v>4364</v>
-      </c>
-      <c r="V329" t="s" s="1">
-        <v>4365</v>
-      </c>
-      <c r="W329" t="s" s="1">
-        <v>4366</v>
-      </c>
-      <c r="X329" t="s" s="1">
-        <v>4367</v>
-      </c>
-      <c r="Y329" t="s" s="1">
-        <v>4368</v>
-      </c>
-      <c r="Z329" t="s" s="1">
-        <v>4369</v>
-      </c>
-      <c r="AA329" t="s" s="1">
-        <v>4370</v>
-      </c>
-      <c r="AB329" t="s" s="1">
-        <v>4371</v>
-      </c>
-      <c r="AC329" t="s" s="1">
-        <v>4372</v>
-      </c>
-      <c r="AD329" t="s" s="1">
-        <v>4373</v>
-      </c>
-      <c r="AE329" t="s" s="1">
-        <v>4374</v>
-      </c>
-      <c r="AF329" t="s" s="1">
-        <v>4375</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="s" s="1">
-        <v>4376</v>
+        <v>4351</v>
       </c>
       <c r="B330" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C330" t="s" s="1">
+        <v>4352</v>
+      </c>
+      <c r="D330" t="s" s="1">
+        <v>4353</v>
+      </c>
+      <c r="E330" t="s" s="1">
+        <v>4354</v>
+      </c>
+      <c r="F330" t="s" s="1">
+        <v>4355</v>
+      </c>
+      <c r="G330" t="s" s="1">
+        <v>4356</v>
+      </c>
+      <c r="H330" t="s" s="1">
+        <v>4357</v>
+      </c>
+      <c r="I330" t="s" s="1">
+        <v>4358</v>
+      </c>
+      <c r="J330" t="s" s="1">
+        <v>4359</v>
+      </c>
+      <c r="K330" t="s" s="1">
+        <v>4360</v>
+      </c>
+      <c r="L330" t="s" s="1">
+        <v>4361</v>
+      </c>
+      <c r="M330" t="s" s="1">
+        <v>4358</v>
+      </c>
+      <c r="N330" t="s" s="1">
+        <v>4362</v>
+      </c>
+      <c r="O330" t="s" s="1">
+        <v>4363</v>
+      </c>
+      <c r="P330" t="s" s="1">
+        <v>4355</v>
+      </c>
+      <c r="Q330" t="s" s="1">
+        <v>4364</v>
+      </c>
+      <c r="R330" t="s" s="1">
+        <v>4355</v>
+      </c>
+      <c r="S330" t="s" s="1">
+        <v>4365</v>
+      </c>
+      <c r="T330" t="s" s="1">
+        <v>4366</v>
+      </c>
+      <c r="U330" t="s" s="1">
+        <v>4366</v>
+      </c>
+      <c r="V330" t="s" s="1">
+        <v>4367</v>
+      </c>
+      <c r="W330" t="s" s="1">
+        <v>4368</v>
+      </c>
+      <c r="X330" t="s" s="1">
+        <v>4369</v>
+      </c>
+      <c r="Y330" t="s" s="1">
+        <v>4370</v>
+      </c>
+      <c r="Z330" t="s" s="1">
+        <v>4371</v>
+      </c>
+      <c r="AA330" t="s" s="1">
+        <v>4372</v>
+      </c>
+      <c r="AB330" t="s" s="1">
+        <v>4373</v>
+      </c>
+      <c r="AC330" t="s" s="1">
+        <v>4374</v>
+      </c>
+      <c r="AD330" t="s" s="1">
+        <v>4375</v>
+      </c>
+      <c r="AE330" t="s" s="1">
+        <v>4376</v>
+      </c>
+      <c r="AF330" t="s" s="1">
         <v>4377</v>
-      </c>
-      <c r="D330" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="E330" t="s" s="1">
-        <v>4378</v>
-      </c>
-      <c r="F330" t="s" s="1">
-        <v>4379</v>
-      </c>
-      <c r="G330" t="s" s="1">
-        <v>4380</v>
-      </c>
-      <c r="H330" t="s" s="1">
-        <v>4381</v>
-      </c>
-      <c r="I330" t="s" s="1">
-        <v>4382</v>
-      </c>
-      <c r="J330" t="s" s="1">
-        <v>4383</v>
-      </c>
-      <c r="K330" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="L330" t="s" s="1">
-        <v>4384</v>
-      </c>
-      <c r="M330" t="s" s="1">
-        <v>4385</v>
-      </c>
-      <c r="N330" t="s" s="1">
-        <v>4386</v>
-      </c>
-      <c r="O330" t="s" s="1">
-        <v>4387</v>
-      </c>
-      <c r="P330" t="s" s="1">
-        <v>4379</v>
-      </c>
-      <c r="Q330" t="s" s="1">
-        <v>4388</v>
-      </c>
-      <c r="R330" t="s" s="1">
-        <v>4389</v>
-      </c>
-      <c r="S330" t="s" s="1">
-        <v>4390</v>
-      </c>
-      <c r="T330" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="U330" t="s" s="1">
-        <v>4391</v>
-      </c>
-      <c r="V330" t="s" s="1">
-        <v>4392</v>
-      </c>
-      <c r="W330" t="s" s="1">
-        <v>4393</v>
-      </c>
-      <c r="X330" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Y330" t="s" s="1">
-        <v>4394</v>
-      </c>
-      <c r="Z330" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AA330" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AB330" t="s" s="1">
-        <v>4395</v>
-      </c>
-      <c r="AC330" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AD330" t="s" s="1">
-        <v>4396</v>
-      </c>
-      <c r="AE330" t="s" s="1">
-        <v>4397</v>
-      </c>
-      <c r="AF330" t="s" s="1">
-        <v>4398</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s" s="1">
-        <v>4399</v>
+        <v>4378</v>
       </c>
       <c r="B331" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C331" t="s" s="1">
+        <v>4379</v>
+      </c>
+      <c r="D331" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E331" t="s" s="1">
+        <v>4380</v>
+      </c>
+      <c r="F331" t="s" s="1">
+        <v>4381</v>
+      </c>
+      <c r="G331" t="s" s="1">
+        <v>4382</v>
+      </c>
+      <c r="H331" t="s" s="1">
+        <v>4383</v>
+      </c>
+      <c r="I331" t="s" s="1">
+        <v>4384</v>
+      </c>
+      <c r="J331" t="s" s="1">
+        <v>4385</v>
+      </c>
+      <c r="K331" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L331" t="s" s="1">
+        <v>4386</v>
+      </c>
+      <c r="M331" t="s" s="1">
+        <v>4387</v>
+      </c>
+      <c r="N331" t="s" s="1">
+        <v>4388</v>
+      </c>
+      <c r="O331" t="s" s="1">
+        <v>4389</v>
+      </c>
+      <c r="P331" t="s" s="1">
+        <v>4381</v>
+      </c>
+      <c r="Q331" t="s" s="1">
+        <v>4390</v>
+      </c>
+      <c r="R331" t="s" s="1">
+        <v>4391</v>
+      </c>
+      <c r="S331" t="s" s="1">
+        <v>4392</v>
+      </c>
+      <c r="T331" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U331" t="s" s="1">
+        <v>4393</v>
+      </c>
+      <c r="V331" t="s" s="1">
+        <v>4394</v>
+      </c>
+      <c r="W331" t="s" s="1">
+        <v>4395</v>
+      </c>
+      <c r="X331" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y331" t="s" s="1">
+        <v>4396</v>
+      </c>
+      <c r="Z331" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA331" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB331" t="s" s="1">
+        <v>4397</v>
+      </c>
+      <c r="AC331" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD331" t="s" s="1">
+        <v>4398</v>
+      </c>
+      <c r="AE331" t="s" s="1">
+        <v>4399</v>
+      </c>
+      <c r="AF331" t="s" s="1">
         <v>4400</v>
-      </c>
-      <c r="D331" t="s" s="1">
-        <v>4401</v>
-      </c>
-      <c r="E331" t="s" s="1">
-        <v>4402</v>
-      </c>
-      <c r="F331" t="s" s="1">
-        <v>4403</v>
-      </c>
-      <c r="G331" t="s" s="1">
-        <v>4404</v>
-      </c>
-      <c r="H331" t="s" s="1">
-        <v>4405</v>
-      </c>
-      <c r="I331" t="s" s="1">
-        <v>4406</v>
-      </c>
-      <c r="J331" t="s" s="1">
-        <v>4407</v>
-      </c>
-      <c r="K331" t="s" s="1">
-        <v>4408</v>
-      </c>
-      <c r="L331" t="s" s="1">
-        <v>4409</v>
-      </c>
-      <c r="M331" t="s" s="1">
-        <v>4410</v>
-      </c>
-      <c r="N331" t="s" s="1">
-        <v>4411</v>
-      </c>
-      <c r="O331" t="s" s="1">
-        <v>4412</v>
-      </c>
-      <c r="P331" t="s" s="1">
-        <v>4413</v>
-      </c>
-      <c r="Q331" t="s" s="1">
-        <v>4414</v>
-      </c>
-      <c r="R331" t="s" s="1">
-        <v>4415</v>
-      </c>
-      <c r="S331" t="s" s="1">
-        <v>4416</v>
-      </c>
-      <c r="T331" t="s" s="1">
-        <v>4417</v>
-      </c>
-      <c r="U331" t="s" s="1">
-        <v>4417</v>
-      </c>
-      <c r="V331" t="s" s="1">
-        <v>4418</v>
-      </c>
-      <c r="W331" t="s" s="1">
-        <v>4419</v>
-      </c>
-      <c r="X331" t="s" s="1">
-        <v>4420</v>
-      </c>
-      <c r="Y331" t="s" s="1">
-        <v>4421</v>
-      </c>
-      <c r="Z331" t="s" s="1">
-        <v>4422</v>
-      </c>
-      <c r="AA331" t="s" s="1">
-        <v>4423</v>
-      </c>
-      <c r="AB331" t="s" s="1">
-        <v>4424</v>
-      </c>
-      <c r="AC331" t="s" s="1">
-        <v>4425</v>
-      </c>
-      <c r="AD331" t="s" s="1">
-        <v>4426</v>
-      </c>
-      <c r="AE331" t="s" s="1">
-        <v>4427</v>
-      </c>
-      <c r="AF331" t="s" s="1">
-        <v>4428</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="s" s="1">
-        <v>4429</v>
+        <v>4401</v>
       </c>
       <c r="B332" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C332" t="s" s="1">
+        <v>4402</v>
+      </c>
+      <c r="D332" t="s" s="1">
+        <v>4403</v>
+      </c>
+      <c r="E332" t="s" s="1">
+        <v>4404</v>
+      </c>
+      <c r="F332" t="s" s="1">
+        <v>4405</v>
+      </c>
+      <c r="G332" t="s" s="1">
+        <v>4406</v>
+      </c>
+      <c r="H332" t="s" s="1">
+        <v>4407</v>
+      </c>
+      <c r="I332" t="s" s="1">
+        <v>4408</v>
+      </c>
+      <c r="J332" t="s" s="1">
+        <v>4409</v>
+      </c>
+      <c r="K332" t="s" s="1">
+        <v>4410</v>
+      </c>
+      <c r="L332" t="s" s="1">
+        <v>4411</v>
+      </c>
+      <c r="M332" t="s" s="1">
+        <v>4412</v>
+      </c>
+      <c r="N332" t="s" s="1">
+        <v>4413</v>
+      </c>
+      <c r="O332" t="s" s="1">
+        <v>4414</v>
+      </c>
+      <c r="P332" t="s" s="1">
+        <v>4415</v>
+      </c>
+      <c r="Q332" t="s" s="1">
+        <v>4416</v>
+      </c>
+      <c r="R332" t="s" s="1">
+        <v>4417</v>
+      </c>
+      <c r="S332" t="s" s="1">
+        <v>4418</v>
+      </c>
+      <c r="T332" t="s" s="1">
+        <v>4419</v>
+      </c>
+      <c r="U332" t="s" s="1">
+        <v>4419</v>
+      </c>
+      <c r="V332" t="s" s="1">
+        <v>4420</v>
+      </c>
+      <c r="W332" t="s" s="1">
+        <v>4421</v>
+      </c>
+      <c r="X332" t="s" s="1">
+        <v>4422</v>
+      </c>
+      <c r="Y332" t="s" s="1">
+        <v>4423</v>
+      </c>
+      <c r="Z332" t="s" s="1">
+        <v>4424</v>
+      </c>
+      <c r="AA332" t="s" s="1">
+        <v>4425</v>
+      </c>
+      <c r="AB332" t="s" s="1">
+        <v>4426</v>
+      </c>
+      <c r="AC332" t="s" s="1">
+        <v>4427</v>
+      </c>
+      <c r="AD332" t="s" s="1">
+        <v>4428</v>
+      </c>
+      <c r="AE332" t="s" s="1">
+        <v>4429</v>
+      </c>
+      <c r="AF332" t="s" s="1">
         <v>4430</v>
-      </c>
-      <c r="D332" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="E332" t="s" s="1">
-        <v>4431</v>
-      </c>
-      <c r="F332" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="G332" t="s" s="1">
-        <v>4432</v>
-      </c>
-      <c r="H332" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="I332" t="s" s="1">
-        <v>4433</v>
-      </c>
-      <c r="J332" t="s" s="1">
-        <v>4434</v>
-      </c>
-      <c r="K332" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="L332" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M332" t="s" s="1">
-        <v>4435</v>
-      </c>
-      <c r="N332" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="O332" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="P332" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Q332" t="s" s="1">
-        <v>4436</v>
-      </c>
-      <c r="R332" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="S332" t="s" s="1">
-        <v>4437</v>
-      </c>
-      <c r="T332" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="U332" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="V332" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="W332" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="X332" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Y332" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Z332" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AA332" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AB332" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AC332" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AD332" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AE332" t="s" s="1">
-        <v>4438</v>
-      </c>
-      <c r="AF332" t="s" s="1">
-        <v>4439</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="s" s="1">
-        <v>4440</v>
+        <v>4431</v>
       </c>
       <c r="B333" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C333" t="s" s="1">
+        <v>4432</v>
+      </c>
+      <c r="D333" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E333" t="s" s="1">
+        <v>4433</v>
+      </c>
+      <c r="F333" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G333" t="s" s="1">
+        <v>4434</v>
+      </c>
+      <c r="H333" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I333" t="s" s="1">
+        <v>4435</v>
+      </c>
+      <c r="J333" t="s" s="1">
+        <v>4436</v>
+      </c>
+      <c r="K333" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L333" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M333" t="s" s="1">
+        <v>4437</v>
+      </c>
+      <c r="N333" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O333" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P333" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q333" t="s" s="1">
+        <v>4438</v>
+      </c>
+      <c r="R333" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S333" t="s" s="1">
+        <v>4439</v>
+      </c>
+      <c r="T333" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U333" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V333" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W333" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X333" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y333" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z333" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA333" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB333" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC333" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD333" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE333" t="s" s="1">
+        <v>4440</v>
+      </c>
+      <c r="AF333" t="s" s="1">
         <v>4441</v>
-      </c>
-      <c r="D333" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="E333" t="s" s="1">
-        <v>4442</v>
-      </c>
-      <c r="F333" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="G333" t="s" s="1">
-        <v>4443</v>
-      </c>
-      <c r="H333" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="I333" t="s" s="1">
-        <v>4444</v>
-      </c>
-      <c r="J333" t="s" s="1">
-        <v>4445</v>
-      </c>
-      <c r="K333" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="L333" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M333" t="s" s="1">
-        <v>4446</v>
-      </c>
-      <c r="N333" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="O333" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="P333" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Q333" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="R333" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="S333" t="s" s="1">
-        <v>4447</v>
-      </c>
-      <c r="T333" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="U333" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="V333" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="W333" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="X333" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Y333" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Z333" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AA333" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AB333" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AC333" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AD333" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AE333" t="s" s="1">
-        <v>4448</v>
-      </c>
-      <c r="AF333" t="s" s="1">
-        <v>4449</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="s" s="1">
-        <v>4450</v>
+        <v>4442</v>
       </c>
       <c r="B334" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C334" t="s" s="1">
+        <v>4443</v>
+      </c>
+      <c r="D334" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E334" t="s" s="1">
+        <v>4444</v>
+      </c>
+      <c r="F334" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G334" t="s" s="1">
+        <v>4445</v>
+      </c>
+      <c r="H334" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I334" t="s" s="1">
+        <v>4446</v>
+      </c>
+      <c r="J334" t="s" s="1">
+        <v>4447</v>
+      </c>
+      <c r="K334" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L334" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M334" t="s" s="1">
+        <v>4448</v>
+      </c>
+      <c r="N334" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O334" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P334" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q334" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R334" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S334" t="s" s="1">
+        <v>4449</v>
+      </c>
+      <c r="T334" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U334" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V334" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W334" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X334" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y334" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z334" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA334" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB334" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC334" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD334" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE334" t="s" s="1">
+        <v>4450</v>
+      </c>
+      <c r="AF334" t="s" s="1">
         <v>4451</v>
-      </c>
-      <c r="D334" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="E334" t="s" s="1">
-        <v>4452</v>
-      </c>
-      <c r="F334" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="G334" t="s" s="1">
-        <v>4453</v>
-      </c>
-      <c r="H334" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="I334" t="s" s="1">
-        <v>4454</v>
-      </c>
-      <c r="J334" t="s" s="1">
-        <v>4455</v>
-      </c>
-      <c r="K334" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="L334" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M334" t="s" s="1">
-        <v>4456</v>
-      </c>
-      <c r="N334" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="O334" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="P334" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Q334" t="s" s="1">
-        <v>4457</v>
-      </c>
-      <c r="R334" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="S334" t="s" s="1">
-        <v>4458</v>
-      </c>
-      <c r="T334" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="U334" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="V334" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="W334" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="X334" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Y334" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Z334" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AA334" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AB334" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AC334" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AD334" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AE334" t="s" s="1">
-        <v>4459</v>
-      </c>
-      <c r="AF334" t="s" s="1">
-        <v>4460</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="s" s="1">
-        <v>4461</v>
+        <v>4452</v>
       </c>
       <c r="B335" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C335" t="s" s="1">
+        <v>4453</v>
+      </c>
+      <c r="D335" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E335" t="s" s="1">
+        <v>4454</v>
+      </c>
+      <c r="F335" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G335" t="s" s="1">
+        <v>4455</v>
+      </c>
+      <c r="H335" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I335" t="s" s="1">
+        <v>4456</v>
+      </c>
+      <c r="J335" t="s" s="1">
+        <v>4457</v>
+      </c>
+      <c r="K335" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L335" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M335" t="s" s="1">
+        <v>4458</v>
+      </c>
+      <c r="N335" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O335" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P335" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q335" t="s" s="1">
+        <v>4459</v>
+      </c>
+      <c r="R335" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S335" t="s" s="1">
+        <v>4460</v>
+      </c>
+      <c r="T335" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U335" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V335" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W335" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X335" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y335" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z335" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA335" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB335" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC335" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD335" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE335" t="s" s="1">
+        <v>4461</v>
+      </c>
+      <c r="AF335" t="s" s="1">
         <v>4462</v>
-      </c>
-      <c r="D335" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="E335" t="s" s="1">
-        <v>4463</v>
-      </c>
-      <c r="F335" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="G335" t="s" s="1">
-        <v>4464</v>
-      </c>
-      <c r="H335" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="I335" t="s" s="1">
-        <v>4465</v>
-      </c>
-      <c r="J335" t="s" s="1">
-        <v>4466</v>
-      </c>
-      <c r="K335" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="L335" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M335" t="s" s="1">
-        <v>4467</v>
-      </c>
-      <c r="N335" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="O335" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="P335" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Q335" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="R335" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="S335" t="s" s="1">
-        <v>4468</v>
-      </c>
-      <c r="T335" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="U335" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="V335" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="W335" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="X335" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Y335" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Z335" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AA335" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AB335" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AC335" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AD335" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AE335" t="s" s="1">
-        <v>4469</v>
-      </c>
-      <c r="AF335" t="s" s="1">
-        <v>4470</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="s" s="1">
-        <v>4471</v>
+        <v>4463</v>
       </c>
       <c r="B336" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C336" t="s" s="1">
+        <v>4464</v>
+      </c>
+      <c r="D336" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E336" t="s" s="1">
+        <v>4465</v>
+      </c>
+      <c r="F336" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G336" t="s" s="1">
+        <v>4466</v>
+      </c>
+      <c r="H336" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I336" t="s" s="1">
+        <v>4467</v>
+      </c>
+      <c r="J336" t="s" s="1">
+        <v>4468</v>
+      </c>
+      <c r="K336" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L336" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M336" t="s" s="1">
+        <v>4469</v>
+      </c>
+      <c r="N336" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O336" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P336" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q336" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R336" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S336" t="s" s="1">
+        <v>4470</v>
+      </c>
+      <c r="T336" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U336" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V336" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W336" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X336" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y336" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z336" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA336" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB336" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC336" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD336" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE336" t="s" s="1">
+        <v>4471</v>
+      </c>
+      <c r="AF336" t="s" s="1">
         <v>4472</v>
-      </c>
-      <c r="D336" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="E336" t="s" s="1">
-        <v>4473</v>
-      </c>
-      <c r="F336" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="G336" t="s" s="1">
-        <v>4474</v>
-      </c>
-      <c r="H336" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="I336" t="s" s="1">
-        <v>4475</v>
-      </c>
-      <c r="J336" t="s" s="1">
-        <v>4476</v>
-      </c>
-      <c r="K336" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="L336" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="M336" t="s" s="1">
-        <v>4477</v>
-      </c>
-      <c r="N336" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="O336" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="P336" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Q336" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="R336" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="S336" t="s" s="1">
-        <v>4478</v>
-      </c>
-      <c r="T336" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="U336" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="V336" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="W336" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="X336" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Y336" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="Z336" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AA336" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AB336" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AC336" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AD336" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="AE336" t="s" s="1">
-        <v>4479</v>
-      </c>
-      <c r="AF336" t="s" s="1">
-        <v>4480</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s" s="1">
-        <v>4481</v>
+        <v>4473</v>
       </c>
       <c r="B337" t="s" s="1">
         <v>33</v>
       </c>
       <c r="C337" t="s" s="1">
+        <v>4474</v>
+      </c>
+      <c r="D337" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E337" t="s" s="1">
+        <v>4475</v>
+      </c>
+      <c r="F337" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G337" t="s" s="1">
+        <v>4476</v>
+      </c>
+      <c r="H337" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I337" t="s" s="1">
+        <v>4477</v>
+      </c>
+      <c r="J337" t="s" s="1">
+        <v>4478</v>
+      </c>
+      <c r="K337" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L337" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M337" t="s" s="1">
+        <v>4479</v>
+      </c>
+      <c r="N337" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O337" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P337" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q337" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R337" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S337" t="s" s="1">
+        <v>4480</v>
+      </c>
+      <c r="T337" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U337" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V337" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W337" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X337" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y337" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z337" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA337" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB337" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC337" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD337" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE337" t="s" s="1">
+        <v>4481</v>
+      </c>
+      <c r="AF337" t="s" s="1">
         <v>4482</v>
       </c>
-      <c r="D337" t="s" s="1">
+    </row>
+    <row r="338">
+      <c r="A338" t="s" s="1">
         <v>4483</v>
       </c>
-      <c r="E337" t="s" s="1">
+      <c r="B338" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C338" t="s" s="1">
         <v>4484</v>
       </c>
-      <c r="F337" t="s" s="1">
+      <c r="D338" t="s" s="1">
         <v>4485</v>
       </c>
-      <c r="G337" t="s" s="1">
+      <c r="E338" t="s" s="1">
         <v>4486</v>
       </c>
-      <c r="H337" t="s" s="1">
+      <c r="F338" t="s" s="1">
         <v>4487</v>
       </c>
-      <c r="I337" t="s" s="1">
+      <c r="G338" t="s" s="1">
         <v>4488</v>
       </c>
-      <c r="J337" t="s" s="1">
+      <c r="H338" t="s" s="1">
         <v>4489</v>
       </c>
-      <c r="K337" t="s" s="1">
+      <c r="I338" t="s" s="1">
         <v>4490</v>
       </c>
-      <c r="L337" t="s" s="1">
+      <c r="J338" t="s" s="1">
         <v>4491</v>
       </c>
-      <c r="M337" t="s" s="1">
+      <c r="K338" t="s" s="1">
         <v>4492</v>
       </c>
-      <c r="N337" t="s" s="1">
+      <c r="L338" t="s" s="1">
         <v>4493</v>
       </c>
-      <c r="O337" t="s" s="1">
+      <c r="M338" t="s" s="1">
         <v>4494</v>
       </c>
-      <c r="P337" t="s" s="1">
+      <c r="N338" t="s" s="1">
         <v>4495</v>
       </c>
-      <c r="Q337" t="s" s="1">
+      <c r="O338" t="s" s="1">
         <v>4496</v>
       </c>
-      <c r="R337" t="s" s="1">
+      <c r="P338" t="s" s="1">
         <v>4497</v>
       </c>
-      <c r="S337" t="s" s="1">
+      <c r="Q338" t="s" s="1">
         <v>4498</v>
       </c>
-      <c r="T337" t="s" s="1">
+      <c r="R338" t="s" s="1">
         <v>4499</v>
       </c>
-      <c r="U337" t="s" s="1">
+      <c r="S338" t="s" s="1">
         <v>4500</v>
       </c>
-      <c r="V337" t="s" s="1">
+      <c r="T338" t="s" s="1">
         <v>4501</v>
       </c>
-      <c r="W337" t="s" s="1">
+      <c r="U338" t="s" s="1">
         <v>4502</v>
       </c>
-      <c r="X337" t="s" s="1">
+      <c r="V338" t="s" s="1">
         <v>4503</v>
       </c>
-      <c r="Y337" t="s" s="1">
+      <c r="W338" t="s" s="1">
         <v>4504</v>
       </c>
-      <c r="Z337" t="s" s="1">
+      <c r="X338" t="s" s="1">
         <v>4505</v>
       </c>
-      <c r="AA337" t="s" s="1">
+      <c r="Y338" t="s" s="1">
         <v>4506</v>
       </c>
-      <c r="AB337" t="s" s="1">
+      <c r="Z338" t="s" s="1">
         <v>4507</v>
       </c>
-      <c r="AC337" t="s" s="1">
+      <c r="AA338" t="s" s="1">
         <v>4508</v>
       </c>
-      <c r="AD337" t="s" s="1">
+      <c r="AB338" t="s" s="1">
         <v>4509</v>
       </c>
-      <c r="AE337" t="s" s="1">
+      <c r="AC338" t="s" s="1">
         <v>4510</v>
       </c>
-      <c r="AF337" t="s" s="1">
+      <c r="AD338" t="s" s="1">
         <v>4511</v>
+      </c>
+      <c r="AE338" t="s" s="1">
+        <v>4512</v>
+      </c>
+      <c r="AF338" t="s" s="1">
+        <v>4513</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AG337"/>
+  <autoFilter ref="A1:AG338"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId3"/>

--- a/app/translations.xlsx
+++ b/app/translations.xlsx
@@ -12370,7 +12370,7 @@
     <t>values-hu</t>
   </si>
   <si>
-    <t>values-in</t>
+    <t>values-id</t>
   </si>
   <si>
     <t>values-it</t>

--- a/app/translations.xlsx
+++ b/app/translations.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Translations" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Translations!$A$1:$AG$345</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Translations!$A$1:$AG$347</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -12335,7 +12335,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11040" uniqueCount="5065">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11104" uniqueCount="5069">
   <si>
     <t>Key</t>
   </si>
@@ -27658,6 +27658,18 @@
   </si>
   <si>
     <t>不會刪除與此標籤相關的筆記</t>
+  </si>
+  <si>
+    <t>always_show_search_bar</t>
+  </si>
+  <si>
+    <t>Always show search bar expanded</t>
+  </si>
+  <si>
+    <t>always_show_search_bar_hint</t>
+  </si>
+  <si>
+    <t>By enabling this, the search bar will always be shown in the layout instead of using a search icon in the top bar</t>
   </si>
 </sst>
 </file>
@@ -31898,7 +31910,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF345"/>
+  <dimension ref="A1:AF347"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="3.0" ySplit="1.0" state="frozen" topLeftCell="D2" activePane="bottomRight"/>
@@ -65721,8 +65733,204 @@
         <v>5064</v>
       </c>
     </row>
+    <row r="346">
+      <c r="A346" t="s" s="1">
+        <v>5065</v>
+      </c>
+      <c r="B346" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C346" t="s" s="1">
+        <v>5066</v>
+      </c>
+      <c r="D346" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E346" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F346" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G346" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H346" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I346" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J346" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K346" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L346" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M346" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N346" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O346" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P346" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q346" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R346" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S346" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T346" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U346" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V346" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W346" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X346" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y346" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z346" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA346" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB346" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC346" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD346" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE346" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF346" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s" s="1">
+        <v>5067</v>
+      </c>
+      <c r="B347" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="C347" t="s" s="1">
+        <v>5068</v>
+      </c>
+      <c r="D347" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="E347" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F347" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="G347" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="H347" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="I347" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="J347" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K347" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="L347" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M347" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="N347" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="O347" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="P347" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Q347" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="R347" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="S347" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="T347" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="U347" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="V347" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="W347" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="X347" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Y347" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="Z347" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AA347" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AB347" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AC347" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AD347" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AE347" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="AF347" t="s" s="2">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AG345"/>
+  <autoFilter ref="A1:AG347"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId3"/>

--- a/app/translations.xlsx
+++ b/app/translations.xlsx
@@ -15223,7 +15223,8 @@
     <t>auto_backups_folder_hint</t>
   </si>
   <si>
-    <t>Folder in which all auto backups will be stored in.</t>
+    <t>Folder in which all auto backups will be stored in.
+If you want to use Cloud-Storage/WebDAV for your backups, please read the docs (click "%1$s")</t>
   </si>
   <si>
     <t>Adresář pro uložení automatických záloh.</t>

--- a/app/translations.xlsx
+++ b/app/translations.xlsx
@@ -20927,7 +20927,7 @@
     <t>Exported %1$s Note</t>
   </si>
   <si>
-    <t>1$s Notiz exportiert</t>
+    <t>%1$s Notiz exportiert</t>
   </si>
   <si>
     <t>导出了%1$s则笔记</t>
@@ -20939,7 +20939,7 @@
     <t>Exported %1$s Notes</t>
   </si>
   <si>
-    <t>1$s Notizen exportiert</t>
+    <t>%1$s Notizen exportiert</t>
   </si>
   <si>
     <t>exported_notes_PLURALS_two</t>

--- a/app/translations.xlsx
+++ b/app/translations.xlsx
@@ -25180,43 +25180,43 @@
     <t>plain_text_files</t>
   </si>
   <si>
-    <t>Plain Text Files</t>
-  </si>
-  <si>
-    <t>Textové soubory</t>
-  </si>
-  <si>
-    <t>Text Dateien</t>
-  </si>
-  <si>
-    <t>Ficheros en texto plano</t>
-  </si>
-  <si>
-    <t>Fichiers texte bruts</t>
-  </si>
-  <si>
-    <t>File di testo semplice</t>
-  </si>
-  <si>
-    <t>Zwykłe pliki tekstowe</t>
-  </si>
-  <si>
-    <t>Fișiere cu text simplu</t>
-  </si>
-  <si>
-    <t>Текстовые файлы</t>
-  </si>
-  <si>
-    <t>纯文本文件</t>
-  </si>
-  <si>
-    <t>純文字檔案</t>
+    <t>Markdown/Plain Text Files</t>
+  </si>
+  <si>
+    <t>Markdown/Textové soubory</t>
+  </si>
+  <si>
+    <t>Markdown/Text Dateien</t>
+  </si>
+  <si>
+    <t>Ficheros en Markdown/texto plano</t>
+  </si>
+  <si>
+    <t>Markdown/Fichiers texte bruts</t>
+  </si>
+  <si>
+    <t>File di Markdown/testo semplice</t>
+  </si>
+  <si>
+    <t>Markdown/Zwykłe pliki tekstowe</t>
+  </si>
+  <si>
+    <t>Fișiere cu Markdown/text simplu</t>
+  </si>
+  <si>
+    <t>Markdown/Текстовые файлы</t>
+  </si>
+  <si>
+    <t>Markdown/纯文本文件</t>
+  </si>
+  <si>
+    <t>Markdown/純文字檔案</t>
   </si>
   <si>
     <t>plain_text_files_help</t>
   </si>
   <si>
-    <t>In order to import your Notes from plain text files (single file or folder), click Import. Every file is imported as a separate note, the file’s name becomes the note’s title. If the text contents start with list syntax (e.g. Markdown ’- [x]’, NotallyX syntax ’[✓]’, or ’*’, ’-’) it will be converted to a List note.</t>
+    <t>In order to import your Notes from markdown/plain text files (single file or folder), click Import. Every file is imported as a separate note, the file’s name becomes the note’s title. If the text contents start with list syntax (e.g. Markdown ’- [x]’, NotallyX syntax ’[✓]’, or ’*’, ’-’) it will be converted to a List note.</t>
   </si>
   <si>
     <t>Chcete-li importovat poznámky z textových souborů (jednotlivých souborů nebo složek), klikněte na tlačítko Importovat. Každý soubor se importuje jako samostatná poznámka, název souboru se stane názvem poznámky. Pokud textový obsah začíná syntaxí seznamu (např. syntaxí Markdown '- [x]', NotallyX '[✓]' nebo '*', '-'), bude převeden na poznámku Seznam.</t>
